--- a/world-data-2023.xlsx
+++ b/world-data-2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="1660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1529">
   <si>
     <t>Country</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Population: Labor force participation (%)</t>
+    <t>Labor force participation (%)</t>
   </si>
   <si>
     <t>Tax revenue (%)</t>
@@ -4602,399 +4602,6 @@
   </si>
   <si>
     <t>25.80%</t>
-  </si>
-  <si>
-    <t>48.90%</t>
-  </si>
-  <si>
-    <t>55.70%</t>
-  </si>
-  <si>
-    <t>41.20%</t>
-  </si>
-  <si>
-    <t>77.50%</t>
-  </si>
-  <si>
-    <t>55.60%</t>
-  </si>
-  <si>
-    <t>65.50%</t>
-  </si>
-  <si>
-    <t>60.70%</t>
-  </si>
-  <si>
-    <t>74.60%</t>
-  </si>
-  <si>
-    <t>73.40%</t>
-  </si>
-  <si>
-    <t>59.00%</t>
-  </si>
-  <si>
-    <t>65.20%</t>
-  </si>
-  <si>
-    <t>64.10%</t>
-  </si>
-  <si>
-    <t>53.60%</t>
-  </si>
-  <si>
-    <t>70.90%</t>
-  </si>
-  <si>
-    <t>66.70%</t>
-  </si>
-  <si>
-    <t>46.40%</t>
-  </si>
-  <si>
-    <t>70.80%</t>
-  </si>
-  <si>
-    <t>63.90%</t>
-  </si>
-  <si>
-    <t>64.70%</t>
-  </si>
-  <si>
-    <t>55.40%</t>
-  </si>
-  <si>
-    <t>66.40%</t>
-  </si>
-  <si>
-    <t>79.20%</t>
-  </si>
-  <si>
-    <t>60.50%</t>
-  </si>
-  <si>
-    <t>82.30%</t>
-  </si>
-  <si>
-    <t>76.10%</t>
-  </si>
-  <si>
-    <t>70.70%</t>
-  </si>
-  <si>
-    <t>62.60%</t>
-  </si>
-  <si>
-    <t>68.00%</t>
-  </si>
-  <si>
-    <t>68.80%</t>
-  </si>
-  <si>
-    <t>43.30%</t>
-  </si>
-  <si>
-    <t>69.40%</t>
-  </si>
-  <si>
-    <t>62.10%</t>
-  </si>
-  <si>
-    <t>51.20%</t>
-  </si>
-  <si>
-    <t>60.60%</t>
-  </si>
-  <si>
-    <t>63.50%</t>
-  </si>
-  <si>
-    <t>62.20%</t>
-  </si>
-  <si>
-    <t>60.20%</t>
-  </si>
-  <si>
-    <t>64.30%</t>
-  </si>
-  <si>
-    <t>59.10%</t>
-  </si>
-  <si>
-    <t>63.60%</t>
-  </si>
-  <si>
-    <t>79.60%</t>
-  </si>
-  <si>
-    <t>57.60%</t>
-  </si>
-  <si>
-    <t>55.10%</t>
-  </si>
-  <si>
-    <t>52.90%</t>
-  </si>
-  <si>
-    <t>68.30%</t>
-  </si>
-  <si>
-    <t>60.80%</t>
-  </si>
-  <si>
-    <t>67.80%</t>
-  </si>
-  <si>
-    <t>51.80%</t>
-  </si>
-  <si>
-    <t>62.30%</t>
-  </si>
-  <si>
-    <t>61.50%</t>
-  </si>
-  <si>
-    <t>56.20%</t>
-  </si>
-  <si>
-    <t>67.20%</t>
-  </si>
-  <si>
-    <t>56.50%</t>
-  </si>
-  <si>
-    <t>75.00%</t>
-  </si>
-  <si>
-    <t>49.30%</t>
-  </si>
-  <si>
-    <t>67.50%</t>
-  </si>
-  <si>
-    <t>44.70%</t>
-  </si>
-  <si>
-    <t>43.00%</t>
-  </si>
-  <si>
-    <t>64.00%</t>
-  </si>
-  <si>
-    <t>49.60%</t>
-  </si>
-  <si>
-    <t>66.00%</t>
-  </si>
-  <si>
-    <t>61.70%</t>
-  </si>
-  <si>
-    <t>74.70%</t>
-  </si>
-  <si>
-    <t>73.50%</t>
-  </si>
-  <si>
-    <t>59.80%</t>
-  </si>
-  <si>
-    <t>78.50%</t>
-  </si>
-  <si>
-    <t>61.40%</t>
-  </si>
-  <si>
-    <t>47.00%</t>
-  </si>
-  <si>
-    <t>67.90%</t>
-  </si>
-  <si>
-    <t>76.30%</t>
-  </si>
-  <si>
-    <t>49.70%</t>
-  </si>
-  <si>
-    <t>61.60%</t>
-  </si>
-  <si>
-    <t>59.30%</t>
-  </si>
-  <si>
-    <t>86.10%</t>
-  </si>
-  <si>
-    <t>76.70%</t>
-  </si>
-  <si>
-    <t>69.80%</t>
-  </si>
-  <si>
-    <t>45.90%</t>
-  </si>
-  <si>
-    <t>58.30%</t>
-  </si>
-  <si>
-    <t>43.10%</t>
-  </si>
-  <si>
-    <t>59.70%</t>
-  </si>
-  <si>
-    <t>54.40%</t>
-  </si>
-  <si>
-    <t>45.30%</t>
-  </si>
-  <si>
-    <t>78.10%</t>
-  </si>
-  <si>
-    <t>59.50%</t>
-  </si>
-  <si>
-    <t>83.80%</t>
-  </si>
-  <si>
-    <t>69.90%</t>
-  </si>
-  <si>
-    <t>80.40%</t>
-  </si>
-  <si>
-    <t>63.80%</t>
-  </si>
-  <si>
-    <t>72.40%</t>
-  </si>
-  <si>
-    <t>52.60%</t>
-  </si>
-  <si>
-    <t>66.60%</t>
-  </si>
-  <si>
-    <t>47.20%</t>
-  </si>
-  <si>
-    <t>72.10%</t>
-  </si>
-  <si>
-    <t>77.60%</t>
-  </si>
-  <si>
-    <t>59.60%</t>
-  </si>
-  <si>
-    <t>56.70%</t>
-  </si>
-  <si>
-    <t>58.80%</t>
-  </si>
-  <si>
-    <t>86.80%</t>
-  </si>
-  <si>
-    <t>54.70%</t>
-  </si>
-  <si>
-    <t>61.80%</t>
-  </si>
-  <si>
-    <t>83.70%</t>
-  </si>
-  <si>
-    <t>67.10%</t>
-  </si>
-  <si>
-    <t>65.90%</t>
-  </si>
-  <si>
-    <t>55.90%</t>
-  </si>
-  <si>
-    <t>45.70%</t>
-  </si>
-  <si>
-    <t>54.90%</t>
-  </si>
-  <si>
-    <t>57.90%</t>
-  </si>
-  <si>
-    <t>70.50%</t>
-  </si>
-  <si>
-    <t>58.40%</t>
-  </si>
-  <si>
-    <t>47.40%</t>
-  </si>
-  <si>
-    <t>56.00%</t>
-  </si>
-  <si>
-    <t>63.00%</t>
-  </si>
-  <si>
-    <t>57.50%</t>
-  </si>
-  <si>
-    <t>53.90%</t>
-  </si>
-  <si>
-    <t>51.10%</t>
-  </si>
-  <si>
-    <t>64.60%</t>
-  </si>
-  <si>
-    <t>44.10%</t>
-  </si>
-  <si>
-    <t>42.00%</t>
-  </si>
-  <si>
-    <t>83.40%</t>
-  </si>
-  <si>
-    <t>67.30%</t>
-  </si>
-  <si>
-    <t>60.00%</t>
-  </si>
-  <si>
-    <t>46.10%</t>
-  </si>
-  <si>
-    <t>52.80%</t>
-  </si>
-  <si>
-    <t>64.50%</t>
-  </si>
-  <si>
-    <t>70.30%</t>
-  </si>
-  <si>
-    <t>54.20%</t>
-  </si>
-  <si>
-    <t>82.10%</t>
-  </si>
-  <si>
-    <t>62.80%</t>
-  </si>
-  <si>
-    <t>77.40%</t>
-  </si>
-  <si>
-    <t>38.00%</t>
-  </si>
-  <si>
-    <t>83.10%</t>
   </si>
 </sst>
 </file>
@@ -5553,8 +5160,8 @@
       <c r="AB2">
         <v>38041754</v>
       </c>
-      <c r="AC2" t="s">
-        <v>1529</v>
+      <c r="AC2">
+        <v>48.9</v>
       </c>
       <c r="AD2">
         <v>9.300000000000001</v>
@@ -5663,8 +5270,8 @@
       <c r="AB3">
         <v>2854191</v>
       </c>
-      <c r="AC3" t="s">
-        <v>1530</v>
+      <c r="AC3">
+        <v>55.7</v>
       </c>
       <c r="AD3">
         <v>18.6</v>
@@ -5773,8 +5380,8 @@
       <c r="AB4">
         <v>43053054</v>
       </c>
-      <c r="AC4" t="s">
-        <v>1531</v>
+      <c r="AC4">
+        <v>41.2</v>
       </c>
       <c r="AD4">
         <v>37.2</v>
@@ -5963,8 +5570,8 @@
       <c r="AB6">
         <v>31825295</v>
       </c>
-      <c r="AC6" t="s">
-        <v>1532</v>
+      <c r="AC6">
+        <v>77.5</v>
       </c>
       <c r="AD6">
         <v>9.199999999999999</v>
@@ -6177,8 +5784,8 @@
       <c r="AB8">
         <v>44938712</v>
       </c>
-      <c r="AC8" t="s">
-        <v>1503</v>
+      <c r="AC8">
+        <v>61.3</v>
       </c>
       <c r="AD8">
         <v>10.1</v>
@@ -6287,8 +5894,8 @@
       <c r="AB9">
         <v>2957731</v>
       </c>
-      <c r="AC9" t="s">
-        <v>1533</v>
+      <c r="AC9">
+        <v>55.6</v>
       </c>
       <c r="AD9">
         <v>20.9</v>
@@ -6394,8 +6001,8 @@
       <c r="AB10">
         <v>25766605</v>
       </c>
-      <c r="AC10" t="s">
-        <v>1534</v>
+      <c r="AC10">
+        <v>65.5</v>
       </c>
       <c r="AD10">
         <v>23</v>
@@ -6501,8 +6108,8 @@
       <c r="AB11">
         <v>8877067</v>
       </c>
-      <c r="AC11" t="s">
-        <v>1535</v>
+      <c r="AC11">
+        <v>60.7</v>
       </c>
       <c r="AD11">
         <v>25.4</v>
@@ -6611,8 +6218,8 @@
       <c r="AB12">
         <v>10023318</v>
       </c>
-      <c r="AC12" t="s">
-        <v>1481</v>
+      <c r="AC12">
+        <v>66.5</v>
       </c>
       <c r="AD12">
         <v>13</v>
@@ -6718,8 +6325,8 @@
       <c r="AB13">
         <v>389482</v>
       </c>
-      <c r="AC13" t="s">
-        <v>1536</v>
+      <c r="AC13">
+        <v>74.59999999999999</v>
       </c>
       <c r="AD13">
         <v>14.8</v>
@@ -6825,8 +6432,8 @@
       <c r="AB14">
         <v>1501635</v>
       </c>
-      <c r="AC14" t="s">
-        <v>1537</v>
+      <c r="AC14">
+        <v>73.40000000000001</v>
       </c>
       <c r="AD14">
         <v>4.2</v>
@@ -6935,8 +6542,8 @@
       <c r="AB15">
         <v>167310838</v>
       </c>
-      <c r="AC15" t="s">
-        <v>1538</v>
+      <c r="AC15">
+        <v>59</v>
       </c>
       <c r="AD15">
         <v>8.800000000000001</v>
@@ -7045,8 +6652,8 @@
       <c r="AB16">
         <v>287025</v>
       </c>
-      <c r="AC16" t="s">
-        <v>1539</v>
+      <c r="AC16">
+        <v>65.2</v>
       </c>
       <c r="AD16">
         <v>27.5</v>
@@ -7152,8 +6759,8 @@
       <c r="AB17">
         <v>9466856</v>
       </c>
-      <c r="AC17" t="s">
-        <v>1540</v>
+      <c r="AC17">
+        <v>64.09999999999999</v>
       </c>
       <c r="AD17">
         <v>14.7</v>
@@ -7262,8 +6869,8 @@
       <c r="AB18">
         <v>11484055</v>
       </c>
-      <c r="AC18" t="s">
-        <v>1541</v>
+      <c r="AC18">
+        <v>53.6</v>
       </c>
       <c r="AD18">
         <v>24</v>
@@ -7372,8 +6979,8 @@
       <c r="AB19">
         <v>390353</v>
       </c>
-      <c r="AC19" t="s">
-        <v>1440</v>
+      <c r="AC19">
+        <v>65.09999999999999</v>
       </c>
       <c r="AD19">
         <v>26.3</v>
@@ -7482,8 +7089,8 @@
       <c r="AB20">
         <v>11801151</v>
       </c>
-      <c r="AC20" t="s">
-        <v>1542</v>
+      <c r="AC20">
+        <v>70.90000000000001</v>
       </c>
       <c r="AD20">
         <v>10.8</v>
@@ -7589,8 +7196,8 @@
       <c r="AB21">
         <v>727145</v>
       </c>
-      <c r="AC21" t="s">
-        <v>1543</v>
+      <c r="AC21">
+        <v>66.7</v>
       </c>
       <c r="AD21">
         <v>16</v>
@@ -7696,8 +7303,8 @@
       <c r="AB22">
         <v>11513100</v>
       </c>
-      <c r="AC22" t="s">
-        <v>1383</v>
+      <c r="AC22">
+        <v>71.8</v>
       </c>
       <c r="AD22">
         <v>17</v>
@@ -7803,8 +7410,8 @@
       <c r="AB23">
         <v>3301000</v>
       </c>
-      <c r="AC23" t="s">
-        <v>1544</v>
+      <c r="AC23">
+        <v>46.4</v>
       </c>
       <c r="AD23">
         <v>20.4</v>
@@ -7913,8 +7520,8 @@
       <c r="AB24">
         <v>2346179</v>
       </c>
-      <c r="AC24" t="s">
-        <v>1545</v>
+      <c r="AC24">
+        <v>70.8</v>
       </c>
       <c r="AD24">
         <v>19.5</v>
@@ -8023,8 +7630,8 @@
       <c r="AB25">
         <v>212559417</v>
       </c>
-      <c r="AC25" t="s">
-        <v>1546</v>
+      <c r="AC25">
+        <v>63.9</v>
       </c>
       <c r="AD25">
         <v>14.2</v>
@@ -8127,8 +7734,8 @@
       <c r="AB26">
         <v>433285</v>
       </c>
-      <c r="AC26" t="s">
-        <v>1547</v>
+      <c r="AC26">
+        <v>64.7</v>
       </c>
       <c r="AE26">
         <v>8</v>
@@ -8234,8 +7841,8 @@
       <c r="AB27">
         <v>6975761</v>
       </c>
-      <c r="AC27" t="s">
-        <v>1548</v>
+      <c r="AC27">
+        <v>55.4</v>
       </c>
       <c r="AD27">
         <v>20.2</v>
@@ -8344,8 +7951,8 @@
       <c r="AB28">
         <v>20321378</v>
       </c>
-      <c r="AC28" t="s">
-        <v>1549</v>
+      <c r="AC28">
+        <v>66.40000000000001</v>
       </c>
       <c r="AD28">
         <v>15</v>
@@ -8451,8 +8058,8 @@
       <c r="AB29">
         <v>11530580</v>
       </c>
-      <c r="AC29" t="s">
-        <v>1550</v>
+      <c r="AC29">
+        <v>79.2</v>
       </c>
       <c r="AD29">
         <v>13.6</v>
@@ -8561,8 +8168,8 @@
       <c r="AB30">
         <v>25716544</v>
       </c>
-      <c r="AC30" t="s">
-        <v>1432</v>
+      <c r="AC30">
+        <v>57</v>
       </c>
       <c r="AD30">
         <v>11.8</v>
@@ -8671,8 +8278,8 @@
       <c r="AB31">
         <v>483628</v>
       </c>
-      <c r="AC31" t="s">
-        <v>1551</v>
+      <c r="AC31">
+        <v>60.5</v>
       </c>
       <c r="AD31">
         <v>20.1</v>
@@ -8775,8 +8382,8 @@
       <c r="AB32">
         <v>16486542</v>
       </c>
-      <c r="AC32" t="s">
-        <v>1552</v>
+      <c r="AC32">
+        <v>82.3</v>
       </c>
       <c r="AD32">
         <v>17.1</v>
@@ -8885,8 +8492,8 @@
       <c r="AB33">
         <v>25876380</v>
       </c>
-      <c r="AC33" t="s">
-        <v>1553</v>
+      <c r="AC33">
+        <v>76.09999999999999</v>
       </c>
       <c r="AD33">
         <v>12.8</v>
@@ -8995,8 +8602,8 @@
       <c r="AB34">
         <v>36991981</v>
       </c>
-      <c r="AC34" t="s">
-        <v>1440</v>
+      <c r="AC34">
+        <v>65.09999999999999</v>
       </c>
       <c r="AD34">
         <v>12.8</v>
@@ -9102,8 +8709,8 @@
       <c r="AB35">
         <v>4745185</v>
       </c>
-      <c r="AC35" t="s">
-        <v>1420</v>
+      <c r="AC35">
+        <v>72</v>
       </c>
       <c r="AD35">
         <v>8.6</v>
@@ -9212,8 +8819,8 @@
       <c r="AB36">
         <v>15946876</v>
       </c>
-      <c r="AC36" t="s">
-        <v>1554</v>
+      <c r="AC36">
+        <v>70.7</v>
       </c>
       <c r="AE36">
         <v>63.5</v>
@@ -9319,8 +8926,8 @@
       <c r="AB37">
         <v>18952038</v>
       </c>
-      <c r="AC37" t="s">
-        <v>1555</v>
+      <c r="AC37">
+        <v>62.6</v>
       </c>
       <c r="AD37">
         <v>18.2</v>
@@ -9429,8 +9036,8 @@
       <c r="AB38">
         <v>1397715000</v>
       </c>
-      <c r="AC38" t="s">
-        <v>1556</v>
+      <c r="AC38">
+        <v>68</v>
       </c>
       <c r="AD38">
         <v>9.4</v>
@@ -9539,8 +9146,8 @@
       <c r="AB39">
         <v>50339443</v>
       </c>
-      <c r="AC39" t="s">
-        <v>1557</v>
+      <c r="AC39">
+        <v>68.8</v>
       </c>
       <c r="AD39">
         <v>14.4</v>
@@ -9643,8 +9250,8 @@
       <c r="AB40">
         <v>850886</v>
       </c>
-      <c r="AC40" t="s">
-        <v>1558</v>
+      <c r="AC40">
+        <v>43.3</v>
       </c>
       <c r="AE40">
         <v>219.6</v>
@@ -9747,8 +9354,8 @@
       <c r="AB41">
         <v>5380508</v>
       </c>
-      <c r="AC41" t="s">
-        <v>1559</v>
+      <c r="AC41">
+        <v>69.40000000000001</v>
       </c>
       <c r="AD41">
         <v>9</v>
@@ -9857,8 +9464,8 @@
       <c r="AB42">
         <v>5047561</v>
       </c>
-      <c r="AC42" t="s">
-        <v>1560</v>
+      <c r="AC42">
+        <v>62.1</v>
       </c>
       <c r="AD42">
         <v>13.6</v>
@@ -9967,8 +9574,8 @@
       <c r="AB43">
         <v>4067500</v>
       </c>
-      <c r="AC43" t="s">
-        <v>1561</v>
+      <c r="AC43">
+        <v>51.2</v>
       </c>
       <c r="AD43">
         <v>22</v>
@@ -10068,8 +9675,8 @@
       <c r="AB44">
         <v>11333483</v>
       </c>
-      <c r="AC44" t="s">
-        <v>1541</v>
+      <c r="AC44">
+        <v>53.6</v>
       </c>
       <c r="AF44">
         <v>1.64</v>
@@ -10169,8 +9776,8 @@
       <c r="AB45">
         <v>1198575</v>
       </c>
-      <c r="AC45" t="s">
-        <v>1509</v>
+      <c r="AC45">
+        <v>63.1</v>
       </c>
       <c r="AD45">
         <v>24.5</v>
@@ -10279,8 +9886,8 @@
       <c r="AB46">
         <v>10669709</v>
       </c>
-      <c r="AC46" t="s">
-        <v>1562</v>
+      <c r="AC46">
+        <v>60.6</v>
       </c>
       <c r="AD46">
         <v>14.9</v>
@@ -10389,8 +9996,8 @@
       <c r="AB47">
         <v>86790567</v>
       </c>
-      <c r="AC47" t="s">
-        <v>1563</v>
+      <c r="AC47">
+        <v>63.5</v>
       </c>
       <c r="AD47">
         <v>10.7</v>
@@ -10496,8 +10103,8 @@
       <c r="AB48">
         <v>5818553</v>
       </c>
-      <c r="AC48" t="s">
-        <v>1564</v>
+      <c r="AC48">
+        <v>62.2</v>
       </c>
       <c r="AD48">
         <v>32.4</v>
@@ -10603,8 +10210,8 @@
       <c r="AB49">
         <v>973560</v>
       </c>
-      <c r="AC49" t="s">
-        <v>1565</v>
+      <c r="AC49">
+        <v>60.2</v>
       </c>
       <c r="AE49">
         <v>37.9</v>
@@ -10805,8 +10412,8 @@
       <c r="AB51">
         <v>10738958</v>
       </c>
-      <c r="AC51" t="s">
-        <v>1566</v>
+      <c r="AC51">
+        <v>64.3</v>
       </c>
       <c r="AD51">
         <v>13</v>
@@ -10915,8 +10522,8 @@
       <c r="AB52">
         <v>17373662</v>
       </c>
-      <c r="AC52" t="s">
-        <v>1556</v>
+      <c r="AC52">
+        <v>68</v>
       </c>
       <c r="AE52">
         <v>34.4</v>
@@ -11019,8 +10626,8 @@
       <c r="AB53">
         <v>100388073</v>
       </c>
-      <c r="AC53" t="s">
-        <v>1544</v>
+      <c r="AC53">
+        <v>46.4</v>
       </c>
       <c r="AD53">
         <v>12.5</v>
@@ -11126,8 +10733,8 @@
       <c r="AB54">
         <v>6453553</v>
       </c>
-      <c r="AC54" t="s">
-        <v>1567</v>
+      <c r="AC54">
+        <v>59.1</v>
       </c>
       <c r="AD54">
         <v>18.1</v>
@@ -11233,8 +10840,8 @@
       <c r="AB55">
         <v>1355986</v>
       </c>
-      <c r="AC55" t="s">
-        <v>1418</v>
+      <c r="AC55">
+        <v>62</v>
       </c>
       <c r="AD55">
         <v>6.1</v>
@@ -11334,8 +10941,8 @@
       <c r="AB56">
         <v>6333135</v>
       </c>
-      <c r="AC56" t="s">
-        <v>1370</v>
+      <c r="AC56">
+        <v>78.40000000000001</v>
       </c>
       <c r="AE56">
         <v>83.7</v>
@@ -11441,8 +11048,8 @@
       <c r="AB57">
         <v>1331824</v>
       </c>
-      <c r="AC57" t="s">
-        <v>1568</v>
+      <c r="AC57">
+        <v>63.6</v>
       </c>
       <c r="AD57">
         <v>20.9</v>
@@ -11592,8 +11199,8 @@
       <c r="AB59">
         <v>112078730</v>
       </c>
-      <c r="AC59" t="s">
-        <v>1569</v>
+      <c r="AC59">
+        <v>79.59999999999999</v>
       </c>
       <c r="AD59">
         <v>7.5</v>
@@ -11702,8 +11309,8 @@
       <c r="AB60">
         <v>889953</v>
       </c>
-      <c r="AC60" t="s">
-        <v>1570</v>
+      <c r="AC60">
+        <v>57.6</v>
       </c>
       <c r="AD60">
         <v>24.2</v>
@@ -11809,8 +11416,8 @@
       <c r="AB61">
         <v>5520314</v>
       </c>
-      <c r="AC61" t="s">
-        <v>1567</v>
+      <c r="AC61">
+        <v>59.1</v>
       </c>
       <c r="AD61">
         <v>20.8</v>
@@ -11919,8 +11526,8 @@
       <c r="AB62">
         <v>67059887</v>
       </c>
-      <c r="AC62" t="s">
-        <v>1571</v>
+      <c r="AC62">
+        <v>55.1</v>
       </c>
       <c r="AD62">
         <v>24.2</v>
@@ -12029,8 +11636,8 @@
       <c r="AB63">
         <v>2172579</v>
       </c>
-      <c r="AC63" t="s">
-        <v>1572</v>
+      <c r="AC63">
+        <v>52.9</v>
       </c>
       <c r="AD63">
         <v>10.2</v>
@@ -12139,8 +11746,8 @@
       <c r="AB64">
         <v>2347706</v>
       </c>
-      <c r="AC64" t="s">
-        <v>1399</v>
+      <c r="AC64">
+        <v>59.4</v>
       </c>
       <c r="AD64">
         <v>9.4</v>
@@ -12249,8 +11856,8 @@
       <c r="AB65">
         <v>3720382</v>
       </c>
-      <c r="AC65" t="s">
-        <v>1573</v>
+      <c r="AC65">
+        <v>68.3</v>
       </c>
       <c r="AD65">
         <v>21.7</v>
@@ -12359,8 +11966,8 @@
       <c r="AB66">
         <v>83132799</v>
       </c>
-      <c r="AC66" t="s">
-        <v>1574</v>
+      <c r="AC66">
+        <v>60.8</v>
       </c>
       <c r="AD66">
         <v>11.5</v>
@@ -12469,8 +12076,8 @@
       <c r="AB67">
         <v>30792608</v>
       </c>
-      <c r="AC67" t="s">
-        <v>1575</v>
+      <c r="AC67">
+        <v>67.8</v>
       </c>
       <c r="AD67">
         <v>12.6</v>
@@ -12579,8 +12186,8 @@
       <c r="AB68">
         <v>10716322</v>
       </c>
-      <c r="AC68" t="s">
-        <v>1576</v>
+      <c r="AC68">
+        <v>51.8</v>
       </c>
       <c r="AD68">
         <v>26.2</v>
@@ -12787,8 +12394,8 @@
       <c r="AB70">
         <v>16604026</v>
       </c>
-      <c r="AC70" t="s">
-        <v>1577</v>
+      <c r="AC70">
+        <v>62.3</v>
       </c>
       <c r="AD70">
         <v>10.6</v>
@@ -12894,8 +12501,8 @@
       <c r="AB71">
         <v>12771246</v>
       </c>
-      <c r="AC71" t="s">
-        <v>1578</v>
+      <c r="AC71">
+        <v>61.5</v>
       </c>
       <c r="AD71">
         <v>10.8</v>
@@ -13001,8 +12608,8 @@
       <c r="AB72">
         <v>1920922</v>
       </c>
-      <c r="AC72" t="s">
-        <v>1420</v>
+      <c r="AC72">
+        <v>72</v>
       </c>
       <c r="AD72">
         <v>10.3</v>
@@ -13111,8 +12718,8 @@
       <c r="AB73">
         <v>782766</v>
       </c>
-      <c r="AC73" t="s">
-        <v>1579</v>
+      <c r="AC73">
+        <v>56.2</v>
       </c>
       <c r="AE73">
         <v>30.6</v>
@@ -13218,8 +12825,8 @@
       <c r="AB74">
         <v>11263077</v>
       </c>
-      <c r="AC74" t="s">
-        <v>1580</v>
+      <c r="AC74">
+        <v>67.2</v>
       </c>
       <c r="AE74">
         <v>42.7</v>
@@ -13360,8 +12967,8 @@
       <c r="AB76">
         <v>9746117</v>
       </c>
-      <c r="AC76" t="s">
-        <v>1557</v>
+      <c r="AC76">
+        <v>68.8</v>
       </c>
       <c r="AD76">
         <v>17.3</v>
@@ -13470,8 +13077,8 @@
       <c r="AB77">
         <v>9769949</v>
       </c>
-      <c r="AC77" t="s">
-        <v>1581</v>
+      <c r="AC77">
+        <v>56.5</v>
       </c>
       <c r="AD77">
         <v>23</v>
@@ -13577,8 +13184,8 @@
       <c r="AB78">
         <v>361313</v>
       </c>
-      <c r="AC78" t="s">
-        <v>1582</v>
+      <c r="AC78">
+        <v>75</v>
       </c>
       <c r="AD78">
         <v>23.3</v>
@@ -13687,8 +13294,8 @@
       <c r="AB79">
         <v>1366417754</v>
       </c>
-      <c r="AC79" t="s">
-        <v>1583</v>
+      <c r="AC79">
+        <v>49.3</v>
       </c>
       <c r="AD79">
         <v>11.2</v>
@@ -13797,8 +13404,8 @@
       <c r="AB80">
         <v>270203917</v>
       </c>
-      <c r="AC80" t="s">
-        <v>1584</v>
+      <c r="AC80">
+        <v>67.5</v>
       </c>
       <c r="AD80">
         <v>10.2</v>
@@ -13907,8 +13514,8 @@
       <c r="AB81">
         <v>82913906</v>
       </c>
-      <c r="AC81" t="s">
-        <v>1585</v>
+      <c r="AC81">
+        <v>44.7</v>
       </c>
       <c r="AD81">
         <v>7.4</v>
@@ -14017,8 +13624,8 @@
       <c r="AB82">
         <v>39309783</v>
       </c>
-      <c r="AC82" t="s">
-        <v>1586</v>
+      <c r="AC82">
+        <v>43</v>
       </c>
       <c r="AD82">
         <v>2</v>
@@ -14124,8 +13731,8 @@
       <c r="AB83">
         <v>5007069</v>
       </c>
-      <c r="AC83" t="s">
-        <v>1560</v>
+      <c r="AC83">
+        <v>62.1</v>
       </c>
       <c r="AD83">
         <v>18.3</v>
@@ -14234,8 +13841,8 @@
       <c r="AB84">
         <v>9053300</v>
       </c>
-      <c r="AC84" t="s">
-        <v>1587</v>
+      <c r="AC84">
+        <v>64</v>
       </c>
       <c r="AD84">
         <v>23.1</v>
@@ -14341,8 +13948,8 @@
       <c r="AB85">
         <v>60297396</v>
       </c>
-      <c r="AC85" t="s">
-        <v>1588</v>
+      <c r="AC85">
+        <v>49.6</v>
       </c>
       <c r="AD85">
         <v>24.3</v>
@@ -14451,8 +14058,8 @@
       <c r="AB86">
         <v>2948279</v>
       </c>
-      <c r="AC86" t="s">
-        <v>1589</v>
+      <c r="AC86">
+        <v>66</v>
       </c>
       <c r="AD86">
         <v>26.8</v>
@@ -14555,8 +14162,8 @@
       <c r="AB87">
         <v>126226568</v>
       </c>
-      <c r="AC87" t="s">
-        <v>1590</v>
+      <c r="AC87">
+        <v>61.7</v>
       </c>
       <c r="AD87">
         <v>11.9</v>
@@ -14665,8 +14272,8 @@
       <c r="AB88">
         <v>10101694</v>
       </c>
-      <c r="AC88" t="s">
-        <v>1468</v>
+      <c r="AC88">
+        <v>39.3</v>
       </c>
       <c r="AD88">
         <v>15.1</v>
@@ -14775,8 +14382,8 @@
       <c r="AB89">
         <v>18513930</v>
       </c>
-      <c r="AC89" t="s">
-        <v>1557</v>
+      <c r="AC89">
+        <v>68.8</v>
       </c>
       <c r="AD89">
         <v>11.7</v>
@@ -14885,8 +14492,8 @@
       <c r="AB90">
         <v>52573973</v>
       </c>
-      <c r="AC90" t="s">
-        <v>1591</v>
+      <c r="AC90">
+        <v>74.7</v>
       </c>
       <c r="AD90">
         <v>15.1</v>
@@ -15087,8 +14694,8 @@
       <c r="AB92">
         <v>4207083</v>
       </c>
-      <c r="AC92" t="s">
-        <v>1592</v>
+      <c r="AC92">
+        <v>73.5</v>
       </c>
       <c r="AD92">
         <v>1.4</v>
@@ -15197,8 +14804,8 @@
       <c r="AB93">
         <v>6456900</v>
       </c>
-      <c r="AC93" t="s">
-        <v>1593</v>
+      <c r="AC93">
+        <v>59.8</v>
       </c>
       <c r="AD93">
         <v>18</v>
@@ -15307,8 +14914,8 @@
       <c r="AB94">
         <v>7169455</v>
       </c>
-      <c r="AC94" t="s">
-        <v>1594</v>
+      <c r="AC94">
+        <v>78.5</v>
       </c>
       <c r="AD94">
         <v>12.9</v>
@@ -15417,8 +15024,8 @@
       <c r="AB95">
         <v>1912789</v>
       </c>
-      <c r="AC95" t="s">
-        <v>1595</v>
+      <c r="AC95">
+        <v>61.4</v>
       </c>
       <c r="AD95">
         <v>22.9</v>
@@ -15527,8 +15134,8 @@
       <c r="AB96">
         <v>6855713</v>
       </c>
-      <c r="AC96" t="s">
-        <v>1596</v>
+      <c r="AC96">
+        <v>47</v>
       </c>
       <c r="AD96">
         <v>15.3</v>
@@ -15634,8 +15241,8 @@
       <c r="AB97">
         <v>2125268</v>
       </c>
-      <c r="AC97" t="s">
-        <v>1597</v>
+      <c r="AC97">
+        <v>67.90000000000001</v>
       </c>
       <c r="AD97">
         <v>31.6</v>
@@ -15741,8 +15348,8 @@
       <c r="AB98">
         <v>4937374</v>
       </c>
-      <c r="AC98" t="s">
-        <v>1598</v>
+      <c r="AC98">
+        <v>76.3</v>
       </c>
       <c r="AD98">
         <v>12.9</v>
@@ -15845,8 +15452,8 @@
       <c r="AB99">
         <v>6777452</v>
       </c>
-      <c r="AC99" t="s">
-        <v>1599</v>
+      <c r="AC99">
+        <v>49.7</v>
       </c>
       <c r="AE99">
         <v>32.6</v>
@@ -16029,8 +15636,8 @@
       <c r="AB101">
         <v>2786844</v>
       </c>
-      <c r="AC101" t="s">
-        <v>1600</v>
+      <c r="AC101">
+        <v>61.6</v>
       </c>
       <c r="AD101">
         <v>16.9</v>
@@ -16139,8 +15746,8 @@
       <c r="AB102">
         <v>645397</v>
       </c>
-      <c r="AC102" t="s">
-        <v>1601</v>
+      <c r="AC102">
+        <v>59.3</v>
       </c>
       <c r="AD102">
         <v>26.5</v>
@@ -16249,8 +15856,8 @@
       <c r="AB103">
         <v>26969307</v>
       </c>
-      <c r="AC103" t="s">
-        <v>1602</v>
+      <c r="AC103">
+        <v>86.09999999999999</v>
       </c>
       <c r="AD103">
         <v>10.2</v>
@@ -16359,8 +15966,8 @@
       <c r="AB104">
         <v>18628747</v>
       </c>
-      <c r="AC104" t="s">
-        <v>1603</v>
+      <c r="AC104">
+        <v>76.7</v>
       </c>
       <c r="AD104">
         <v>17.3</v>
@@ -16469,8 +16076,8 @@
       <c r="AB105">
         <v>32447385</v>
       </c>
-      <c r="AC105" t="s">
-        <v>1566</v>
+      <c r="AC105">
+        <v>64.3</v>
       </c>
       <c r="AD105">
         <v>12</v>
@@ -16573,8 +16180,8 @@
       <c r="AB106">
         <v>530953</v>
       </c>
-      <c r="AC106" t="s">
-        <v>1604</v>
+      <c r="AC106">
+        <v>69.8</v>
       </c>
       <c r="AD106">
         <v>19.5</v>
@@ -16683,8 +16290,8 @@
       <c r="AB107">
         <v>19658031</v>
       </c>
-      <c r="AC107" t="s">
-        <v>1545</v>
+      <c r="AC107">
+        <v>70.8</v>
       </c>
       <c r="AD107">
         <v>11.6</v>
@@ -16793,8 +16400,8 @@
       <c r="AB108">
         <v>502653</v>
       </c>
-      <c r="AC108" t="s">
-        <v>1581</v>
+      <c r="AC108">
+        <v>56.5</v>
       </c>
       <c r="AD108">
         <v>26.2</v>
@@ -16995,8 +16602,8 @@
       <c r="AB110">
         <v>4525696</v>
       </c>
-      <c r="AC110" t="s">
-        <v>1605</v>
+      <c r="AC110">
+        <v>45.9</v>
       </c>
       <c r="AE110">
         <v>67</v>
@@ -17102,8 +16709,8 @@
       <c r="AB111">
         <v>1265711</v>
       </c>
-      <c r="AC111" t="s">
-        <v>1606</v>
+      <c r="AC111">
+        <v>58.3</v>
       </c>
       <c r="AD111">
         <v>19.1</v>
@@ -17209,8 +16816,8 @@
       <c r="AB112">
         <v>126014024</v>
       </c>
-      <c r="AC112" t="s">
-        <v>1535</v>
+      <c r="AC112">
+        <v>60.7</v>
       </c>
       <c r="AD112">
         <v>13.1</v>
@@ -17414,8 +17021,8 @@
       <c r="AB114">
         <v>2657637</v>
       </c>
-      <c r="AC114" t="s">
-        <v>1607</v>
+      <c r="AC114">
+        <v>43.1</v>
       </c>
       <c r="AD114">
         <v>17.7</v>
@@ -17589,8 +17196,8 @@
       <c r="AB116">
         <v>3225167</v>
       </c>
-      <c r="AC116" t="s">
-        <v>1608</v>
+      <c r="AC116">
+        <v>59.7</v>
       </c>
       <c r="AD116">
         <v>16.8</v>
@@ -17699,8 +17306,8 @@
       <c r="AB117">
         <v>622137</v>
       </c>
-      <c r="AC117" t="s">
-        <v>1609</v>
+      <c r="AC117">
+        <v>54.4</v>
       </c>
       <c r="AE117">
         <v>22.2</v>
@@ -17806,8 +17413,8 @@
       <c r="AB118">
         <v>36910560</v>
       </c>
-      <c r="AC118" t="s">
-        <v>1610</v>
+      <c r="AC118">
+        <v>45.3</v>
       </c>
       <c r="AD118">
         <v>21.9</v>
@@ -17916,8 +17523,8 @@
       <c r="AB119">
         <v>30366036</v>
       </c>
-      <c r="AC119" t="s">
-        <v>1611</v>
+      <c r="AC119">
+        <v>78.09999999999999</v>
       </c>
       <c r="AD119">
         <v>0</v>
@@ -18026,8 +17633,8 @@
       <c r="AB120">
         <v>54045420</v>
       </c>
-      <c r="AC120" t="s">
-        <v>1590</v>
+      <c r="AC120">
+        <v>61.7</v>
       </c>
       <c r="AD120">
         <v>5.4</v>
@@ -18127,8 +17734,8 @@
       <c r="AB121">
         <v>2494530</v>
       </c>
-      <c r="AC121" t="s">
-        <v>1612</v>
+      <c r="AC121">
+        <v>59.5</v>
       </c>
       <c r="AD121">
         <v>27.1</v>
@@ -18278,8 +17885,8 @@
       <c r="AB123">
         <v>28608710</v>
       </c>
-      <c r="AC123" t="s">
-        <v>1613</v>
+      <c r="AC123">
+        <v>83.8</v>
       </c>
       <c r="AD123">
         <v>20.7</v>
@@ -18385,8 +17992,8 @@
       <c r="AB124">
         <v>17332850</v>
       </c>
-      <c r="AC124" t="s">
-        <v>1568</v>
+      <c r="AC124">
+        <v>63.6</v>
       </c>
       <c r="AD124">
         <v>23</v>
@@ -18495,8 +18102,8 @@
       <c r="AB125">
         <v>4841000</v>
       </c>
-      <c r="AC125" t="s">
-        <v>1614</v>
+      <c r="AC125">
+        <v>69.90000000000001</v>
       </c>
       <c r="AD125">
         <v>29</v>
@@ -18605,8 +18212,8 @@
       <c r="AB126">
         <v>6545502</v>
       </c>
-      <c r="AC126" t="s">
-        <v>1549</v>
+      <c r="AC126">
+        <v>66.40000000000001</v>
       </c>
       <c r="AD126">
         <v>15.6</v>
@@ -18715,8 +18322,8 @@
       <c r="AB127">
         <v>23310715</v>
       </c>
-      <c r="AC127" t="s">
-        <v>1420</v>
+      <c r="AC127">
+        <v>72</v>
       </c>
       <c r="AD127">
         <v>11.8</v>
@@ -18825,8 +18432,8 @@
       <c r="AB128">
         <v>200963599</v>
       </c>
-      <c r="AC128" t="s">
-        <v>1572</v>
+      <c r="AC128">
+        <v>52.9</v>
       </c>
       <c r="AD128">
         <v>1.5</v>
@@ -18923,8 +18530,8 @@
       <c r="AB129">
         <v>25666161</v>
       </c>
-      <c r="AC129" t="s">
-        <v>1615</v>
+      <c r="AC129">
+        <v>80.40000000000001</v>
       </c>
       <c r="AF129">
         <v>2.74</v>
@@ -19068,8 +18675,8 @@
       <c r="AB131">
         <v>5347896</v>
       </c>
-      <c r="AC131" t="s">
-        <v>1616</v>
+      <c r="AC131">
+        <v>63.8</v>
       </c>
       <c r="AD131">
         <v>23.9</v>
@@ -19178,8 +18785,8 @@
       <c r="AB132">
         <v>5266535</v>
       </c>
-      <c r="AC132" t="s">
-        <v>1617</v>
+      <c r="AC132">
+        <v>72.40000000000001</v>
       </c>
       <c r="AD132">
         <v>2.5</v>
@@ -19288,8 +18895,8 @@
       <c r="AB133">
         <v>216565318</v>
       </c>
-      <c r="AC133" t="s">
-        <v>1618</v>
+      <c r="AC133">
+        <v>52.6</v>
       </c>
       <c r="AD133">
         <v>9.199999999999999</v>
@@ -19510,8 +19117,8 @@
       <c r="AB136">
         <v>4246439</v>
       </c>
-      <c r="AC136" t="s">
-        <v>1619</v>
+      <c r="AC136">
+        <v>66.59999999999999</v>
       </c>
       <c r="AE136">
         <v>37.2</v>
@@ -19617,8 +19224,8 @@
       <c r="AB137">
         <v>8776109</v>
       </c>
-      <c r="AC137" t="s">
-        <v>1620</v>
+      <c r="AC137">
+        <v>47.2</v>
       </c>
       <c r="AD137">
         <v>13.6</v>
@@ -19727,8 +19334,8 @@
       <c r="AB138">
         <v>7044636</v>
       </c>
-      <c r="AC138" t="s">
-        <v>1621</v>
+      <c r="AC138">
+        <v>72.09999999999999</v>
       </c>
       <c r="AD138">
         <v>10</v>
@@ -19837,8 +19444,8 @@
       <c r="AB139">
         <v>32510453</v>
       </c>
-      <c r="AC139" t="s">
-        <v>1622</v>
+      <c r="AC139">
+        <v>77.59999999999999</v>
       </c>
       <c r="AD139">
         <v>14.3</v>
@@ -19947,8 +19554,8 @@
       <c r="AB140">
         <v>108116615</v>
       </c>
-      <c r="AC140" t="s">
-        <v>1623</v>
+      <c r="AC140">
+        <v>59.6</v>
       </c>
       <c r="AD140">
         <v>14</v>
@@ -20057,8 +19664,8 @@
       <c r="AB141">
         <v>37970874</v>
       </c>
-      <c r="AC141" t="s">
-        <v>1624</v>
+      <c r="AC141">
+        <v>56.7</v>
       </c>
       <c r="AD141">
         <v>17.4</v>
@@ -20167,8 +19774,8 @@
       <c r="AB142">
         <v>10269417</v>
       </c>
-      <c r="AC142" t="s">
-        <v>1625</v>
+      <c r="AC142">
+        <v>58.8</v>
       </c>
       <c r="AD142">
         <v>22.8</v>
@@ -20274,8 +19881,8 @@
       <c r="AB143">
         <v>2832067</v>
       </c>
-      <c r="AC143" t="s">
-        <v>1626</v>
+      <c r="AC143">
+        <v>86.8</v>
       </c>
       <c r="AD143">
         <v>14.7</v>
@@ -20384,8 +19991,8 @@
       <c r="AB144">
         <v>19356544</v>
       </c>
-      <c r="AC144" t="s">
-        <v>1627</v>
+      <c r="AC144">
+        <v>54.7</v>
       </c>
       <c r="AD144">
         <v>14.6</v>
@@ -20494,8 +20101,8 @@
       <c r="AB145">
         <v>144373535</v>
       </c>
-      <c r="AC145" t="s">
-        <v>1628</v>
+      <c r="AC145">
+        <v>61.8</v>
       </c>
       <c r="AD145">
         <v>11.4</v>
@@ -20601,8 +20208,8 @@
       <c r="AB146">
         <v>12626950</v>
       </c>
-      <c r="AC146" t="s">
-        <v>1629</v>
+      <c r="AC146">
+        <v>83.7</v>
       </c>
       <c r="AD146">
         <v>14.3</v>
@@ -20800,8 +20407,8 @@
       <c r="AB148">
         <v>182790</v>
       </c>
-      <c r="AC148" t="s">
-        <v>1630</v>
+      <c r="AC148">
+        <v>67.09999999999999</v>
       </c>
       <c r="AD148">
         <v>18.2</v>
@@ -20904,8 +20511,8 @@
       <c r="AB149">
         <v>100455</v>
       </c>
-      <c r="AC149" t="s">
-        <v>1631</v>
+      <c r="AC149">
+        <v>65.90000000000001</v>
       </c>
       <c r="AD149">
         <v>25.4</v>
@@ -21011,8 +20618,8 @@
       <c r="AB150">
         <v>202506</v>
       </c>
-      <c r="AC150" t="s">
-        <v>1417</v>
+      <c r="AC150">
+        <v>43.7</v>
       </c>
       <c r="AD150">
         <v>25.5</v>
@@ -21210,8 +20817,8 @@
       <c r="AB153">
         <v>34268528</v>
       </c>
-      <c r="AC153" t="s">
-        <v>1632</v>
+      <c r="AC153">
+        <v>55.9</v>
       </c>
       <c r="AD153">
         <v>8.9</v>
@@ -21320,8 +20927,8 @@
       <c r="AB154">
         <v>16296364</v>
       </c>
-      <c r="AC154" t="s">
-        <v>1633</v>
+      <c r="AC154">
+        <v>45.7</v>
       </c>
       <c r="AD154">
         <v>16.3</v>
@@ -21430,8 +21037,8 @@
       <c r="AB155">
         <v>6944975</v>
       </c>
-      <c r="AC155" t="s">
-        <v>1634</v>
+      <c r="AC155">
+        <v>54.9</v>
       </c>
       <c r="AD155">
         <v>18.6</v>
@@ -21641,8 +21248,8 @@
       <c r="AB157">
         <v>7813215</v>
       </c>
-      <c r="AC157" t="s">
-        <v>1635</v>
+      <c r="AC157">
+        <v>57.9</v>
       </c>
       <c r="AD157">
         <v>8.6</v>
@@ -21742,8 +21349,8 @@
       <c r="AB158">
         <v>5703569</v>
       </c>
-      <c r="AC158" t="s">
-        <v>1636</v>
+      <c r="AC158">
+        <v>70.5</v>
       </c>
       <c r="AD158">
         <v>13.1</v>
@@ -21852,8 +21459,8 @@
       <c r="AB159">
         <v>5454073</v>
       </c>
-      <c r="AC159" t="s">
-        <v>1612</v>
+      <c r="AC159">
+        <v>59.5</v>
       </c>
       <c r="AD159">
         <v>18.7</v>
@@ -21962,8 +21569,8 @@
       <c r="AB160">
         <v>2087946</v>
       </c>
-      <c r="AC160" t="s">
-        <v>1637</v>
+      <c r="AC160">
+        <v>58.4</v>
       </c>
       <c r="AD160">
         <v>18.6</v>
@@ -22063,8 +21670,8 @@
       <c r="AB161">
         <v>669823</v>
       </c>
-      <c r="AC161" t="s">
-        <v>1613</v>
+      <c r="AC161">
+        <v>83.8</v>
       </c>
       <c r="AD161">
         <v>29.5</v>
@@ -22161,8 +21768,8 @@
       <c r="AB162">
         <v>15442905</v>
       </c>
-      <c r="AC162" t="s">
-        <v>1638</v>
+      <c r="AC162">
+        <v>47.4</v>
       </c>
       <c r="AD162">
         <v>0</v>
@@ -22265,8 +21872,8 @@
       <c r="AB163">
         <v>58558270</v>
       </c>
-      <c r="AC163" t="s">
-        <v>1639</v>
+      <c r="AC163">
+        <v>56</v>
       </c>
       <c r="AD163">
         <v>27.5</v>
@@ -22375,8 +21982,8 @@
       <c r="AB164">
         <v>51709098</v>
       </c>
-      <c r="AC164" t="s">
-        <v>1640</v>
+      <c r="AC164">
+        <v>63</v>
       </c>
       <c r="AD164">
         <v>15.6</v>
@@ -22470,8 +22077,8 @@
       <c r="AB165">
         <v>11062113</v>
       </c>
-      <c r="AC165" t="s">
-        <v>1617</v>
+      <c r="AC165">
+        <v>72.40000000000001</v>
       </c>
       <c r="AE165">
         <v>31.4</v>
@@ -22577,8 +22184,8 @@
       <c r="AB166">
         <v>47076781</v>
       </c>
-      <c r="AC166" t="s">
-        <v>1641</v>
+      <c r="AC166">
+        <v>57.5</v>
       </c>
       <c r="AD166">
         <v>14.2</v>
@@ -22687,8 +22294,8 @@
       <c r="AB167">
         <v>21803000</v>
       </c>
-      <c r="AC167" t="s">
-        <v>1642</v>
+      <c r="AC167">
+        <v>53.9</v>
       </c>
       <c r="AD167">
         <v>11.9</v>
@@ -22797,8 +22404,8 @@
       <c r="AB168">
         <v>42813238</v>
       </c>
-      <c r="AC168" t="s">
-        <v>1493</v>
+      <c r="AC168">
+        <v>48.4</v>
       </c>
       <c r="AD168">
         <v>8</v>
@@ -22904,8 +22511,8 @@
       <c r="AB169">
         <v>581372</v>
       </c>
-      <c r="AC169" t="s">
-        <v>1643</v>
+      <c r="AC169">
+        <v>51.1</v>
       </c>
       <c r="AD169">
         <v>19.5</v>
@@ -23011,8 +22618,8 @@
       <c r="AB170">
         <v>10285453</v>
       </c>
-      <c r="AC170" t="s">
-        <v>1644</v>
+      <c r="AC170">
+        <v>64.59999999999999</v>
       </c>
       <c r="AD170">
         <v>27.9</v>
@@ -23118,8 +22725,8 @@
       <c r="AB171">
         <v>8574832</v>
       </c>
-      <c r="AC171" t="s">
-        <v>1573</v>
+      <c r="AC171">
+        <v>68.3</v>
       </c>
       <c r="AD171">
         <v>10.1</v>
@@ -23228,8 +22835,8 @@
       <c r="AB172">
         <v>17070135</v>
       </c>
-      <c r="AC172" t="s">
-        <v>1645</v>
+      <c r="AC172">
+        <v>44.1</v>
       </c>
       <c r="AD172">
         <v>14.2</v>
@@ -23338,8 +22945,8 @@
       <c r="AB173">
         <v>9321018</v>
       </c>
-      <c r="AC173" t="s">
-        <v>1646</v>
+      <c r="AC173">
+        <v>42</v>
       </c>
       <c r="AD173">
         <v>9.800000000000001</v>
@@ -23448,8 +23055,8 @@
       <c r="AB174">
         <v>58005463</v>
       </c>
-      <c r="AC174" t="s">
-        <v>1647</v>
+      <c r="AC174">
+        <v>83.40000000000001</v>
       </c>
       <c r="AD174">
         <v>11.5</v>
@@ -23558,8 +23165,8 @@
       <c r="AB175">
         <v>69625582</v>
       </c>
-      <c r="AC175" t="s">
-        <v>1648</v>
+      <c r="AC175">
+        <v>67.3</v>
       </c>
       <c r="AD175">
         <v>14.9</v>
@@ -23668,8 +23275,8 @@
       <c r="AB176">
         <v>3500000</v>
       </c>
-      <c r="AC176" t="s">
-        <v>1648</v>
+      <c r="AC176">
+        <v>67.3</v>
       </c>
       <c r="AD176">
         <v>25</v>
@@ -23778,8 +23385,8 @@
       <c r="AB177">
         <v>8082366</v>
       </c>
-      <c r="AC177" t="s">
-        <v>1622</v>
+      <c r="AC177">
+        <v>77.59999999999999</v>
       </c>
       <c r="AD177">
         <v>16.9</v>
@@ -23879,8 +23486,8 @@
       <c r="AB178">
         <v>100209</v>
       </c>
-      <c r="AC178" t="s">
-        <v>1593</v>
+      <c r="AC178">
+        <v>59.8</v>
       </c>
       <c r="AD178">
         <v>22.3</v>
@@ -23989,8 +23596,8 @@
       <c r="AB179">
         <v>1394973</v>
       </c>
-      <c r="AC179" t="s">
-        <v>1649</v>
+      <c r="AC179">
+        <v>60</v>
       </c>
       <c r="AD179">
         <v>19.5</v>
@@ -24099,8 +23706,8 @@
       <c r="AB180">
         <v>11694719</v>
       </c>
-      <c r="AC180" t="s">
-        <v>1650</v>
+      <c r="AC180">
+        <v>46.1</v>
       </c>
       <c r="AD180">
         <v>21.1</v>
@@ -24209,8 +23816,8 @@
       <c r="AB181">
         <v>83429615</v>
       </c>
-      <c r="AC181" t="s">
-        <v>1651</v>
+      <c r="AC181">
+        <v>52.8</v>
       </c>
       <c r="AD181">
         <v>17.9</v>
@@ -24313,8 +23920,8 @@
       <c r="AB182">
         <v>5942089</v>
       </c>
-      <c r="AC182" t="s">
-        <v>1652</v>
+      <c r="AC182">
+        <v>64.5</v>
       </c>
       <c r="AF182">
         <v>3.91</v>
@@ -24485,8 +24092,8 @@
       <c r="AB184">
         <v>44269594</v>
       </c>
-      <c r="AC184" t="s">
-        <v>1653</v>
+      <c r="AC184">
+        <v>70.3</v>
       </c>
       <c r="AD184">
         <v>11.7</v>
@@ -24595,8 +24202,8 @@
       <c r="AB185">
         <v>44385155</v>
       </c>
-      <c r="AC185" t="s">
-        <v>1654</v>
+      <c r="AC185">
+        <v>54.2</v>
       </c>
       <c r="AD185">
         <v>20.1</v>
@@ -24702,8 +24309,8 @@
       <c r="AB186">
         <v>9770529</v>
       </c>
-      <c r="AC186" t="s">
-        <v>1655</v>
+      <c r="AC186">
+        <v>82.09999999999999</v>
       </c>
       <c r="AD186">
         <v>0.1</v>
@@ -24812,8 +24419,8 @@
       <c r="AB187">
         <v>66834405</v>
       </c>
-      <c r="AC187" t="s">
-        <v>1656</v>
+      <c r="AC187">
+        <v>62.8</v>
       </c>
       <c r="AD187">
         <v>25.5</v>
@@ -24919,8 +24526,8 @@
       <c r="AB188">
         <v>328239523</v>
       </c>
-      <c r="AC188" t="s">
-        <v>1418</v>
+      <c r="AC188">
+        <v>62</v>
       </c>
       <c r="AD188">
         <v>9.6</v>
@@ -25029,8 +24636,8 @@
       <c r="AB189">
         <v>3461734</v>
       </c>
-      <c r="AC189" t="s">
-        <v>1587</v>
+      <c r="AC189">
+        <v>64</v>
       </c>
       <c r="AD189">
         <v>20.1</v>
@@ -25133,8 +24740,8 @@
       <c r="AB190">
         <v>33580650</v>
       </c>
-      <c r="AC190" t="s">
-        <v>1440</v>
+      <c r="AC190">
+        <v>65.09999999999999</v>
       </c>
       <c r="AD190">
         <v>14.8</v>
@@ -25240,8 +24847,8 @@
       <c r="AB191">
         <v>299882</v>
       </c>
-      <c r="AC191" t="s">
-        <v>1614</v>
+      <c r="AC191">
+        <v>69.90000000000001</v>
       </c>
       <c r="AD191">
         <v>17.8</v>
@@ -25350,8 +24957,8 @@
       <c r="AB192">
         <v>28515829</v>
       </c>
-      <c r="AC192" t="s">
-        <v>1608</v>
+      <c r="AC192">
+        <v>59.7</v>
       </c>
       <c r="AE192">
         <v>73.3</v>
@@ -25457,8 +25064,8 @@
       <c r="AB193">
         <v>96462106</v>
       </c>
-      <c r="AC193" t="s">
-        <v>1657</v>
+      <c r="AC193">
+        <v>77.40000000000001</v>
       </c>
       <c r="AD193">
         <v>19.1</v>
@@ -25564,8 +25171,8 @@
       <c r="AB194">
         <v>29161922</v>
       </c>
-      <c r="AC194" t="s">
-        <v>1658</v>
+      <c r="AC194">
+        <v>38</v>
       </c>
       <c r="AE194">
         <v>26.6</v>
@@ -25671,8 +25278,8 @@
       <c r="AB195">
         <v>17861030</v>
       </c>
-      <c r="AC195" t="s">
-        <v>1536</v>
+      <c r="AC195">
+        <v>74.59999999999999</v>
       </c>
       <c r="AD195">
         <v>16.2</v>
@@ -25775,8 +25382,8 @@
       <c r="AB196">
         <v>14645468</v>
       </c>
-      <c r="AC196" t="s">
-        <v>1659</v>
+      <c r="AC196">
+        <v>83.09999999999999</v>
       </c>
       <c r="AD196">
         <v>20.7</v>

--- a/world-data-2023.xlsx
+++ b/world-data-2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1190">
   <si>
     <t>Country</t>
   </si>
@@ -3221,309 +3221,6 @@
     <t>ZMW</t>
   </si>
   <si>
-    <t xml:space="preserve">$0.70 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.36 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.51 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.97 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.77 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.93 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.92 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.43 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.81 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.43 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.72 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.98 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.71 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.37 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.90 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.81 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.41 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.78 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.96 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.68 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.07 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.83 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.82 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.76 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.79 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.69 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.63 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.37 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.42 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.95 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.74 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.74 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.63 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.44 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.73 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.65 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.91 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.68 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.88 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.46 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.78 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.86 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.29 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.42 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.87 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.29 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.94 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.46 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.34 </t>
-  </si>
-  <si>
     <t>Sydney</t>
   </si>
   <si>
@@ -3660,249 +3357,6 @@
   </si>
   <si>
     <t>Ho Chi Minh City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$6.63 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.66 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13.59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.47 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.51 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10.31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.65 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.34 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.36 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$9.51 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.92 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.48 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.46 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$11.16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$9.99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4.46 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.48 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10.79 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$7.58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.33 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$6.77 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.41 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.09 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.88 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.41 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5.07 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$11.72 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10.29 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$11.49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4.33 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.69 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.93 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.78 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.33 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.85 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$6.49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5.60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10.13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$7.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.66 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.56 </t>
   </si>
   <si>
     <t>Pashto</t>
@@ -4656,8 +4110,8 @@
       <c r="O2">
         <v>2.1</v>
       </c>
-      <c r="P2" t="s">
-        <v>1068</v>
+      <c r="P2">
+        <v>0.7</v>
       </c>
       <c r="Q2">
         <v>19101353833</v>
@@ -4680,11 +4134,11 @@
       <c r="W2">
         <v>638</v>
       </c>
-      <c r="X2" t="s">
-        <v>1080</v>
+      <c r="X2">
+        <v>0.43</v>
       </c>
       <c r="Y2" t="s">
-        <v>1296</v>
+        <v>1114</v>
       </c>
       <c r="Z2">
         <v>78.40000000000001</v>
@@ -4772,8 +4226,8 @@
       <c r="O3">
         <v>28.1</v>
       </c>
-      <c r="P3" t="s">
-        <v>1069</v>
+      <c r="P3">
+        <v>1.36</v>
       </c>
       <c r="Q3">
         <v>15278077447</v>
@@ -4796,11 +4250,11 @@
       <c r="W3">
         <v>15</v>
       </c>
-      <c r="X3" t="s">
-        <v>1081</v>
+      <c r="X3">
+        <v>1.12</v>
       </c>
       <c r="Y3" t="s">
-        <v>1297</v>
+        <v>1115</v>
       </c>
       <c r="Z3">
         <v>56.9</v>
@@ -4888,8 +4342,8 @@
       <c r="O4">
         <v>0.8</v>
       </c>
-      <c r="P4" t="s">
-        <v>1070</v>
+      <c r="P4">
+        <v>0.28</v>
       </c>
       <c r="Q4">
         <v>169988236398</v>
@@ -4912,11 +4366,11 @@
       <c r="W4">
         <v>112</v>
       </c>
-      <c r="X4" t="s">
-        <v>1129</v>
+      <c r="X4">
+        <v>0.95</v>
       </c>
       <c r="Y4" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z4">
         <v>28.1</v>
@@ -4995,8 +4449,8 @@
       <c r="O5">
         <v>34</v>
       </c>
-      <c r="P5" t="s">
-        <v>1071</v>
+      <c r="P5">
+        <v>1.51</v>
       </c>
       <c r="Q5">
         <v>3154057987</v>
@@ -5010,11 +4464,11 @@
       <c r="U5" t="s">
         <v>749</v>
       </c>
-      <c r="X5" t="s">
-        <v>1215</v>
+      <c r="X5">
+        <v>6.63</v>
       </c>
       <c r="Y5" t="s">
-        <v>1299</v>
+        <v>1117</v>
       </c>
       <c r="Z5">
         <v>36.4</v>
@@ -5090,8 +4544,8 @@
       <c r="O6">
         <v>46.3</v>
       </c>
-      <c r="P6" t="s">
-        <v>1072</v>
+      <c r="P6">
+        <v>0.97</v>
       </c>
       <c r="Q6">
         <v>94635415870</v>
@@ -5114,11 +4568,11 @@
       <c r="W6">
         <v>241</v>
       </c>
-      <c r="X6" t="s">
-        <v>1088</v>
+      <c r="X6">
+        <v>0.71</v>
       </c>
       <c r="Y6" t="s">
-        <v>1300</v>
+        <v>1118</v>
       </c>
       <c r="Z6">
         <v>33.4</v>
@@ -5206,8 +4660,8 @@
       <c r="O7">
         <v>22.3</v>
       </c>
-      <c r="P7" t="s">
-        <v>1073</v>
+      <c r="P7">
+        <v>0.99</v>
       </c>
       <c r="Q7">
         <v>1727759259</v>
@@ -5230,11 +4684,11 @@
       <c r="W7">
         <v>42</v>
       </c>
-      <c r="X7" t="s">
-        <v>1216</v>
+      <c r="X7">
+        <v>3.04</v>
       </c>
       <c r="Y7" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z7">
         <v>24.3</v>
@@ -5316,8 +4770,8 @@
       <c r="O8">
         <v>9.800000000000001</v>
       </c>
-      <c r="P8" t="s">
-        <v>1074</v>
+      <c r="P8">
+        <v>1.1</v>
       </c>
       <c r="Q8">
         <v>449663446954</v>
@@ -5340,11 +4794,11 @@
       <c r="W8">
         <v>39</v>
       </c>
-      <c r="X8" t="s">
-        <v>1217</v>
+      <c r="X8">
+        <v>3.35</v>
       </c>
       <c r="Y8" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z8">
         <v>17.6</v>
@@ -5432,8 +4886,8 @@
       <c r="O9">
         <v>11.7</v>
       </c>
-      <c r="P9" t="s">
-        <v>1075</v>
+      <c r="P9">
+        <v>0.77</v>
       </c>
       <c r="Q9">
         <v>13672802158</v>
@@ -5456,11 +4910,11 @@
       <c r="W9">
         <v>26</v>
       </c>
-      <c r="X9" t="s">
-        <v>1218</v>
+      <c r="X9">
+        <v>0.66</v>
       </c>
       <c r="Y9" t="s">
-        <v>1303</v>
+        <v>1121</v>
       </c>
       <c r="Z9">
         <v>81.59999999999999</v>
@@ -5548,8 +5002,8 @@
       <c r="O10">
         <v>16.3</v>
       </c>
-      <c r="P10" t="s">
-        <v>1076</v>
+      <c r="P10">
+        <v>0.93</v>
       </c>
       <c r="Q10">
         <v>1392680589329</v>
@@ -5564,7 +5018,7 @@
         <v>3.1</v>
       </c>
       <c r="U10" t="s">
-        <v>1169</v>
+        <v>1068</v>
       </c>
       <c r="V10">
         <v>82.7</v>
@@ -5572,8 +5026,8 @@
       <c r="W10">
         <v>6</v>
       </c>
-      <c r="X10" t="s">
-        <v>1219</v>
+      <c r="X10">
+        <v>13.59</v>
       </c>
       <c r="Z10">
         <v>19.6</v>
@@ -5661,8 +5115,8 @@
       <c r="O11">
         <v>46.9</v>
       </c>
-      <c r="P11" t="s">
-        <v>1077</v>
+      <c r="P11">
+        <v>1.2</v>
       </c>
       <c r="Q11">
         <v>446314739528</v>
@@ -5686,7 +5140,7 @@
         <v>5</v>
       </c>
       <c r="Y11" t="s">
-        <v>1304</v>
+        <v>1122</v>
       </c>
       <c r="Z11">
         <v>17.9</v>
@@ -5774,8 +5228,8 @@
       <c r="O12">
         <v>14.1</v>
       </c>
-      <c r="P12" t="s">
-        <v>1078</v>
+      <c r="P12">
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q12">
         <v>39207000000</v>
@@ -5798,11 +5252,11 @@
       <c r="W12">
         <v>26</v>
       </c>
-      <c r="X12" t="s">
-        <v>1220</v>
+      <c r="X12">
+        <v>0.47</v>
       </c>
       <c r="Y12" t="s">
-        <v>1305</v>
+        <v>1123</v>
       </c>
       <c r="Z12">
         <v>78.59999999999999</v>
@@ -5887,8 +5341,8 @@
       <c r="O13">
         <v>51.4</v>
       </c>
-      <c r="P13" t="s">
-        <v>1079</v>
+      <c r="P13">
+        <v>0.92</v>
       </c>
       <c r="Q13">
         <v>12827000000</v>
@@ -5911,11 +5365,11 @@
       <c r="W13">
         <v>70</v>
       </c>
-      <c r="X13" t="s">
-        <v>1221</v>
+      <c r="X13">
+        <v>5.25</v>
       </c>
       <c r="Y13" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z13">
         <v>27.8</v>
@@ -6003,8 +5457,8 @@
       <c r="O14">
         <v>0.8</v>
       </c>
-      <c r="P14" t="s">
-        <v>1080</v>
+      <c r="P14">
+        <v>0.43</v>
       </c>
       <c r="Q14">
         <v>38574069149</v>
@@ -6019,7 +5473,7 @@
         <v>6.1</v>
       </c>
       <c r="U14" t="s">
-        <v>1170</v>
+        <v>1069</v>
       </c>
       <c r="V14">
         <v>77.2</v>
@@ -6028,7 +5482,7 @@
         <v>14</v>
       </c>
       <c r="Y14" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z14">
         <v>25.1</v>
@@ -6116,8 +5570,8 @@
       <c r="O15">
         <v>11</v>
       </c>
-      <c r="P15" t="s">
-        <v>1081</v>
+      <c r="P15">
+        <v>1.12</v>
       </c>
       <c r="Q15">
         <v>302571254131</v>
@@ -6140,11 +5594,11 @@
       <c r="W15">
         <v>173</v>
       </c>
-      <c r="X15" t="s">
-        <v>1222</v>
+      <c r="X15">
+        <v>0.51</v>
       </c>
       <c r="Y15" t="s">
-        <v>1306</v>
+        <v>1124</v>
       </c>
       <c r="Z15">
         <v>71.8</v>
@@ -6232,8 +5686,8 @@
       <c r="O16">
         <v>14.7</v>
       </c>
-      <c r="P16" t="s">
-        <v>1082</v>
+      <c r="P16">
+        <v>1.81</v>
       </c>
       <c r="Q16">
         <v>5209000000</v>
@@ -6256,11 +5710,11 @@
       <c r="W16">
         <v>27</v>
       </c>
-      <c r="X16" t="s">
-        <v>1223</v>
+      <c r="X16">
+        <v>3.13</v>
       </c>
       <c r="Y16" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z16">
         <v>45.2</v>
@@ -6345,8 +5799,8 @@
       <c r="O17">
         <v>42.6</v>
       </c>
-      <c r="P17" t="s">
-        <v>1083</v>
+      <c r="P17">
+        <v>0.6</v>
       </c>
       <c r="Q17">
         <v>63080457023</v>
@@ -6369,11 +5823,11 @@
       <c r="W17">
         <v>2</v>
       </c>
-      <c r="X17" t="s">
-        <v>1105</v>
+      <c r="X17">
+        <v>1.49</v>
       </c>
       <c r="Y17" t="s">
-        <v>1307</v>
+        <v>1125</v>
       </c>
       <c r="Z17">
         <v>34.5</v>
@@ -6461,8 +5915,8 @@
       <c r="O18">
         <v>22.6</v>
       </c>
-      <c r="P18" t="s">
-        <v>1084</v>
+      <c r="P18">
+        <v>1.43</v>
       </c>
       <c r="Q18">
         <v>529606710418</v>
@@ -6477,7 +5931,7 @@
         <v>2.9</v>
       </c>
       <c r="U18" t="s">
-        <v>1171</v>
+        <v>1070</v>
       </c>
       <c r="V18">
         <v>81.59999999999999</v>
@@ -6485,11 +5939,11 @@
       <c r="W18">
         <v>5</v>
       </c>
-      <c r="X18" t="s">
-        <v>1224</v>
+      <c r="X18">
+        <v>10.31</v>
       </c>
       <c r="Y18" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z18">
         <v>17.6</v>
@@ -6577,8 +6031,8 @@
       <c r="O19">
         <v>59.7</v>
       </c>
-      <c r="P19" t="s">
-        <v>1085</v>
+      <c r="P19">
+        <v>1.13</v>
       </c>
       <c r="Q19">
         <v>1879613600</v>
@@ -6593,7 +6047,7 @@
         <v>11.2</v>
       </c>
       <c r="U19" t="s">
-        <v>1172</v>
+        <v>1071</v>
       </c>
       <c r="V19">
         <v>74.5</v>
@@ -6601,11 +6055,11 @@
       <c r="W19">
         <v>36</v>
       </c>
-      <c r="X19" t="s">
-        <v>1225</v>
+      <c r="X19">
+        <v>1.65</v>
       </c>
       <c r="Y19" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z19">
         <v>22.7</v>
@@ -6693,8 +6147,8 @@
       <c r="O20">
         <v>37.8</v>
       </c>
-      <c r="P20" t="s">
-        <v>1086</v>
+      <c r="P20">
+        <v>0.72</v>
       </c>
       <c r="Q20">
         <v>14390709095</v>
@@ -6709,7 +6163,7 @@
         <v>60.5</v>
       </c>
       <c r="U20" t="s">
-        <v>1173</v>
+        <v>1072</v>
       </c>
       <c r="V20">
         <v>61.5</v>
@@ -6717,11 +6171,11 @@
       <c r="W20">
         <v>397</v>
       </c>
-      <c r="X20" t="s">
-        <v>1226</v>
+      <c r="X20">
+        <v>0.39</v>
       </c>
       <c r="Y20" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z20">
         <v>40.5</v>
@@ -6806,8 +6260,8 @@
       <c r="O21">
         <v>72.5</v>
       </c>
-      <c r="P21" t="s">
-        <v>1087</v>
+      <c r="P21">
+        <v>0.98</v>
       </c>
       <c r="Q21">
         <v>2446674101</v>
@@ -6830,11 +6284,11 @@
       <c r="W21">
         <v>183</v>
       </c>
-      <c r="X21" t="s">
-        <v>1227</v>
+      <c r="X21">
+        <v>0.32</v>
       </c>
       <c r="Y21" t="s">
-        <v>1309</v>
+        <v>1127</v>
       </c>
       <c r="Z21">
         <v>19.8</v>
@@ -6922,8 +6376,8 @@
       <c r="O22">
         <v>50.3</v>
       </c>
-      <c r="P22" t="s">
-        <v>1088</v>
+      <c r="P22">
+        <v>0.71</v>
       </c>
       <c r="Q22">
         <v>40895322865</v>
@@ -6935,7 +6389,7 @@
         <v>21.8</v>
       </c>
       <c r="U22" t="s">
-        <v>1174</v>
+        <v>1073</v>
       </c>
       <c r="V22">
         <v>71.2</v>
@@ -6943,11 +6397,11 @@
       <c r="W22">
         <v>155</v>
       </c>
-      <c r="X22" t="s">
-        <v>1069</v>
+      <c r="X22">
+        <v>1.36</v>
       </c>
       <c r="Y22" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z22">
         <v>25.9</v>
@@ -7035,8 +6489,8 @@
       <c r="O23">
         <v>42.7</v>
       </c>
-      <c r="P23" t="s">
-        <v>1089</v>
+      <c r="P23">
+        <v>1.05</v>
       </c>
       <c r="Q23">
         <v>20047848435</v>
@@ -7048,7 +6502,7 @@
         <v>5</v>
       </c>
       <c r="U23" t="s">
-        <v>1175</v>
+        <v>1074</v>
       </c>
       <c r="V23">
         <v>77.3</v>
@@ -7056,11 +6510,11 @@
       <c r="W23">
         <v>10</v>
       </c>
-      <c r="X23" t="s">
-        <v>1150</v>
+      <c r="X23">
+        <v>1.04</v>
       </c>
       <c r="Y23" t="s">
-        <v>1310</v>
+        <v>1128</v>
       </c>
       <c r="Z23">
         <v>28.6</v>
@@ -7148,8 +6602,8 @@
       <c r="O24">
         <v>18.9</v>
       </c>
-      <c r="P24" t="s">
-        <v>1088</v>
+      <c r="P24">
+        <v>0.71</v>
       </c>
       <c r="Q24">
         <v>18340510789</v>
@@ -7172,11 +6626,11 @@
       <c r="W24">
         <v>144</v>
       </c>
-      <c r="X24" t="s">
-        <v>1161</v>
+      <c r="X24">
+        <v>0.29</v>
       </c>
       <c r="Y24" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z24">
         <v>5.3</v>
@@ -7264,8 +6718,8 @@
       <c r="O25">
         <v>58.9</v>
       </c>
-      <c r="P25" t="s">
-        <v>1090</v>
+      <c r="P25">
+        <v>1.02</v>
       </c>
       <c r="Q25">
         <v>1839758040766</v>
@@ -7280,7 +6734,7 @@
         <v>12.8</v>
       </c>
       <c r="U25" t="s">
-        <v>1176</v>
+        <v>1075</v>
       </c>
       <c r="V25">
         <v>75.7</v>
@@ -7288,11 +6742,11 @@
       <c r="W25">
         <v>60</v>
       </c>
-      <c r="X25" t="s">
-        <v>1228</v>
+      <c r="X25">
+        <v>1.53</v>
       </c>
       <c r="Y25" t="s">
-        <v>1300</v>
+        <v>1118</v>
       </c>
       <c r="Z25">
         <v>28.3</v>
@@ -7380,8 +6834,8 @@
       <c r="O26">
         <v>72.09999999999999</v>
       </c>
-      <c r="P26" t="s">
-        <v>1091</v>
+      <c r="P26">
+        <v>0.37</v>
       </c>
       <c r="Q26">
         <v>13469422941</v>
@@ -7402,7 +6856,7 @@
         <v>31</v>
       </c>
       <c r="Y26" t="s">
-        <v>1311</v>
+        <v>1129</v>
       </c>
       <c r="Z26">
         <v>6</v>
@@ -7487,8 +6941,8 @@
       <c r="O27">
         <v>35.4</v>
       </c>
-      <c r="P27" t="s">
-        <v>1092</v>
+      <c r="P27">
+        <v>1.11</v>
       </c>
       <c r="Q27">
         <v>86000000000</v>
@@ -7511,11 +6965,11 @@
       <c r="W27">
         <v>10</v>
       </c>
-      <c r="X27" t="s">
-        <v>1125</v>
+      <c r="X27">
+        <v>1.57</v>
       </c>
       <c r="Y27" t="s">
-        <v>1312</v>
+        <v>1130</v>
       </c>
       <c r="Z27">
         <v>47.7</v>
@@ -7603,8 +7057,8 @@
       <c r="O28">
         <v>19.3</v>
       </c>
-      <c r="P28" t="s">
-        <v>1087</v>
+      <c r="P28">
+        <v>0.98</v>
       </c>
       <c r="Q28">
         <v>15745810235</v>
@@ -7627,11 +7081,11 @@
       <c r="W28">
         <v>320</v>
       </c>
-      <c r="X28" t="s">
-        <v>1229</v>
+      <c r="X28">
+        <v>0.34</v>
       </c>
       <c r="Y28" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z28">
         <v>36.1</v>
@@ -7719,8 +7173,8 @@
       <c r="O29">
         <v>10.9</v>
       </c>
-      <c r="P29" t="s">
-        <v>1093</v>
+      <c r="P29">
+        <v>1.21</v>
       </c>
       <c r="Q29">
         <v>3012334882</v>
@@ -7744,7 +7198,7 @@
         <v>548</v>
       </c>
       <c r="Y29" t="s">
-        <v>1313</v>
+        <v>1131</v>
       </c>
       <c r="Z29">
         <v>19.1</v>
@@ -7832,8 +7286,8 @@
       <c r="O30">
         <v>32.7</v>
       </c>
-      <c r="P30" t="s">
-        <v>1076</v>
+      <c r="P30">
+        <v>0.93</v>
       </c>
       <c r="Q30">
         <v>58792205642</v>
@@ -7848,7 +7302,7 @@
         <v>59.4</v>
       </c>
       <c r="U30" t="s">
-        <v>1177</v>
+        <v>1076</v>
       </c>
       <c r="V30">
         <v>57.4</v>
@@ -7856,11 +7310,11 @@
       <c r="W30">
         <v>617</v>
       </c>
-      <c r="X30" t="s">
-        <v>1230</v>
+      <c r="X30">
+        <v>0.36</v>
       </c>
       <c r="Y30" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z30">
         <v>36</v>
@@ -7948,8 +7402,8 @@
       <c r="O31">
         <v>22.5</v>
       </c>
-      <c r="P31" t="s">
-        <v>1090</v>
+      <c r="P31">
+        <v>1.02</v>
       </c>
       <c r="Q31">
         <v>1981845741</v>
@@ -7972,11 +7426,11 @@
       <c r="W31">
         <v>58</v>
       </c>
-      <c r="X31" t="s">
-        <v>1100</v>
+      <c r="X31">
+        <v>0.68</v>
       </c>
       <c r="Y31" t="s">
-        <v>1300</v>
+        <v>1118</v>
       </c>
       <c r="Z31">
         <v>23.2</v>
@@ -8061,8 +7515,8 @@
       <c r="O32">
         <v>52.9</v>
       </c>
-      <c r="P32" t="s">
-        <v>1094</v>
+      <c r="P32">
+        <v>0.9</v>
       </c>
       <c r="Q32">
         <v>27089389787</v>
@@ -8086,7 +7540,7 @@
         <v>160</v>
       </c>
       <c r="Y32" t="s">
-        <v>1314</v>
+        <v>1132</v>
       </c>
       <c r="Z32">
         <v>59.4</v>
@@ -8174,8 +7628,8 @@
       <c r="O33">
         <v>39.3</v>
       </c>
-      <c r="P33" t="s">
-        <v>1095</v>
+      <c r="P33">
+        <v>1.03</v>
       </c>
       <c r="Q33">
         <v>38760467033</v>
@@ -8190,7 +7644,7 @@
         <v>50.6</v>
       </c>
       <c r="U33" t="s">
-        <v>1178</v>
+        <v>1077</v>
       </c>
       <c r="V33">
         <v>58.9</v>
@@ -8198,11 +7652,11 @@
       <c r="W33">
         <v>529</v>
       </c>
-      <c r="X33" t="s">
-        <v>1130</v>
+      <c r="X33">
+        <v>0.35</v>
       </c>
       <c r="Y33" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z33">
         <v>69.7</v>
@@ -8290,8 +7744,8 @@
       <c r="O34">
         <v>38.2</v>
       </c>
-      <c r="P34" t="s">
-        <v>1096</v>
+      <c r="P34">
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q34">
         <v>1736425629520</v>
@@ -8306,7 +7760,7 @@
         <v>4.3</v>
       </c>
       <c r="U34" t="s">
-        <v>1179</v>
+        <v>1078</v>
       </c>
       <c r="V34">
         <v>81.90000000000001</v>
@@ -8314,11 +7768,11 @@
       <c r="W34">
         <v>10</v>
       </c>
-      <c r="X34" t="s">
-        <v>1231</v>
+      <c r="X34">
+        <v>9.51</v>
       </c>
       <c r="Y34" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z34">
         <v>14.6</v>
@@ -8403,8 +7857,8 @@
       <c r="O35">
         <v>35.6</v>
       </c>
-      <c r="P35" t="s">
-        <v>1097</v>
+      <c r="P35">
+        <v>1.41</v>
       </c>
       <c r="Q35">
         <v>2220307369</v>
@@ -8427,11 +7881,11 @@
       <c r="W35">
         <v>829</v>
       </c>
-      <c r="X35" t="s">
-        <v>1091</v>
+      <c r="X35">
+        <v>0.37</v>
       </c>
       <c r="Y35" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z35">
         <v>39.6</v>
@@ -8519,8 +7973,8 @@
       <c r="O36">
         <v>3.8</v>
       </c>
-      <c r="P36" t="s">
-        <v>1098</v>
+      <c r="P36">
+        <v>0.78</v>
       </c>
       <c r="Q36">
         <v>11314951343</v>
@@ -8543,11 +7997,11 @@
       <c r="W36">
         <v>1140</v>
       </c>
-      <c r="X36" t="s">
-        <v>1083</v>
+      <c r="X36">
+        <v>0.6</v>
       </c>
       <c r="Y36" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z36">
         <v>56.4</v>
@@ -8632,8 +8086,8 @@
       <c r="O37">
         <v>24.3</v>
       </c>
-      <c r="P37" t="s">
-        <v>1095</v>
+      <c r="P37">
+        <v>1.03</v>
       </c>
       <c r="Q37">
         <v>282318159745</v>
@@ -8656,11 +8110,11 @@
       <c r="W37">
         <v>13</v>
       </c>
-      <c r="X37" t="s">
-        <v>1112</v>
+      <c r="X37">
+        <v>2</v>
       </c>
       <c r="Y37" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z37">
         <v>32.2</v>
@@ -8748,8 +8202,8 @@
       <c r="O38">
         <v>22.4</v>
       </c>
-      <c r="P38" t="s">
-        <v>1099</v>
+      <c r="P38">
+        <v>0.96</v>
       </c>
       <c r="Q38">
         <v>19910000000000</v>
@@ -8764,7 +8218,7 @@
         <v>7.4</v>
       </c>
       <c r="U38" t="s">
-        <v>1180</v>
+        <v>1079</v>
       </c>
       <c r="V38">
         <v>77</v>
@@ -8772,11 +8226,11 @@
       <c r="W38">
         <v>29</v>
       </c>
-      <c r="X38" t="s">
-        <v>1160</v>
+      <c r="X38">
+        <v>0.87</v>
       </c>
       <c r="Y38" t="s">
-        <v>1315</v>
+        <v>1133</v>
       </c>
       <c r="Z38">
         <v>32.4</v>
@@ -8864,8 +8318,8 @@
       <c r="O39">
         <v>52.7</v>
       </c>
-      <c r="P39" t="s">
-        <v>1100</v>
+      <c r="P39">
+        <v>0.68</v>
       </c>
       <c r="Q39">
         <v>323802808108</v>
@@ -8888,11 +8342,11 @@
       <c r="W39">
         <v>83</v>
       </c>
-      <c r="X39" t="s">
-        <v>1103</v>
+      <c r="X39">
+        <v>1.23</v>
       </c>
       <c r="Y39" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z39">
         <v>18.3</v>
@@ -8998,11 +8452,11 @@
       <c r="W40">
         <v>273</v>
       </c>
-      <c r="X40" t="s">
-        <v>1088</v>
+      <c r="X40">
+        <v>0.71</v>
       </c>
       <c r="Y40" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z40">
         <v>74.8</v>
@@ -9084,8 +8538,8 @@
       <c r="O41">
         <v>65.40000000000001</v>
       </c>
-      <c r="P41" t="s">
-        <v>1072</v>
+      <c r="P41">
+        <v>0.97</v>
       </c>
       <c r="Q41">
         <v>10820591131</v>
@@ -9108,11 +8562,11 @@
       <c r="W41">
         <v>378</v>
       </c>
-      <c r="X41" t="s">
-        <v>1146</v>
+      <c r="X41">
+        <v>0.88</v>
       </c>
       <c r="Y41" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z41">
         <v>43.8</v>
@@ -9200,8 +8654,8 @@
       <c r="O42">
         <v>54.6</v>
       </c>
-      <c r="P42" t="s">
-        <v>1087</v>
+      <c r="P42">
+        <v>0.98</v>
       </c>
       <c r="Q42">
         <v>61773944174</v>
@@ -9224,11 +8678,11 @@
       <c r="W42">
         <v>27</v>
       </c>
-      <c r="X42" t="s">
-        <v>1232</v>
+      <c r="X42">
+        <v>1.84</v>
       </c>
       <c r="Y42" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z42">
         <v>21.5</v>
@@ -9316,8 +8770,8 @@
       <c r="O43">
         <v>34.4</v>
       </c>
-      <c r="P43" t="s">
-        <v>1101</v>
+      <c r="P43">
+        <v>1.26</v>
       </c>
       <c r="Q43">
         <v>60415553039</v>
@@ -9340,11 +8794,11 @@
       <c r="W43">
         <v>8</v>
       </c>
-      <c r="X43" t="s">
-        <v>1233</v>
+      <c r="X43">
+        <v>2.92</v>
       </c>
       <c r="Y43" t="s">
-        <v>1316</v>
+        <v>1134</v>
       </c>
       <c r="Z43">
         <v>15.2</v>
@@ -9426,8 +8880,8 @@
       <c r="O44">
         <v>31.3</v>
       </c>
-      <c r="P44" t="s">
-        <v>1102</v>
+      <c r="P44">
+        <v>1.4</v>
       </c>
       <c r="Q44">
         <v>100023000000</v>
@@ -9450,11 +8904,11 @@
       <c r="W44">
         <v>36</v>
       </c>
-      <c r="X44" t="s">
-        <v>1234</v>
+      <c r="X44">
+        <v>0.05</v>
       </c>
       <c r="Y44" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="AA44">
         <v>8.42</v>
@@ -9533,8 +8987,8 @@
       <c r="O45">
         <v>18.7</v>
       </c>
-      <c r="P45" t="s">
-        <v>1103</v>
+      <c r="P45">
+        <v>1.23</v>
       </c>
       <c r="Q45">
         <v>24564647935</v>
@@ -9549,7 +9003,7 @@
         <v>1.9</v>
       </c>
       <c r="U45" t="s">
-        <v>1181</v>
+        <v>1080</v>
       </c>
       <c r="V45">
         <v>80.8</v>
@@ -9558,7 +9012,7 @@
         <v>6</v>
       </c>
       <c r="Y45" t="s">
-        <v>1317</v>
+        <v>1135</v>
       </c>
       <c r="Z45">
         <v>43.9</v>
@@ -9646,8 +9100,8 @@
       <c r="O46">
         <v>34.6</v>
       </c>
-      <c r="P46" t="s">
-        <v>1104</v>
+      <c r="P46">
+        <v>1.17</v>
       </c>
       <c r="Q46">
         <v>246489245495</v>
@@ -9670,11 +9124,11 @@
       <c r="W46">
         <v>3</v>
       </c>
-      <c r="X46" t="s">
-        <v>1235</v>
+      <c r="X46">
+        <v>3</v>
       </c>
       <c r="Y46" t="s">
-        <v>1318</v>
+        <v>1136</v>
       </c>
       <c r="Z46">
         <v>14.8</v>
@@ -9762,8 +9216,8 @@
       <c r="O47">
         <v>67.2</v>
       </c>
-      <c r="P47" t="s">
-        <v>1105</v>
+      <c r="P47">
+        <v>1.49</v>
       </c>
       <c r="Q47">
         <v>47319624204</v>
@@ -9786,11 +9240,11 @@
       <c r="W47">
         <v>473</v>
       </c>
-      <c r="X47" t="s">
-        <v>1236</v>
+      <c r="X47">
+        <v>0.18</v>
       </c>
       <c r="Y47" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z47">
         <v>37.4</v>
@@ -9878,8 +9332,8 @@
       <c r="O48">
         <v>14.7</v>
       </c>
-      <c r="P48" t="s">
-        <v>1106</v>
+      <c r="P48">
+        <v>1.55</v>
       </c>
       <c r="Q48">
         <v>348078018464</v>
@@ -9903,7 +9357,7 @@
         <v>4</v>
       </c>
       <c r="Y48" t="s">
-        <v>1319</v>
+        <v>1137</v>
       </c>
       <c r="Z48">
         <v>13.7</v>
@@ -9991,8 +9445,8 @@
       <c r="O49">
         <v>0.2</v>
       </c>
-      <c r="P49" t="s">
-        <v>1107</v>
+      <c r="P49">
+        <v>1.32</v>
       </c>
       <c r="Q49">
         <v>3318716359</v>
@@ -10016,7 +9470,7 @@
         <v>248</v>
       </c>
       <c r="Y49" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z49">
         <v>20.4</v>
@@ -10116,11 +9570,11 @@
       <c r="V50">
         <v>76.59999999999999</v>
       </c>
-      <c r="X50" t="s">
-        <v>1237</v>
+      <c r="X50">
+        <v>1.48</v>
       </c>
       <c r="Y50" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z50">
         <v>28.4</v>
@@ -10202,8 +9656,8 @@
       <c r="O51">
         <v>41.7</v>
       </c>
-      <c r="P51" t="s">
-        <v>1108</v>
+      <c r="P51">
+        <v>1.07</v>
       </c>
       <c r="Q51">
         <v>88941298258</v>
@@ -10226,11 +9680,11 @@
       <c r="W51">
         <v>95</v>
       </c>
-      <c r="X51" t="s">
-        <v>1110</v>
+      <c r="X51">
+        <v>0.4</v>
       </c>
       <c r="Y51" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z51">
         <v>43.7</v>
@@ -10318,8 +9772,8 @@
       <c r="O52">
         <v>50.2</v>
       </c>
-      <c r="P52" t="s">
-        <v>1109</v>
+      <c r="P52">
+        <v>0.61</v>
       </c>
       <c r="Q52">
         <v>107435665000</v>
@@ -10342,11 +9796,11 @@
       <c r="W52">
         <v>59</v>
       </c>
-      <c r="X52" t="s">
-        <v>1238</v>
+      <c r="X52">
+        <v>2.46</v>
       </c>
       <c r="Y52" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z52">
         <v>43.7</v>
@@ -10431,8 +9885,8 @@
       <c r="O53">
         <v>0.1</v>
       </c>
-      <c r="P53" t="s">
-        <v>1110</v>
+      <c r="P53">
+        <v>0.4</v>
       </c>
       <c r="Q53">
         <v>303175127598</v>
@@ -10456,7 +9910,7 @@
         <v>37</v>
       </c>
       <c r="Y53" t="s">
-        <v>1320</v>
+        <v>1138</v>
       </c>
       <c r="Z53">
         <v>62</v>
@@ -10541,8 +9995,8 @@
       <c r="O54">
         <v>12.6</v>
       </c>
-      <c r="P54" t="s">
-        <v>1111</v>
+      <c r="P54">
+        <v>0.83</v>
       </c>
       <c r="Q54">
         <v>27022640000</v>
@@ -10565,11 +10019,11 @@
       <c r="W54">
         <v>46</v>
       </c>
-      <c r="X54" t="s">
-        <v>1239</v>
+      <c r="X54">
+        <v>0.5</v>
       </c>
       <c r="Y54" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z54">
         <v>27.9</v>
@@ -10678,11 +10132,11 @@
       <c r="W55">
         <v>301</v>
       </c>
-      <c r="X55" t="s">
-        <v>1089</v>
+      <c r="X55">
+        <v>1.05</v>
       </c>
       <c r="Y55" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z55">
         <v>72</v>
@@ -10764,8 +10218,8 @@
       <c r="O56">
         <v>14.9</v>
       </c>
-      <c r="P56" t="s">
-        <v>1112</v>
+      <c r="P56">
+        <v>2</v>
       </c>
       <c r="Q56">
         <v>2065001626</v>
@@ -10789,7 +10243,7 @@
         <v>480</v>
       </c>
       <c r="Y56" t="s">
-        <v>1321</v>
+        <v>1139</v>
       </c>
       <c r="Z56">
         <v>52.4</v>
@@ -10874,8 +10328,8 @@
       <c r="O57">
         <v>51.3</v>
       </c>
-      <c r="P57" t="s">
-        <v>1113</v>
+      <c r="P57">
+        <v>1.14</v>
       </c>
       <c r="Q57">
         <v>31386949981</v>
@@ -10898,11 +10352,11 @@
       <c r="W57">
         <v>9</v>
       </c>
-      <c r="X57" t="s">
-        <v>1240</v>
+      <c r="X57">
+        <v>3.14</v>
       </c>
       <c r="Y57" t="s">
-        <v>1322</v>
+        <v>1140</v>
       </c>
       <c r="Z57">
         <v>22.8</v>
@@ -10967,7 +10421,7 @@
         <v>802</v>
       </c>
       <c r="Y58" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z58">
         <v>11.3</v>
@@ -11037,8 +10491,8 @@
       <c r="O59">
         <v>12.5</v>
       </c>
-      <c r="P59" t="s">
-        <v>1114</v>
+      <c r="P59">
+        <v>0.75</v>
       </c>
       <c r="Q59">
         <v>96107662398</v>
@@ -11062,7 +10516,7 @@
         <v>401</v>
       </c>
       <c r="Y59" t="s">
-        <v>1323</v>
+        <v>1141</v>
       </c>
       <c r="Z59">
         <v>37.8</v>
@@ -11150,8 +10604,8 @@
       <c r="O60">
         <v>55.9</v>
       </c>
-      <c r="P60" t="s">
-        <v>1115</v>
+      <c r="P60">
+        <v>0.82</v>
       </c>
       <c r="Q60">
         <v>5535548972</v>
@@ -11174,11 +10628,11 @@
       <c r="W60">
         <v>34</v>
       </c>
-      <c r="X60" t="s">
-        <v>1241</v>
+      <c r="X60">
+        <v>1.28</v>
       </c>
       <c r="Y60" t="s">
-        <v>1324</v>
+        <v>1142</v>
       </c>
       <c r="Z60">
         <v>21.4</v>
@@ -11266,8 +10720,8 @@
       <c r="O61">
         <v>73.09999999999999</v>
       </c>
-      <c r="P61" t="s">
-        <v>1116</v>
+      <c r="P61">
+        <v>1.45</v>
       </c>
       <c r="Q61">
         <v>268761201365</v>
@@ -11291,7 +10745,7 @@
         <v>3</v>
       </c>
       <c r="Y61" t="s">
-        <v>1325</v>
+        <v>1143</v>
       </c>
       <c r="Z61">
         <v>19.9</v>
@@ -11379,8 +10833,8 @@
       <c r="O62">
         <v>31.2</v>
       </c>
-      <c r="P62" t="s">
-        <v>1117</v>
+      <c r="P62">
+        <v>1.39</v>
       </c>
       <c r="Q62">
         <v>2715518274227</v>
@@ -11403,11 +10857,11 @@
       <c r="W62">
         <v>8</v>
       </c>
-      <c r="X62" t="s">
-        <v>1242</v>
+      <c r="X62">
+        <v>11.16</v>
       </c>
       <c r="Y62" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z62">
         <v>6.8</v>
@@ -11495,8 +10949,8 @@
       <c r="O63">
         <v>90</v>
       </c>
-      <c r="P63" t="s">
-        <v>1079</v>
+      <c r="P63">
+        <v>0.92</v>
       </c>
       <c r="Q63">
         <v>16657960228</v>
@@ -11519,11 +10973,11 @@
       <c r="W63">
         <v>252</v>
       </c>
-      <c r="X63" t="s">
-        <v>1164</v>
+      <c r="X63">
+        <v>1.46</v>
       </c>
       <c r="Y63" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z63">
         <v>25.9</v>
@@ -11611,8 +11065,8 @@
       <c r="O64">
         <v>48.4</v>
       </c>
-      <c r="P64" t="s">
-        <v>1118</v>
+      <c r="P64">
+        <v>1.18</v>
       </c>
       <c r="Q64">
         <v>1763819048</v>
@@ -11627,7 +11081,7 @@
         <v>39</v>
       </c>
       <c r="U64" t="s">
-        <v>1182</v>
+        <v>1081</v>
       </c>
       <c r="V64">
         <v>61.7</v>
@@ -11635,11 +11089,11 @@
       <c r="W64">
         <v>597</v>
       </c>
-      <c r="X64" t="s">
-        <v>1243</v>
+      <c r="X64">
+        <v>0.13</v>
       </c>
       <c r="Y64" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z64">
         <v>20.3</v>
@@ -11727,8 +11181,8 @@
       <c r="O65">
         <v>40.6</v>
       </c>
-      <c r="P65" t="s">
-        <v>1119</v>
+      <c r="P65">
+        <v>0.76</v>
       </c>
       <c r="Q65">
         <v>17743195770</v>
@@ -11751,11 +11205,11 @@
       <c r="W65">
         <v>25</v>
       </c>
-      <c r="X65" t="s">
-        <v>1234</v>
+      <c r="X65">
+        <v>0.05</v>
       </c>
       <c r="Y65" t="s">
-        <v>1326</v>
+        <v>1144</v>
       </c>
       <c r="Z65">
         <v>57.3</v>
@@ -11843,8 +11297,8 @@
       <c r="O66">
         <v>32.7</v>
       </c>
-      <c r="P66" t="s">
-        <v>1117</v>
+      <c r="P66">
+        <v>1.39</v>
       </c>
       <c r="Q66">
         <v>3845630030824</v>
@@ -11867,11 +11321,11 @@
       <c r="W66">
         <v>7</v>
       </c>
-      <c r="X66" t="s">
-        <v>1244</v>
+      <c r="X66">
+        <v>9.99</v>
       </c>
       <c r="Y66" t="s">
-        <v>1304</v>
+        <v>1122</v>
       </c>
       <c r="Z66">
         <v>12.5</v>
@@ -11959,8 +11413,8 @@
       <c r="O67">
         <v>41.2</v>
       </c>
-      <c r="P67" t="s">
-        <v>1079</v>
+      <c r="P67">
+        <v>0.92</v>
       </c>
       <c r="Q67">
         <v>66983634224</v>
@@ -11983,11 +11437,11 @@
       <c r="W67">
         <v>308</v>
       </c>
-      <c r="X67" t="s">
-        <v>1245</v>
+      <c r="X67">
+        <v>0.27</v>
       </c>
       <c r="Y67" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z67">
         <v>36.1</v>
@@ -12075,8 +11529,8 @@
       <c r="O68">
         <v>31.7</v>
       </c>
-      <c r="P68" t="s">
-        <v>1120</v>
+      <c r="P68">
+        <v>1.54</v>
       </c>
       <c r="Q68">
         <v>209852761469</v>
@@ -12091,7 +11545,7 @@
         <v>3.6</v>
       </c>
       <c r="U68" t="s">
-        <v>1183</v>
+        <v>1082</v>
       </c>
       <c r="V68">
         <v>81.3</v>
@@ -12099,11 +11553,11 @@
       <c r="W68">
         <v>3</v>
       </c>
-      <c r="X68" t="s">
-        <v>1246</v>
+      <c r="X68">
+        <v>4.46</v>
       </c>
       <c r="Y68" t="s">
-        <v>1317</v>
+        <v>1135</v>
       </c>
       <c r="Z68">
         <v>35.5</v>
@@ -12188,8 +11642,8 @@
       <c r="O69">
         <v>50</v>
       </c>
-      <c r="P69" t="s">
-        <v>1081</v>
+      <c r="P69">
+        <v>1.12</v>
       </c>
       <c r="Q69">
         <v>1228170370</v>
@@ -12213,7 +11667,7 @@
         <v>25</v>
       </c>
       <c r="Y69" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z69">
         <v>57</v>
@@ -12295,8 +11749,8 @@
       <c r="O70">
         <v>32.7</v>
       </c>
-      <c r="P70" t="s">
-        <v>1121</v>
+      <c r="P70">
+        <v>0.79</v>
       </c>
       <c r="Q70">
         <v>76710385880</v>
@@ -12319,11 +11773,11 @@
       <c r="W70">
         <v>95</v>
       </c>
-      <c r="X70" t="s">
-        <v>1247</v>
+      <c r="X70">
+        <v>1.6</v>
       </c>
       <c r="Y70" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z70">
         <v>55.8</v>
@@ -12411,8 +11865,8 @@
       <c r="O71">
         <v>25.8</v>
       </c>
-      <c r="P71" t="s">
-        <v>1094</v>
+      <c r="P71">
+        <v>0.9</v>
       </c>
       <c r="Q71">
         <v>13590281809</v>
@@ -12427,7 +11881,7 @@
         <v>64.90000000000001</v>
       </c>
       <c r="U71" t="s">
-        <v>1184</v>
+        <v>1083</v>
       </c>
       <c r="V71">
         <v>61.2</v>
@@ -12436,7 +11890,7 @@
         <v>576</v>
       </c>
       <c r="Y71" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z71">
         <v>54.5</v>
@@ -12545,11 +11999,11 @@
       <c r="W72">
         <v>667</v>
       </c>
-      <c r="X72" t="s">
-        <v>1248</v>
+      <c r="X72">
+        <v>0.16</v>
       </c>
       <c r="Y72" t="s">
-        <v>1300</v>
+        <v>1118</v>
       </c>
       <c r="Z72">
         <v>37.2</v>
@@ -12637,8 +12091,8 @@
       <c r="O73">
         <v>83.90000000000001</v>
       </c>
-      <c r="P73" t="s">
-        <v>1094</v>
+      <c r="P73">
+        <v>0.9</v>
       </c>
       <c r="Q73">
         <v>4280443645</v>
@@ -12661,11 +12115,11 @@
       <c r="W73">
         <v>169</v>
       </c>
-      <c r="X73" t="s">
-        <v>1087</v>
+      <c r="X73">
+        <v>0.98</v>
       </c>
       <c r="Y73" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z73">
         <v>40.5</v>
@@ -12750,8 +12204,8 @@
       <c r="O74">
         <v>3.5</v>
       </c>
-      <c r="P74" t="s">
-        <v>1096</v>
+      <c r="P74">
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q74">
         <v>8498981821</v>
@@ -12774,11 +12228,11 @@
       <c r="W74">
         <v>480</v>
       </c>
-      <c r="X74" t="s">
-        <v>1249</v>
+      <c r="X74">
+        <v>0.25</v>
       </c>
       <c r="Y74" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z74">
         <v>36.3</v>
@@ -12837,7 +12291,7 @@
         <v>939</v>
       </c>
       <c r="Y75" t="s">
-        <v>1327</v>
+        <v>1145</v>
       </c>
       <c r="AB75">
         <v>836</v>
@@ -12898,8 +12352,8 @@
       <c r="O76">
         <v>40</v>
       </c>
-      <c r="P76" t="s">
-        <v>1087</v>
+      <c r="P76">
+        <v>0.98</v>
       </c>
       <c r="Q76">
         <v>25095395475</v>
@@ -12922,11 +12376,11 @@
       <c r="W76">
         <v>65</v>
       </c>
-      <c r="X76" t="s">
-        <v>1250</v>
+      <c r="X76">
+        <v>1.01</v>
       </c>
       <c r="Y76" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z76">
         <v>49.1</v>
@@ -13014,8 +12468,8 @@
       <c r="O77">
         <v>22.9</v>
       </c>
-      <c r="P77" t="s">
-        <v>1118</v>
+      <c r="P77">
+        <v>1.18</v>
       </c>
       <c r="Q77">
         <v>160967157504</v>
@@ -13038,11 +12492,11 @@
       <c r="W77">
         <v>12</v>
       </c>
-      <c r="X77" t="s">
-        <v>1251</v>
+      <c r="X77">
+        <v>2.62</v>
       </c>
       <c r="Y77" t="s">
-        <v>1328</v>
+        <v>1146</v>
       </c>
       <c r="Z77">
         <v>29</v>
@@ -13130,8 +12584,8 @@
       <c r="O78">
         <v>0.5</v>
       </c>
-      <c r="P78" t="s">
-        <v>1122</v>
+      <c r="P78">
+        <v>1.69</v>
       </c>
       <c r="Q78">
         <v>24188035739</v>
@@ -13155,7 +12609,7 @@
         <v>4</v>
       </c>
       <c r="Y78" t="s">
-        <v>1329</v>
+        <v>1147</v>
       </c>
       <c r="Z78">
         <v>17</v>
@@ -13243,8 +12697,8 @@
       <c r="O79">
         <v>23.8</v>
       </c>
-      <c r="P79" t="s">
-        <v>1072</v>
+      <c r="P79">
+        <v>0.97</v>
       </c>
       <c r="Q79">
         <v>2611000000000</v>
@@ -13259,7 +12713,7 @@
         <v>29.9</v>
       </c>
       <c r="U79" t="s">
-        <v>1185</v>
+        <v>1084</v>
       </c>
       <c r="V79">
         <v>69.40000000000001</v>
@@ -13267,11 +12721,11 @@
       <c r="W79">
         <v>145</v>
       </c>
-      <c r="X79" t="s">
-        <v>1252</v>
+      <c r="X79">
+        <v>0.3</v>
       </c>
       <c r="Y79" t="s">
-        <v>1330</v>
+        <v>1148</v>
       </c>
       <c r="Z79">
         <v>65.09999999999999</v>
@@ -13359,8 +12813,8 @@
       <c r="O80">
         <v>49.9</v>
       </c>
-      <c r="P80" t="s">
-        <v>1123</v>
+      <c r="P80">
+        <v>0.63</v>
       </c>
       <c r="Q80">
         <v>1119190780753</v>
@@ -13375,7 +12829,7 @@
         <v>21.1</v>
       </c>
       <c r="U80" t="s">
-        <v>1186</v>
+        <v>1085</v>
       </c>
       <c r="V80">
         <v>71.5</v>
@@ -13383,11 +12837,11 @@
       <c r="W80">
         <v>177</v>
       </c>
-      <c r="X80" t="s">
-        <v>1253</v>
+      <c r="X80">
+        <v>0.48</v>
       </c>
       <c r="Y80" t="s">
-        <v>1331</v>
+        <v>1149</v>
       </c>
       <c r="Z80">
         <v>48.3</v>
@@ -13475,8 +12929,8 @@
       <c r="O81">
         <v>6.6</v>
       </c>
-      <c r="P81" t="s">
-        <v>1110</v>
+      <c r="P81">
+        <v>0.4</v>
       </c>
       <c r="Q81">
         <v>445345282123</v>
@@ -13499,11 +12953,11 @@
       <c r="W81">
         <v>16</v>
       </c>
-      <c r="X81" t="s">
-        <v>1254</v>
+      <c r="X81">
+        <v>1.58</v>
       </c>
       <c r="Y81" t="s">
-        <v>1332</v>
+        <v>1150</v>
       </c>
       <c r="Z81">
         <v>39.7</v>
@@ -13591,8 +13045,8 @@
       <c r="O82">
         <v>1.9</v>
       </c>
-      <c r="P82" t="s">
-        <v>1109</v>
+      <c r="P82">
+        <v>0.61</v>
       </c>
       <c r="Q82">
         <v>234094042939</v>
@@ -13615,11 +13069,11 @@
       <c r="W82">
         <v>79</v>
       </c>
-      <c r="X82" t="s">
-        <v>1255</v>
+      <c r="X82">
+        <v>1.24</v>
       </c>
       <c r="Y82" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z82">
         <v>76.5</v>
@@ -13704,8 +13158,8 @@
       <c r="O83">
         <v>11</v>
       </c>
-      <c r="P83" t="s">
-        <v>1124</v>
+      <c r="P83">
+        <v>1.37</v>
       </c>
       <c r="Q83">
         <v>388698711348</v>
@@ -13720,7 +13174,7 @@
         <v>3.1</v>
       </c>
       <c r="U83" t="s">
-        <v>1187</v>
+        <v>1086</v>
       </c>
       <c r="V83">
         <v>82.3</v>
@@ -13728,11 +13182,11 @@
       <c r="W83">
         <v>5</v>
       </c>
-      <c r="X83" t="s">
-        <v>1256</v>
+      <c r="X83">
+        <v>10.79</v>
       </c>
       <c r="Y83" t="s">
-        <v>1333</v>
+        <v>1151</v>
       </c>
       <c r="Z83">
         <v>15.2</v>
@@ -13820,8 +13274,8 @@
       <c r="O84">
         <v>7.7</v>
       </c>
-      <c r="P84" t="s">
-        <v>1125</v>
+      <c r="P84">
+        <v>1.57</v>
       </c>
       <c r="Q84">
         <v>395098666122</v>
@@ -13844,11 +13298,11 @@
       <c r="W84">
         <v>3</v>
       </c>
-      <c r="X84" t="s">
-        <v>1257</v>
+      <c r="X84">
+        <v>7.58</v>
       </c>
       <c r="Y84" t="s">
-        <v>1334</v>
+        <v>1152</v>
       </c>
       <c r="Z84">
         <v>24.4</v>
@@ -13936,8 +13390,8 @@
       <c r="O85">
         <v>31.8</v>
       </c>
-      <c r="P85" t="s">
-        <v>1126</v>
+      <c r="P85">
+        <v>1.61</v>
       </c>
       <c r="Q85">
         <v>2001244392042</v>
@@ -13961,7 +13415,7 @@
         <v>2</v>
       </c>
       <c r="Y85" t="s">
-        <v>1327</v>
+        <v>1145</v>
       </c>
       <c r="Z85">
         <v>22.8</v>
@@ -14049,8 +13503,8 @@
       <c r="O86">
         <v>30.9</v>
       </c>
-      <c r="P86" t="s">
-        <v>1092</v>
+      <c r="P86">
+        <v>1.11</v>
       </c>
       <c r="Q86">
         <v>16458071068</v>
@@ -14073,11 +13527,11 @@
       <c r="W86">
         <v>80</v>
       </c>
-      <c r="X86" t="s">
-        <v>1258</v>
+      <c r="X86">
+        <v>1.33</v>
       </c>
       <c r="Y86" t="s">
-        <v>1335</v>
+        <v>1153</v>
       </c>
       <c r="Z86">
         <v>23.7</v>
@@ -14162,8 +13616,8 @@
       <c r="O87">
         <v>68.5</v>
       </c>
-      <c r="P87" t="s">
-        <v>1127</v>
+      <c r="P87">
+        <v>1.06</v>
       </c>
       <c r="Q87">
         <v>5081769542380</v>
@@ -14186,8 +13640,8 @@
       <c r="W87">
         <v>5</v>
       </c>
-      <c r="X87" t="s">
-        <v>1259</v>
+      <c r="X87">
+        <v>6.77</v>
       </c>
       <c r="Z87">
         <v>13.1</v>
@@ -14275,8 +13729,8 @@
       <c r="O88">
         <v>1.1</v>
       </c>
-      <c r="P88" t="s">
-        <v>1074</v>
+      <c r="P88">
+        <v>1.1</v>
       </c>
       <c r="Q88">
         <v>43743661972</v>
@@ -14299,11 +13753,11 @@
       <c r="W88">
         <v>46</v>
       </c>
-      <c r="X88" t="s">
-        <v>1105</v>
+      <c r="X88">
+        <v>1.49</v>
       </c>
       <c r="Y88" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z88">
         <v>25.1</v>
@@ -14391,8 +13845,8 @@
       <c r="O89">
         <v>1.2</v>
       </c>
-      <c r="P89" t="s">
-        <v>1128</v>
+      <c r="P89">
+        <v>0.42</v>
       </c>
       <c r="Q89">
         <v>180161741180</v>
@@ -14407,7 +13861,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="U89" t="s">
-        <v>1188</v>
+        <v>1087</v>
       </c>
       <c r="V89">
         <v>73.2</v>
@@ -14415,11 +13869,11 @@
       <c r="W89">
         <v>10</v>
       </c>
-      <c r="X89" t="s">
-        <v>1260</v>
+      <c r="X89">
+        <v>0.41</v>
       </c>
       <c r="Y89" t="s">
-        <v>1307</v>
+        <v>1125</v>
       </c>
       <c r="Z89">
         <v>38.8</v>
@@ -14507,8 +13961,8 @@
       <c r="O90">
         <v>7.8</v>
       </c>
-      <c r="P90" t="s">
-        <v>1129</v>
+      <c r="P90">
+        <v>0.95</v>
       </c>
       <c r="Q90">
         <v>95503088538</v>
@@ -14531,11 +13985,11 @@
       <c r="W90">
         <v>342</v>
       </c>
-      <c r="X90" t="s">
-        <v>1249</v>
+      <c r="X90">
+        <v>0.25</v>
       </c>
       <c r="Y90" t="s">
-        <v>1336</v>
+        <v>1154</v>
       </c>
       <c r="Z90">
         <v>33.4</v>
@@ -14639,7 +14093,7 @@
         <v>92</v>
       </c>
       <c r="Y91" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z91">
         <v>0.2</v>
@@ -14721,8 +14175,8 @@
       <c r="O92">
         <v>0.4</v>
       </c>
-      <c r="P92" t="s">
-        <v>1130</v>
+      <c r="P92">
+        <v>0.35</v>
       </c>
       <c r="Q92">
         <v>134761198946</v>
@@ -14745,11 +14199,11 @@
       <c r="W92">
         <v>12</v>
       </c>
-      <c r="X92" t="s">
-        <v>1129</v>
+      <c r="X92">
+        <v>0.95</v>
       </c>
       <c r="Y92" t="s">
-        <v>1320</v>
+        <v>1138</v>
       </c>
       <c r="Z92">
         <v>14.4</v>
@@ -14837,8 +14291,8 @@
       <c r="O93">
         <v>3.3</v>
       </c>
-      <c r="P93" t="s">
-        <v>1078</v>
+      <c r="P93">
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q93">
         <v>8454619608</v>
@@ -14861,11 +14315,11 @@
       <c r="W93">
         <v>60</v>
       </c>
-      <c r="X93" t="s">
-        <v>1261</v>
+      <c r="X93">
+        <v>0.09</v>
       </c>
       <c r="Y93" t="s">
-        <v>1307</v>
+        <v>1125</v>
       </c>
       <c r="Z93">
         <v>48.2</v>
@@ -14953,8 +14407,8 @@
       <c r="O94">
         <v>82.09999999999999</v>
       </c>
-      <c r="P94" t="s">
-        <v>1076</v>
+      <c r="P94">
+        <v>0.93</v>
       </c>
       <c r="Q94">
         <v>18173839128</v>
@@ -14977,11 +14431,11 @@
       <c r="W94">
         <v>185</v>
       </c>
-      <c r="X94" t="s">
-        <v>1111</v>
+      <c r="X94">
+        <v>0.83</v>
       </c>
       <c r="Y94" t="s">
-        <v>1337</v>
+        <v>1155</v>
       </c>
       <c r="Z94">
         <v>45.4</v>
@@ -15069,8 +14523,8 @@
       <c r="O95">
         <v>54</v>
       </c>
-      <c r="P95" t="s">
-        <v>1131</v>
+      <c r="P95">
+        <v>1.16</v>
       </c>
       <c r="Q95">
         <v>34117202555</v>
@@ -15093,11 +14547,11 @@
       <c r="W95">
         <v>19</v>
       </c>
-      <c r="X95" t="s">
-        <v>1262</v>
+      <c r="X95">
+        <v>2.8</v>
       </c>
       <c r="Y95" t="s">
-        <v>1338</v>
+        <v>1156</v>
       </c>
       <c r="Z95">
         <v>41.6</v>
@@ -15185,8 +14639,8 @@
       <c r="O96">
         <v>13.4</v>
       </c>
-      <c r="P96" t="s">
-        <v>1132</v>
+      <c r="P96">
+        <v>0.74</v>
       </c>
       <c r="Q96">
         <v>53367042272</v>
@@ -15201,7 +14655,7 @@
         <v>6.4</v>
       </c>
       <c r="U96" t="s">
-        <v>1189</v>
+        <v>1088</v>
       </c>
       <c r="V96">
         <v>78.90000000000001</v>
@@ -15209,11 +14663,11 @@
       <c r="W96">
         <v>29</v>
       </c>
-      <c r="X96" t="s">
-        <v>1263</v>
+      <c r="X96">
+        <v>2.15</v>
       </c>
       <c r="Y96" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z96">
         <v>32.1</v>
@@ -15298,8 +14752,8 @@
       <c r="O97">
         <v>1.6</v>
       </c>
-      <c r="P97" t="s">
-        <v>1068</v>
+      <c r="P97">
+        <v>0.7</v>
       </c>
       <c r="Q97">
         <v>2460072444</v>
@@ -15322,11 +14776,11 @@
       <c r="W97">
         <v>544</v>
       </c>
-      <c r="X97" t="s">
-        <v>1260</v>
+      <c r="X97">
+        <v>0.41</v>
       </c>
       <c r="Y97" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z97">
         <v>16.9</v>
@@ -15411,8 +14865,8 @@
       <c r="O98">
         <v>43.1</v>
       </c>
-      <c r="P98" t="s">
-        <v>1133</v>
+      <c r="P98">
+        <v>0.8</v>
       </c>
       <c r="Q98">
         <v>3070518100</v>
@@ -15435,11 +14889,11 @@
       <c r="W98">
         <v>661</v>
       </c>
-      <c r="X98" t="s">
-        <v>1264</v>
+      <c r="X98">
+        <v>0.17</v>
       </c>
       <c r="Y98" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z98">
         <v>19.6</v>
@@ -15524,8 +14978,8 @@
       <c r="O99">
         <v>0.1</v>
       </c>
-      <c r="P99" t="s">
-        <v>1134</v>
+      <c r="P99">
+        <v>0.11</v>
       </c>
       <c r="Q99">
         <v>52076250948</v>
@@ -15545,11 +14999,11 @@
       <c r="W99">
         <v>72</v>
       </c>
-      <c r="X99" t="s">
-        <v>1265</v>
+      <c r="X99">
+        <v>1.88</v>
       </c>
       <c r="Y99" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z99">
         <v>36.7</v>
@@ -15625,8 +15079,8 @@
       <c r="O100">
         <v>43.1</v>
       </c>
-      <c r="P100" t="s">
-        <v>1135</v>
+      <c r="P100">
+        <v>1.74</v>
       </c>
       <c r="Q100">
         <v>6552858739</v>
@@ -15638,13 +15092,13 @@
         <v>35.6</v>
       </c>
       <c r="U100" t="s">
-        <v>1190</v>
+        <v>1089</v>
       </c>
       <c r="V100">
         <v>83</v>
       </c>
       <c r="Y100" t="s">
-        <v>1304</v>
+        <v>1122</v>
       </c>
       <c r="AB100">
         <v>38019</v>
@@ -15717,8 +15171,8 @@
       <c r="O101">
         <v>34.8</v>
       </c>
-      <c r="P101" t="s">
-        <v>1131</v>
+      <c r="P101">
+        <v>1.16</v>
       </c>
       <c r="Q101">
         <v>54219315600</v>
@@ -15741,11 +15195,11 @@
       <c r="W101">
         <v>8</v>
       </c>
-      <c r="X101" t="s">
-        <v>1266</v>
+      <c r="X101">
+        <v>2.41</v>
       </c>
       <c r="Y101" t="s">
-        <v>1339</v>
+        <v>1157</v>
       </c>
       <c r="Z101">
         <v>32.1</v>
@@ -15833,8 +15287,8 @@
       <c r="O102">
         <v>35.7</v>
       </c>
-      <c r="P102" t="s">
-        <v>1136</v>
+      <c r="P102">
+        <v>1.19</v>
       </c>
       <c r="Q102">
         <v>71104919108</v>
@@ -15857,11 +15311,11 @@
       <c r="W102">
         <v>5</v>
       </c>
-      <c r="X102" t="s">
-        <v>1267</v>
+      <c r="X102">
+        <v>13.05</v>
       </c>
       <c r="Y102" t="s">
-        <v>1340</v>
+        <v>1158</v>
       </c>
       <c r="Z102">
         <v>10.6</v>
@@ -15949,8 +15403,8 @@
       <c r="O103">
         <v>21.4</v>
       </c>
-      <c r="P103" t="s">
-        <v>1092</v>
+      <c r="P103">
+        <v>1.11</v>
       </c>
       <c r="Q103">
         <v>14083906357</v>
@@ -15973,11 +15427,11 @@
       <c r="W103">
         <v>335</v>
       </c>
-      <c r="X103" t="s">
-        <v>1268</v>
+      <c r="X103">
+        <v>0.21</v>
       </c>
       <c r="Y103" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z103">
         <v>21.7</v>
@@ -16065,8 +15519,8 @@
       <c r="O104">
         <v>33.2</v>
       </c>
-      <c r="P104" t="s">
-        <v>1137</v>
+      <c r="P104">
+        <v>1.15</v>
       </c>
       <c r="Q104">
         <v>7666704427</v>
@@ -16089,11 +15543,11 @@
       <c r="W104">
         <v>349</v>
       </c>
-      <c r="X104" t="s">
-        <v>1269</v>
+      <c r="X104">
+        <v>0.12</v>
       </c>
       <c r="Y104" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z104">
         <v>11</v>
@@ -16181,8 +15635,8 @@
       <c r="O105">
         <v>67.59999999999999</v>
       </c>
-      <c r="P105" t="s">
-        <v>1138</v>
+      <c r="P105">
+        <v>0.45</v>
       </c>
       <c r="Q105">
         <v>364701517788</v>
@@ -16197,7 +15651,7 @@
         <v>6.7</v>
       </c>
       <c r="U105" t="s">
-        <v>1191</v>
+        <v>1090</v>
       </c>
       <c r="V105">
         <v>76</v>
@@ -16205,11 +15659,11 @@
       <c r="W105">
         <v>29</v>
       </c>
-      <c r="X105" t="s">
-        <v>1076</v>
+      <c r="X105">
+        <v>0.93</v>
       </c>
       <c r="Y105" t="s">
-        <v>1341</v>
+        <v>1159</v>
       </c>
       <c r="Z105">
         <v>36.7</v>
@@ -16294,8 +15748,8 @@
       <c r="O106">
         <v>3.3</v>
       </c>
-      <c r="P106" t="s">
-        <v>1139</v>
+      <c r="P106">
+        <v>1.63</v>
       </c>
       <c r="Q106">
         <v>5729248472</v>
@@ -16319,7 +15773,7 @@
         <v>53</v>
       </c>
       <c r="Y106" t="s">
-        <v>1342</v>
+        <v>1160</v>
       </c>
       <c r="Z106">
         <v>16.4</v>
@@ -16407,8 +15861,8 @@
       <c r="O107">
         <v>3.8</v>
       </c>
-      <c r="P107" t="s">
-        <v>1081</v>
+      <c r="P107">
+        <v>1.12</v>
       </c>
       <c r="Q107">
         <v>17510141171</v>
@@ -16431,11 +15885,11 @@
       <c r="W107">
         <v>562</v>
       </c>
-      <c r="X107" t="s">
-        <v>1270</v>
+      <c r="X107">
+        <v>0.23</v>
       </c>
       <c r="Y107" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z107">
         <v>46.3</v>
@@ -16523,8 +15977,8 @@
       <c r="O108">
         <v>1.1</v>
       </c>
-      <c r="P108" t="s">
-        <v>1069</v>
+      <c r="P108">
+        <v>1.36</v>
       </c>
       <c r="Q108">
         <v>14786156563</v>
@@ -16539,7 +15993,7 @@
         <v>6.1</v>
       </c>
       <c r="U108" t="s">
-        <v>1192</v>
+        <v>1091</v>
       </c>
       <c r="V108">
         <v>82.3</v>
@@ -16547,11 +16001,11 @@
       <c r="W108">
         <v>6</v>
       </c>
-      <c r="X108" t="s">
-        <v>1271</v>
+      <c r="X108">
+        <v>5.07</v>
       </c>
       <c r="Y108" t="s">
-        <v>1343</v>
+        <v>1161</v>
       </c>
       <c r="Z108">
         <v>37.1</v>
@@ -16630,8 +16084,8 @@
       <c r="O109">
         <v>70.2</v>
       </c>
-      <c r="P109" t="s">
-        <v>1140</v>
+      <c r="P109">
+        <v>1.44</v>
       </c>
       <c r="Q109">
         <v>221278000</v>
@@ -16651,11 +16105,11 @@
       <c r="V109">
         <v>65.2</v>
       </c>
-      <c r="X109" t="s">
-        <v>1112</v>
+      <c r="X109">
+        <v>2</v>
       </c>
       <c r="Y109" t="s">
-        <v>1344</v>
+        <v>1162</v>
       </c>
       <c r="Z109">
         <v>10</v>
@@ -16737,8 +16191,8 @@
       <c r="O110">
         <v>0.2</v>
       </c>
-      <c r="P110" t="s">
-        <v>1085</v>
+      <c r="P110">
+        <v>1.13</v>
       </c>
       <c r="Q110">
         <v>7593752450</v>
@@ -16761,11 +16215,11 @@
       <c r="W110">
         <v>766</v>
       </c>
-      <c r="X110" t="s">
-        <v>1272</v>
+      <c r="X110">
+        <v>0.53</v>
       </c>
       <c r="Y110" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z110">
         <v>48.2</v>
@@ -16850,8 +16304,8 @@
       <c r="O111">
         <v>19</v>
       </c>
-      <c r="P111" t="s">
-        <v>1081</v>
+      <c r="P111">
+        <v>1.12</v>
       </c>
       <c r="Q111">
         <v>14180444557</v>
@@ -16874,11 +16328,11 @@
       <c r="W111">
         <v>61</v>
       </c>
-      <c r="X111" t="s">
-        <v>1273</v>
+      <c r="X111">
+        <v>0.38</v>
       </c>
       <c r="Y111" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z111">
         <v>50.7</v>
@@ -16966,8 +16420,8 @@
       <c r="O112">
         <v>33.9</v>
       </c>
-      <c r="P112" t="s">
-        <v>1141</v>
+      <c r="P112">
+        <v>0.73</v>
       </c>
       <c r="Q112">
         <v>1258286717125</v>
@@ -16990,8 +16444,8 @@
       <c r="W112">
         <v>33</v>
       </c>
-      <c r="X112" t="s">
-        <v>1163</v>
+      <c r="X112">
+        <v>0.49</v>
       </c>
       <c r="Z112">
         <v>41.4</v>
@@ -17098,7 +16552,7 @@
         <v>88</v>
       </c>
       <c r="Y113" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z113">
         <v>2.5</v>
@@ -17180,8 +16634,8 @@
       <c r="O114">
         <v>12.6</v>
       </c>
-      <c r="P114" t="s">
-        <v>1133</v>
+      <c r="P114">
+        <v>0.8</v>
       </c>
       <c r="Q114">
         <v>11955435457</v>
@@ -17204,11 +16658,11 @@
       <c r="W114">
         <v>19</v>
       </c>
-      <c r="X114" t="s">
-        <v>1274</v>
+      <c r="X114">
+        <v>0.31</v>
       </c>
       <c r="Y114" t="s">
-        <v>1345</v>
+        <v>1163</v>
       </c>
       <c r="Z114">
         <v>46.2</v>
@@ -17275,8 +16729,8 @@
       <c r="M115" t="s">
         <v>939</v>
       </c>
-      <c r="P115" t="s">
-        <v>1112</v>
+      <c r="P115">
+        <v>2</v>
       </c>
       <c r="Q115">
         <v>7184844193</v>
@@ -17287,11 +16741,11 @@
       <c r="U115" t="s">
         <v>857</v>
       </c>
-      <c r="X115" t="s">
-        <v>1275</v>
+      <c r="X115">
+        <v>11.72</v>
       </c>
       <c r="Y115" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z115">
         <v>6.1</v>
@@ -17364,8 +16818,8 @@
       <c r="O116">
         <v>8</v>
       </c>
-      <c r="P116" t="s">
-        <v>1086</v>
+      <c r="P116">
+        <v>0.72</v>
       </c>
       <c r="Q116">
         <v>13852850259</v>
@@ -17388,11 +16842,11 @@
       <c r="W116">
         <v>45</v>
       </c>
-      <c r="X116" t="s">
-        <v>1142</v>
+      <c r="X116">
+        <v>0.65</v>
       </c>
       <c r="Y116" t="s">
-        <v>1346</v>
+        <v>1164</v>
       </c>
       <c r="Z116">
         <v>39.3</v>
@@ -17480,8 +16934,8 @@
       <c r="O117">
         <v>61.5</v>
       </c>
-      <c r="P117" t="s">
-        <v>1131</v>
+      <c r="P117">
+        <v>1.16</v>
       </c>
       <c r="Q117">
         <v>5494736901</v>
@@ -17504,11 +16958,11 @@
       <c r="W117">
         <v>6</v>
       </c>
-      <c r="X117" t="s">
-        <v>1103</v>
+      <c r="X117">
+        <v>1.23</v>
       </c>
       <c r="Y117" t="s">
-        <v>1347</v>
+        <v>1165</v>
       </c>
       <c r="Z117">
         <v>31.8</v>
@@ -17593,8 +17047,8 @@
       <c r="O118">
         <v>12.6</v>
       </c>
-      <c r="P118" t="s">
-        <v>1073</v>
+      <c r="P118">
+        <v>0.99</v>
       </c>
       <c r="Q118">
         <v>118725279596</v>
@@ -17609,7 +17063,7 @@
         <v>19.2</v>
       </c>
       <c r="U118" t="s">
-        <v>1193</v>
+        <v>1092</v>
       </c>
       <c r="V118">
         <v>76.5</v>
@@ -17617,11 +17071,11 @@
       <c r="W118">
         <v>70</v>
       </c>
-      <c r="X118" t="s">
-        <v>1247</v>
+      <c r="X118">
+        <v>1.6</v>
       </c>
       <c r="Y118" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z118">
         <v>53.1</v>
@@ -17709,8 +17163,8 @@
       <c r="O119">
         <v>48</v>
       </c>
-      <c r="P119" t="s">
-        <v>1142</v>
+      <c r="P119">
+        <v>0.65</v>
       </c>
       <c r="Q119">
         <v>14934159926</v>
@@ -17733,11 +17187,11 @@
       <c r="W119">
         <v>289</v>
       </c>
-      <c r="X119" t="s">
-        <v>1245</v>
+      <c r="X119">
+        <v>0.27</v>
       </c>
       <c r="Y119" t="s">
-        <v>1300</v>
+        <v>1118</v>
       </c>
       <c r="Z119">
         <v>6.8</v>
@@ -17825,8 +17279,8 @@
       <c r="O120">
         <v>43.6</v>
       </c>
-      <c r="P120" t="s">
-        <v>1143</v>
+      <c r="P120">
+        <v>0.54</v>
       </c>
       <c r="Q120">
         <v>76085852617</v>
@@ -17841,7 +17295,7 @@
         <v>36.8</v>
       </c>
       <c r="U120" t="s">
-        <v>1194</v>
+        <v>1093</v>
       </c>
       <c r="V120">
         <v>66.90000000000001</v>
@@ -17849,11 +17303,11 @@
       <c r="W120">
         <v>250</v>
       </c>
-      <c r="X120" t="s">
-        <v>1226</v>
+      <c r="X120">
+        <v>0.39</v>
       </c>
       <c r="Y120" t="s">
-        <v>1348</v>
+        <v>1166</v>
       </c>
       <c r="Z120">
         <v>73.90000000000001</v>
@@ -17935,8 +17389,8 @@
       <c r="O121">
         <v>8.300000000000001</v>
       </c>
-      <c r="P121" t="s">
-        <v>1119</v>
+      <c r="P121">
+        <v>0.76</v>
       </c>
       <c r="Q121">
         <v>12366527719</v>
@@ -17960,7 +17414,7 @@
         <v>195</v>
       </c>
       <c r="Y121" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z121">
         <v>8.300000000000001</v>
@@ -18028,7 +17482,7 @@
         <v>133000000</v>
       </c>
       <c r="Y122" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="AB122">
         <v>10084</v>
@@ -18092,8 +17546,8 @@
       <c r="O123">
         <v>25.4</v>
       </c>
-      <c r="P123" t="s">
-        <v>1144</v>
+      <c r="P123">
+        <v>0.91</v>
       </c>
       <c r="Q123">
         <v>30641380604</v>
@@ -18116,11 +17570,11 @@
       <c r="W123">
         <v>186</v>
       </c>
-      <c r="X123" t="s">
-        <v>1230</v>
+      <c r="X123">
+        <v>0.36</v>
       </c>
       <c r="Y123" t="s">
-        <v>1349</v>
+        <v>1167</v>
       </c>
       <c r="Z123">
         <v>60.4</v>
@@ -18205,8 +17659,8 @@
       <c r="O124">
         <v>11.2</v>
       </c>
-      <c r="P124" t="s">
-        <v>1145</v>
+      <c r="P124">
+        <v>1.68</v>
       </c>
       <c r="Q124">
         <v>909070395161</v>
@@ -18229,11 +17683,11 @@
       <c r="W124">
         <v>5</v>
       </c>
-      <c r="X124" t="s">
-        <v>1276</v>
+      <c r="X124">
+        <v>10.29</v>
       </c>
       <c r="Y124" t="s">
-        <v>1350</v>
+        <v>1168</v>
       </c>
       <c r="Z124">
         <v>12.3</v>
@@ -18321,8 +17775,8 @@
       <c r="O125">
         <v>38.6</v>
       </c>
-      <c r="P125" t="s">
-        <v>1102</v>
+      <c r="P125">
+        <v>1.4</v>
       </c>
       <c r="Q125">
         <v>206928765544</v>
@@ -18337,7 +17791,7 @@
         <v>4.7</v>
       </c>
       <c r="U125" t="s">
-        <v>1195</v>
+        <v>1094</v>
       </c>
       <c r="V125">
         <v>81.90000000000001</v>
@@ -18345,11 +17799,11 @@
       <c r="W125">
         <v>9</v>
       </c>
-      <c r="X125" t="s">
-        <v>1277</v>
+      <c r="X125">
+        <v>11.49</v>
       </c>
       <c r="Y125" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z125">
         <v>12.6</v>
@@ -18437,8 +17891,8 @@
       <c r="O126">
         <v>25.9</v>
       </c>
-      <c r="P126" t="s">
-        <v>1144</v>
+      <c r="P126">
+        <v>0.91</v>
       </c>
       <c r="Q126">
         <v>12520915291</v>
@@ -18461,11 +17915,11 @@
       <c r="W126">
         <v>98</v>
       </c>
-      <c r="X126" t="s">
-        <v>1143</v>
+      <c r="X126">
+        <v>0.54</v>
       </c>
       <c r="Y126" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z126">
         <v>36</v>
@@ -18553,8 +18007,8 @@
       <c r="O127">
         <v>0.9</v>
       </c>
-      <c r="P127" t="s">
-        <v>1146</v>
+      <c r="P127">
+        <v>0.88</v>
       </c>
       <c r="Q127">
         <v>12928145120</v>
@@ -18577,11 +18031,11 @@
       <c r="W127">
         <v>509</v>
       </c>
-      <c r="X127" t="s">
-        <v>1161</v>
+      <c r="X127">
+        <v>0.29</v>
       </c>
       <c r="Y127" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z127">
         <v>52.3</v>
@@ -18669,8 +18123,8 @@
       <c r="O128">
         <v>7.2</v>
       </c>
-      <c r="P128" t="s">
-        <v>1147</v>
+      <c r="P128">
+        <v>0.46</v>
       </c>
       <c r="Q128">
         <v>448120428859</v>
@@ -18685,7 +18139,7 @@
         <v>75.7</v>
       </c>
       <c r="U128" t="s">
-        <v>1196</v>
+        <v>1095</v>
       </c>
       <c r="V128">
         <v>54.3</v>
@@ -18693,11 +18147,11 @@
       <c r="W128">
         <v>917</v>
       </c>
-      <c r="X128" t="s">
-        <v>1143</v>
+      <c r="X128">
+        <v>0.54</v>
       </c>
       <c r="Y128" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z128">
         <v>72.2</v>
@@ -18779,8 +18233,8 @@
       <c r="O129">
         <v>40.7</v>
       </c>
-      <c r="P129" t="s">
-        <v>1148</v>
+      <c r="P129">
+        <v>0.58</v>
       </c>
       <c r="Q129">
         <v>32100000000</v>
@@ -18804,7 +18258,7 @@
         <v>89</v>
       </c>
       <c r="Y129" t="s">
-        <v>1351</v>
+        <v>1169</v>
       </c>
       <c r="AA129">
         <v>3.67</v>
@@ -18863,7 +18317,7 @@
         <v>872</v>
       </c>
       <c r="Y130" t="s">
-        <v>1352</v>
+        <v>1170</v>
       </c>
       <c r="Z130">
         <v>35.6</v>
@@ -18930,8 +18384,8 @@
       <c r="O131">
         <v>33.2</v>
       </c>
-      <c r="P131" t="s">
-        <v>1149</v>
+      <c r="P131">
+        <v>1.78</v>
       </c>
       <c r="Q131">
         <v>403336363636</v>
@@ -18955,7 +18409,7 @@
         <v>2</v>
       </c>
       <c r="Y131" t="s">
-        <v>1353</v>
+        <v>1171</v>
       </c>
       <c r="Z131">
         <v>14.3</v>
@@ -19043,8 +18497,8 @@
       <c r="O132">
         <v>0</v>
       </c>
-      <c r="P132" t="s">
-        <v>1138</v>
+      <c r="P132">
+        <v>0.45</v>
       </c>
       <c r="Q132">
         <v>76983094928</v>
@@ -19059,7 +18513,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="U132" t="s">
-        <v>1197</v>
+        <v>1096</v>
       </c>
       <c r="V132">
         <v>77.59999999999999</v>
@@ -19067,11 +18521,11 @@
       <c r="W132">
         <v>19</v>
       </c>
-      <c r="X132" t="s">
-        <v>1278</v>
+      <c r="X132">
+        <v>4.33</v>
       </c>
       <c r="Y132" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z132">
         <v>6.4</v>
@@ -19159,8 +18613,8 @@
       <c r="O133">
         <v>1.9</v>
       </c>
-      <c r="P133" t="s">
-        <v>1121</v>
+      <c r="P133">
+        <v>0.79</v>
       </c>
       <c r="Q133">
         <v>304400000000</v>
@@ -19175,7 +18629,7 @@
         <v>57.2</v>
       </c>
       <c r="U133" t="s">
-        <v>1198</v>
+        <v>1097</v>
       </c>
       <c r="V133">
         <v>67.09999999999999</v>
@@ -19183,11 +18637,11 @@
       <c r="W133">
         <v>140</v>
       </c>
-      <c r="X133" t="s">
-        <v>1279</v>
+      <c r="X133">
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y133" t="s">
-        <v>1354</v>
+        <v>1172</v>
       </c>
       <c r="Z133">
         <v>66.5</v>
@@ -19285,16 +18739,16 @@
         <v>16.6</v>
       </c>
       <c r="U134" t="s">
-        <v>1199</v>
+        <v>1098</v>
       </c>
       <c r="V134">
         <v>69.09999999999999</v>
       </c>
-      <c r="X134" t="s">
-        <v>1235</v>
+      <c r="X134">
+        <v>3</v>
       </c>
       <c r="Y134" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z134">
         <v>21.8</v>
@@ -19338,7 +18792,7 @@
         <v>338</v>
       </c>
       <c r="Y135" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="AH135">
         <v>31.952162</v>
@@ -19393,8 +18847,8 @@
       <c r="O136">
         <v>61.9</v>
       </c>
-      <c r="P136" t="s">
-        <v>1132</v>
+      <c r="P136">
+        <v>0.74</v>
       </c>
       <c r="Q136">
         <v>66800800000</v>
@@ -19417,11 +18871,11 @@
       <c r="W136">
         <v>52</v>
       </c>
-      <c r="X136" t="s">
-        <v>1228</v>
+      <c r="X136">
+        <v>1.53</v>
       </c>
       <c r="Y136" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z136">
         <v>30.5</v>
@@ -19506,8 +18960,8 @@
       <c r="O137">
         <v>74.09999999999999</v>
       </c>
-      <c r="P137" t="s">
-        <v>1069</v>
+      <c r="P137">
+        <v>1.36</v>
       </c>
       <c r="Q137">
         <v>24969611435</v>
@@ -19530,11 +18984,11 @@
       <c r="W137">
         <v>145</v>
       </c>
-      <c r="X137" t="s">
-        <v>1131</v>
+      <c r="X137">
+        <v>1.16</v>
       </c>
       <c r="Y137" t="s">
-        <v>1355</v>
+        <v>1173</v>
       </c>
       <c r="Z137">
         <v>5.8</v>
@@ -19622,8 +19076,8 @@
       <c r="O138">
         <v>37.7</v>
       </c>
-      <c r="P138" t="s">
-        <v>1150</v>
+      <c r="P138">
+        <v>1.04</v>
       </c>
       <c r="Q138">
         <v>38145288940</v>
@@ -19638,7 +19092,7 @@
         <v>17.2</v>
       </c>
       <c r="U138" t="s">
-        <v>1200</v>
+        <v>1099</v>
       </c>
       <c r="V138">
         <v>74.09999999999999</v>
@@ -19646,11 +19100,11 @@
       <c r="W138">
         <v>129</v>
       </c>
-      <c r="X138" t="s">
-        <v>1106</v>
+      <c r="X138">
+        <v>1.55</v>
       </c>
       <c r="Y138" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z138">
         <v>36.5</v>
@@ -19738,8 +19192,8 @@
       <c r="O139">
         <v>57.7</v>
       </c>
-      <c r="P139" t="s">
-        <v>1073</v>
+      <c r="P139">
+        <v>0.99</v>
       </c>
       <c r="Q139">
         <v>226848050820</v>
@@ -19762,11 +19216,11 @@
       <c r="W139">
         <v>88</v>
       </c>
-      <c r="X139" t="s">
-        <v>1241</v>
+      <c r="X139">
+        <v>1.28</v>
       </c>
       <c r="Y139" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z139">
         <v>30.9</v>
@@ -19854,8 +19308,8 @@
       <c r="O140">
         <v>27.8</v>
       </c>
-      <c r="P140" t="s">
-        <v>1151</v>
+      <c r="P140">
+        <v>0.86</v>
       </c>
       <c r="Q140">
         <v>376795508680</v>
@@ -19878,11 +19332,11 @@
       <c r="W140">
         <v>121</v>
       </c>
-      <c r="X140" t="s">
-        <v>1081</v>
+      <c r="X140">
+        <v>1.12</v>
       </c>
       <c r="Y140" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z140">
         <v>53.5</v>
@@ -19970,8 +19424,8 @@
       <c r="O141">
         <v>30.9</v>
       </c>
-      <c r="P141" t="s">
-        <v>1108</v>
+      <c r="P141">
+        <v>1.07</v>
       </c>
       <c r="Q141">
         <v>592164400688</v>
@@ -19994,11 +19448,11 @@
       <c r="W141">
         <v>2</v>
       </c>
-      <c r="X141" t="s">
-        <v>1280</v>
+      <c r="X141">
+        <v>2.93</v>
       </c>
       <c r="Y141" t="s">
-        <v>1356</v>
+        <v>1174</v>
       </c>
       <c r="Z141">
         <v>23.2</v>
@@ -20086,8 +19540,8 @@
       <c r="O142">
         <v>34.6</v>
       </c>
-      <c r="P142" t="s">
-        <v>1120</v>
+      <c r="P142">
+        <v>1.54</v>
       </c>
       <c r="Q142">
         <v>237686075635</v>
@@ -20110,11 +19564,11 @@
       <c r="W142">
         <v>8</v>
       </c>
-      <c r="X142" t="s">
-        <v>1281</v>
+      <c r="X142">
+        <v>3.78</v>
       </c>
       <c r="Y142" t="s">
-        <v>1300</v>
+        <v>1118</v>
       </c>
       <c r="Z142">
         <v>27.7</v>
@@ -20202,8 +19656,8 @@
       <c r="O143">
         <v>0</v>
       </c>
-      <c r="P143" t="s">
-        <v>1110</v>
+      <c r="P143">
+        <v>0.4</v>
       </c>
       <c r="Q143">
         <v>183466208791</v>
@@ -20227,7 +19681,7 @@
         <v>9</v>
       </c>
       <c r="Y143" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z143">
         <v>6.2</v>
@@ -20315,8 +19769,8 @@
       <c r="O144">
         <v>30.1</v>
       </c>
-      <c r="P144" t="s">
-        <v>1131</v>
+      <c r="P144">
+        <v>1.16</v>
       </c>
       <c r="Q144">
         <v>250077444017</v>
@@ -20339,11 +19793,11 @@
       <c r="W144">
         <v>19</v>
       </c>
-      <c r="X144" t="s">
-        <v>1282</v>
+      <c r="X144">
+        <v>2.25</v>
       </c>
       <c r="Y144" t="s">
-        <v>1345</v>
+        <v>1163</v>
       </c>
       <c r="Z144">
         <v>21.3</v>
@@ -20431,8 +19885,8 @@
       <c r="O145">
         <v>49.8</v>
       </c>
-      <c r="P145" t="s">
-        <v>1152</v>
+      <c r="P145">
+        <v>0.59</v>
       </c>
       <c r="Q145">
         <v>1699876578871</v>
@@ -20455,11 +19909,11 @@
       <c r="W145">
         <v>17</v>
       </c>
-      <c r="X145" t="s">
-        <v>1272</v>
+      <c r="X145">
+        <v>0.53</v>
       </c>
       <c r="Y145" t="s">
-        <v>1307</v>
+        <v>1125</v>
       </c>
       <c r="Z145">
         <v>36.4</v>
@@ -20547,8 +20001,8 @@
       <c r="O146">
         <v>19.7</v>
       </c>
-      <c r="P146" t="s">
-        <v>1104</v>
+      <c r="P146">
+        <v>1.17</v>
       </c>
       <c r="Q146">
         <v>10122472590</v>
@@ -20572,7 +20026,7 @@
         <v>248</v>
       </c>
       <c r="Y146" t="s">
-        <v>1336</v>
+        <v>1154</v>
       </c>
       <c r="Z146">
         <v>26</v>
@@ -20675,11 +20129,11 @@
       <c r="V147">
         <v>71.3</v>
       </c>
-      <c r="X147" t="s">
-        <v>1283</v>
+      <c r="X147">
+        <v>3.33</v>
       </c>
       <c r="Y147" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z147">
         <v>56.6</v>
@@ -20758,8 +20212,8 @@
       <c r="O148">
         <v>33.2</v>
       </c>
-      <c r="P148" t="s">
-        <v>1153</v>
+      <c r="P148">
+        <v>1.3</v>
       </c>
       <c r="Q148">
         <v>2122450630</v>
@@ -20783,7 +20237,7 @@
         <v>117</v>
       </c>
       <c r="Y148" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z148">
         <v>48.4</v>
@@ -20881,7 +20335,7 @@
         <v>14.8</v>
       </c>
       <c r="U149" t="s">
-        <v>1201</v>
+        <v>1100</v>
       </c>
       <c r="V149">
         <v>72.40000000000001</v>
@@ -20889,11 +20343,11 @@
       <c r="W149">
         <v>68</v>
       </c>
-      <c r="X149" t="s">
-        <v>1131</v>
+      <c r="X149">
+        <v>1.16</v>
       </c>
       <c r="Y149" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z149">
         <v>21.4</v>
@@ -20978,8 +20432,8 @@
       <c r="O150">
         <v>60.4</v>
       </c>
-      <c r="P150" t="s">
-        <v>1144</v>
+      <c r="P150">
+        <v>0.91</v>
       </c>
       <c r="Q150">
         <v>850655017</v>
@@ -21002,11 +20456,11 @@
       <c r="W150">
         <v>43</v>
       </c>
-      <c r="X150" t="s">
-        <v>1098</v>
+      <c r="X150">
+        <v>0.78</v>
       </c>
       <c r="Y150" t="s">
-        <v>1357</v>
+        <v>1175</v>
       </c>
       <c r="Z150">
         <v>11.5</v>
@@ -21107,7 +20561,7 @@
         <v>85.40000000000001</v>
       </c>
       <c r="Y151" t="s">
-        <v>1327</v>
+        <v>1145</v>
       </c>
       <c r="Z151">
         <v>18.3</v>
@@ -21186,8 +20640,8 @@
       <c r="O153">
         <v>0.5</v>
       </c>
-      <c r="P153" t="s">
-        <v>1154</v>
+      <c r="P153">
+        <v>0.24</v>
       </c>
       <c r="Q153">
         <v>792966838162</v>
@@ -21210,11 +20664,11 @@
       <c r="W153">
         <v>17</v>
       </c>
-      <c r="X153" t="s">
-        <v>1284</v>
+      <c r="X153">
+        <v>3.85</v>
       </c>
       <c r="Y153" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z153">
         <v>15</v>
@@ -21302,8 +20756,8 @@
       <c r="O154">
         <v>42.8</v>
       </c>
-      <c r="P154" t="s">
-        <v>1113</v>
+      <c r="P154">
+        <v>1.14</v>
       </c>
       <c r="Q154">
         <v>23578084052</v>
@@ -21318,7 +20772,7 @@
         <v>31.8</v>
       </c>
       <c r="U154" t="s">
-        <v>1202</v>
+        <v>1101</v>
       </c>
       <c r="V154">
         <v>67.7</v>
@@ -21326,11 +20780,11 @@
       <c r="W154">
         <v>315</v>
       </c>
-      <c r="X154" t="s">
-        <v>1274</v>
+      <c r="X154">
+        <v>0.31</v>
       </c>
       <c r="Y154" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z154">
         <v>44.2</v>
@@ -21418,8 +20872,8 @@
       <c r="O155">
         <v>31.1</v>
       </c>
-      <c r="P155" t="s">
-        <v>1131</v>
+      <c r="P155">
+        <v>1.16</v>
       </c>
       <c r="Q155">
         <v>51409167351</v>
@@ -21442,11 +20896,11 @@
       <c r="W155">
         <v>12</v>
       </c>
-      <c r="X155" t="s">
-        <v>1125</v>
+      <c r="X155">
+        <v>1.57</v>
       </c>
       <c r="Y155" t="s">
-        <v>1358</v>
+        <v>1176</v>
       </c>
       <c r="Z155">
         <v>40.6</v>
@@ -21555,11 +21009,11 @@
       <c r="W156">
         <v>53</v>
       </c>
-      <c r="X156" t="s">
-        <v>1112</v>
+      <c r="X156">
+        <v>2</v>
       </c>
       <c r="Y156" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z156">
         <v>2.5</v>
@@ -21641,8 +21095,8 @@
       <c r="O157">
         <v>43.1</v>
       </c>
-      <c r="P157" t="s">
-        <v>1155</v>
+      <c r="P157">
+        <v>1.08</v>
       </c>
       <c r="Q157">
         <v>3941474311</v>
@@ -21665,11 +21119,11 @@
       <c r="W157">
         <v>1120</v>
       </c>
-      <c r="X157" t="s">
-        <v>1285</v>
+      <c r="X157">
+        <v>0.57</v>
       </c>
       <c r="Y157" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z157">
         <v>38.2</v>
@@ -21754,8 +21208,8 @@
       <c r="O158">
         <v>23.1</v>
       </c>
-      <c r="P158" t="s">
-        <v>1156</v>
+      <c r="P158">
+        <v>1.25</v>
       </c>
       <c r="Q158">
         <v>372062527489</v>
@@ -21776,7 +21230,7 @@
         <v>8</v>
       </c>
       <c r="Y158" t="s">
-        <v>1311</v>
+        <v>1129</v>
       </c>
       <c r="Z158">
         <v>36.7</v>
@@ -21864,8 +21318,8 @@
       <c r="O159">
         <v>40.4</v>
       </c>
-      <c r="P159" t="s">
-        <v>1107</v>
+      <c r="P159">
+        <v>1.32</v>
       </c>
       <c r="Q159">
         <v>105422304976</v>
@@ -21888,11 +21342,11 @@
       <c r="W159">
         <v>5</v>
       </c>
-      <c r="X159" t="s">
-        <v>1286</v>
+      <c r="X159">
+        <v>3.11</v>
       </c>
       <c r="Y159" t="s">
-        <v>1359</v>
+        <v>1177</v>
       </c>
       <c r="Z159">
         <v>18.4</v>
@@ -21980,8 +21434,8 @@
       <c r="O160">
         <v>62</v>
       </c>
-      <c r="P160" t="s">
-        <v>1107</v>
+      <c r="P160">
+        <v>1.32</v>
       </c>
       <c r="Q160">
         <v>53742159517</v>
@@ -22004,11 +21458,11 @@
       <c r="W160">
         <v>7</v>
       </c>
-      <c r="X160" t="s">
-        <v>1221</v>
+      <c r="X160">
+        <v>5.25</v>
       </c>
       <c r="Y160" t="s">
-        <v>1360</v>
+        <v>1178</v>
       </c>
       <c r="Z160">
         <v>12.5</v>
@@ -22111,11 +21565,11 @@
       <c r="W161">
         <v>104</v>
       </c>
-      <c r="X161" t="s">
-        <v>1110</v>
+      <c r="X161">
+        <v>0.4</v>
       </c>
       <c r="Y161" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z161">
         <v>3.3</v>
@@ -22197,8 +21651,8 @@
       <c r="O162">
         <v>10</v>
       </c>
-      <c r="P162" t="s">
-        <v>1097</v>
+      <c r="P162">
+        <v>1.41</v>
       </c>
       <c r="Q162">
         <v>4720727278</v>
@@ -22213,7 +21667,7 @@
         <v>76.59999999999999</v>
       </c>
       <c r="U162" t="s">
-        <v>1203</v>
+        <v>1102</v>
       </c>
       <c r="V162">
         <v>57.1</v>
@@ -22222,7 +21676,7 @@
         <v>829</v>
       </c>
       <c r="Y162" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="AA162">
         <v>0.02</v>
@@ -22304,8 +21758,8 @@
       <c r="O163">
         <v>7.6</v>
       </c>
-      <c r="P163" t="s">
-        <v>1079</v>
+      <c r="P163">
+        <v>0.92</v>
       </c>
       <c r="Q163">
         <v>351431649241</v>
@@ -22320,7 +21774,7 @@
         <v>28.5</v>
       </c>
       <c r="U163" t="s">
-        <v>1204</v>
+        <v>1103</v>
       </c>
       <c r="V163">
         <v>63.9</v>
@@ -22329,7 +21783,7 @@
         <v>119</v>
       </c>
       <c r="Y163" t="s">
-        <v>1361</v>
+        <v>1179</v>
       </c>
       <c r="Z163">
         <v>7.7</v>
@@ -22417,8 +21871,8 @@
       <c r="O164">
         <v>63.4</v>
       </c>
-      <c r="P164" t="s">
-        <v>1157</v>
+      <c r="P164">
+        <v>1.22</v>
       </c>
       <c r="Q164">
         <v>2029000000000</v>
@@ -22441,11 +21895,11 @@
       <c r="W164">
         <v>11</v>
       </c>
-      <c r="X164" t="s">
-        <v>1287</v>
+      <c r="X164">
+        <v>6.49</v>
       </c>
       <c r="Y164" t="s">
-        <v>1351</v>
+        <v>1169</v>
       </c>
       <c r="Z164">
         <v>36.8</v>
@@ -22527,8 +21981,8 @@
       <c r="N165">
         <v>4.7</v>
       </c>
-      <c r="P165" t="s">
-        <v>1070</v>
+      <c r="P165">
+        <v>0.28</v>
       </c>
       <c r="Q165">
         <v>11997800751</v>
@@ -22549,7 +22003,7 @@
         <v>1150</v>
       </c>
       <c r="Y165" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z165">
         <v>61.3</v>
@@ -22631,8 +22085,8 @@
       <c r="O166">
         <v>36.9</v>
       </c>
-      <c r="P166" t="s">
-        <v>1101</v>
+      <c r="P166">
+        <v>1.26</v>
       </c>
       <c r="Q166">
         <v>1394116310769</v>
@@ -22655,11 +22109,11 @@
       <c r="W166">
         <v>4</v>
       </c>
-      <c r="X166" t="s">
-        <v>1288</v>
+      <c r="X166">
+        <v>5.6</v>
       </c>
       <c r="Y166" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z166">
         <v>24.2</v>
@@ -22747,8 +22201,8 @@
       <c r="O167">
         <v>32.9</v>
       </c>
-      <c r="P167" t="s">
-        <v>1146</v>
+      <c r="P167">
+        <v>0.88</v>
       </c>
       <c r="Q167">
         <v>84008783756</v>
@@ -22771,11 +22225,11 @@
       <c r="W167">
         <v>36</v>
       </c>
-      <c r="X167" t="s">
-        <v>1130</v>
+      <c r="X167">
+        <v>0.35</v>
       </c>
       <c r="Y167" t="s">
-        <v>1362</v>
+        <v>1180</v>
       </c>
       <c r="Z167">
         <v>38.4</v>
@@ -22863,8 +22317,8 @@
       <c r="O168">
         <v>8.1</v>
       </c>
-      <c r="P168" t="s">
-        <v>1129</v>
+      <c r="P168">
+        <v>0.95</v>
       </c>
       <c r="Q168">
         <v>18902284476</v>
@@ -22879,7 +22333,7 @@
         <v>42.1</v>
       </c>
       <c r="U168" t="s">
-        <v>1205</v>
+        <v>1104</v>
       </c>
       <c r="V168">
         <v>65.09999999999999</v>
@@ -22887,11 +22341,11 @@
       <c r="W168">
         <v>295</v>
       </c>
-      <c r="X168" t="s">
-        <v>1260</v>
+      <c r="X168">
+        <v>0.41</v>
       </c>
       <c r="Y168" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z168">
         <v>63.2</v>
@@ -22979,8 +22433,8 @@
       <c r="O169">
         <v>98.3</v>
       </c>
-      <c r="P169" t="s">
-        <v>1158</v>
+      <c r="P169">
+        <v>1.29</v>
       </c>
       <c r="Q169">
         <v>3985250737</v>
@@ -23004,7 +22458,7 @@
         <v>120</v>
       </c>
       <c r="Y169" t="s">
-        <v>1350</v>
+        <v>1168</v>
       </c>
       <c r="Z169">
         <v>10.1</v>
@@ -23092,8 +22546,8 @@
       <c r="O170">
         <v>68.90000000000001</v>
       </c>
-      <c r="P170" t="s">
-        <v>1159</v>
+      <c r="P170">
+        <v>1.42</v>
       </c>
       <c r="Q170">
         <v>530832908738</v>
@@ -23108,7 +22562,7 @@
         <v>2.2</v>
       </c>
       <c r="U170" t="s">
-        <v>1206</v>
+        <v>1105</v>
       </c>
       <c r="V170">
         <v>82.5</v>
@@ -23117,7 +22571,7 @@
         <v>4</v>
       </c>
       <c r="Y170" t="s">
-        <v>1325</v>
+        <v>1143</v>
       </c>
       <c r="Z170">
         <v>15.2</v>
@@ -23205,8 +22659,8 @@
       <c r="O171">
         <v>31.8</v>
       </c>
-      <c r="P171" t="s">
-        <v>1116</v>
+      <c r="P171">
+        <v>1.45</v>
       </c>
       <c r="Q171">
         <v>703082435360</v>
@@ -23221,7 +22675,7 @@
         <v>3.7</v>
       </c>
       <c r="U171" t="s">
-        <v>1207</v>
+        <v>1106</v>
       </c>
       <c r="V171">
         <v>83.59999999999999</v>
@@ -23230,7 +22684,7 @@
         <v>5</v>
       </c>
       <c r="Y171" t="s">
-        <v>1304</v>
+        <v>1122</v>
       </c>
       <c r="Z171">
         <v>28.3</v>
@@ -23318,8 +22772,8 @@
       <c r="O172">
         <v>2.7</v>
       </c>
-      <c r="P172" t="s">
-        <v>1111</v>
+      <c r="P172">
+        <v>0.83</v>
       </c>
       <c r="Q172">
         <v>40405006007</v>
@@ -23342,11 +22796,11 @@
       <c r="W172">
         <v>31</v>
       </c>
-      <c r="X172" t="s">
-        <v>1090</v>
+      <c r="X172">
+        <v>1.02</v>
       </c>
       <c r="Y172" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z172">
         <v>53.7</v>
@@ -23434,8 +22888,8 @@
       <c r="O173">
         <v>3</v>
       </c>
-      <c r="P173" t="s">
-        <v>1088</v>
+      <c r="P173">
+        <v>0.71</v>
       </c>
       <c r="Q173">
         <v>8116626794</v>
@@ -23458,11 +22912,11 @@
       <c r="W173">
         <v>17</v>
       </c>
-      <c r="X173" t="s">
-        <v>1270</v>
+      <c r="X173">
+        <v>0.23</v>
       </c>
       <c r="Y173" t="s">
-        <v>1332</v>
+        <v>1150</v>
       </c>
       <c r="Z173">
         <v>63.1</v>
@@ -23550,8 +23004,8 @@
       <c r="O174">
         <v>51.6</v>
       </c>
-      <c r="P174" t="s">
-        <v>1160</v>
+      <c r="P174">
+        <v>0.87</v>
       </c>
       <c r="Q174">
         <v>63177068175</v>
@@ -23566,7 +23020,7 @@
         <v>37.6</v>
       </c>
       <c r="U174" t="s">
-        <v>1208</v>
+        <v>1107</v>
       </c>
       <c r="V174">
         <v>65</v>
@@ -23574,11 +23028,11 @@
       <c r="W174">
         <v>524</v>
       </c>
-      <c r="X174" t="s">
-        <v>1261</v>
+      <c r="X174">
+        <v>0.09</v>
       </c>
       <c r="Y174" t="s">
-        <v>1336</v>
+        <v>1154</v>
       </c>
       <c r="Z174">
         <v>26.1</v>
@@ -23666,8 +23120,8 @@
       <c r="O175">
         <v>32.2</v>
       </c>
-      <c r="P175" t="s">
-        <v>1088</v>
+      <c r="P175">
+        <v>0.71</v>
       </c>
       <c r="Q175">
         <v>543649976166</v>
@@ -23690,11 +23144,11 @@
       <c r="W175">
         <v>37</v>
       </c>
-      <c r="X175" t="s">
-        <v>1127</v>
+      <c r="X175">
+        <v>1.06</v>
       </c>
       <c r="Y175" t="s">
-        <v>1363</v>
+        <v>1181</v>
       </c>
       <c r="Z175">
         <v>11.8</v>
@@ -23782,8 +23236,8 @@
       <c r="O176">
         <v>45.4</v>
       </c>
-      <c r="P176" t="s">
-        <v>1074</v>
+      <c r="P176">
+        <v>1.1</v>
       </c>
       <c r="Q176">
         <v>1673540300</v>
@@ -23806,11 +23260,11 @@
       <c r="W176">
         <v>142</v>
       </c>
-      <c r="X176" t="s">
-        <v>1083</v>
+      <c r="X176">
+        <v>0.6</v>
       </c>
       <c r="Y176" t="s">
-        <v>1300</v>
+        <v>1118</v>
       </c>
       <c r="Z176">
         <v>10.2</v>
@@ -23898,8 +23352,8 @@
       <c r="O177">
         <v>3.1</v>
       </c>
-      <c r="P177" t="s">
-        <v>1088</v>
+      <c r="P177">
+        <v>0.71</v>
       </c>
       <c r="Q177">
         <v>5459979417</v>
@@ -23922,11 +23376,11 @@
       <c r="W177">
         <v>396</v>
       </c>
-      <c r="X177" t="s">
-        <v>1229</v>
+      <c r="X177">
+        <v>0.34</v>
       </c>
       <c r="Y177" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z177">
         <v>51</v>
@@ -24033,7 +23487,7 @@
         <v>52</v>
       </c>
       <c r="Y178" t="s">
-        <v>1364</v>
+        <v>1182</v>
       </c>
       <c r="Z178">
         <v>10.2</v>
@@ -24121,8 +23575,8 @@
       <c r="O179">
         <v>46</v>
       </c>
-      <c r="P179" t="s">
-        <v>1143</v>
+      <c r="P179">
+        <v>0.54</v>
       </c>
       <c r="Q179">
         <v>24100202834</v>
@@ -24137,7 +23591,7 @@
         <v>16.4</v>
       </c>
       <c r="U179" t="s">
-        <v>1209</v>
+        <v>1108</v>
       </c>
       <c r="V179">
         <v>73.40000000000001</v>
@@ -24145,11 +23599,11 @@
       <c r="W179">
         <v>67</v>
       </c>
-      <c r="X179" t="s">
-        <v>1282</v>
+      <c r="X179">
+        <v>2.25</v>
       </c>
       <c r="Y179" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z179">
         <v>37.3</v>
@@ -24237,8 +23691,8 @@
       <c r="O180">
         <v>6.8</v>
       </c>
-      <c r="P180" t="s">
-        <v>1141</v>
+      <c r="P180">
+        <v>0.73</v>
       </c>
       <c r="Q180">
         <v>38797709924</v>
@@ -24261,11 +23715,11 @@
       <c r="W180">
         <v>43</v>
       </c>
-      <c r="X180" t="s">
-        <v>1220</v>
+      <c r="X180">
+        <v>0.47</v>
       </c>
       <c r="Y180" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z180">
         <v>39.8</v>
@@ -24353,8 +23807,8 @@
       <c r="O181">
         <v>15.4</v>
       </c>
-      <c r="P181" t="s">
-        <v>1159</v>
+      <c r="P181">
+        <v>1.42</v>
       </c>
       <c r="Q181">
         <v>754411708203</v>
@@ -24369,7 +23823,7 @@
         <v>9.1</v>
       </c>
       <c r="U181" t="s">
-        <v>1210</v>
+        <v>1109</v>
       </c>
       <c r="V181">
         <v>77.40000000000001</v>
@@ -24377,11 +23831,11 @@
       <c r="W181">
         <v>17</v>
       </c>
-      <c r="X181" t="s">
-        <v>1289</v>
+      <c r="X181">
+        <v>3.45</v>
       </c>
       <c r="Y181" t="s">
-        <v>1365</v>
+        <v>1183</v>
       </c>
       <c r="Z181">
         <v>16.9</v>
@@ -24463,8 +23917,8 @@
       <c r="O182">
         <v>8.800000000000001</v>
       </c>
-      <c r="P182" t="s">
-        <v>1161</v>
+      <c r="P182">
+        <v>0.29</v>
       </c>
       <c r="Q182">
         <v>40761142857</v>
@@ -24487,11 +23941,11 @@
       <c r="W182">
         <v>7</v>
       </c>
-      <c r="X182" t="s">
-        <v>1146</v>
+      <c r="X182">
+        <v>0.88</v>
       </c>
       <c r="Y182" t="s">
-        <v>1366</v>
+        <v>1184</v>
       </c>
       <c r="Z182">
         <v>71.09999999999999</v>
@@ -24571,7 +24025,7 @@
         <v>193</v>
       </c>
       <c r="Y183" t="s">
-        <v>1367</v>
+        <v>1185</v>
       </c>
       <c r="Z183">
         <v>0.7</v>
@@ -24647,8 +24101,8 @@
       <c r="O184">
         <v>9.699999999999999</v>
       </c>
-      <c r="P184" t="s">
-        <v>1162</v>
+      <c r="P184">
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q184">
         <v>34387229486</v>
@@ -24663,7 +24117,7 @@
         <v>33.8</v>
       </c>
       <c r="U184" t="s">
-        <v>1211</v>
+        <v>1110</v>
       </c>
       <c r="V184">
         <v>63</v>
@@ -24671,11 +24125,11 @@
       <c r="W184">
         <v>375</v>
       </c>
-      <c r="X184" t="s">
-        <v>1290</v>
+      <c r="X184">
+        <v>0.01</v>
       </c>
       <c r="Y184" t="s">
-        <v>1336</v>
+        <v>1154</v>
       </c>
       <c r="Z184">
         <v>40.5</v>
@@ -24763,8 +24217,8 @@
       <c r="O185">
         <v>16.7</v>
       </c>
-      <c r="P185" t="s">
-        <v>1111</v>
+      <c r="P185">
+        <v>0.83</v>
       </c>
       <c r="Q185">
         <v>153781069118</v>
@@ -24787,11 +24241,11 @@
       <c r="W185">
         <v>19</v>
       </c>
-      <c r="X185" t="s">
-        <v>1291</v>
+      <c r="X185">
+        <v>0.84</v>
       </c>
       <c r="Y185" t="s">
-        <v>1368</v>
+        <v>1186</v>
       </c>
       <c r="Z185">
         <v>47.8</v>
@@ -24879,8 +24333,8 @@
       <c r="O186">
         <v>4.6</v>
       </c>
-      <c r="P186" t="s">
-        <v>1163</v>
+      <c r="P186">
+        <v>0.49</v>
       </c>
       <c r="Q186">
         <v>421142267938</v>
@@ -24895,7 +24349,7 @@
         <v>6.5</v>
       </c>
       <c r="U186" t="s">
-        <v>1212</v>
+        <v>1111</v>
       </c>
       <c r="V186">
         <v>77.8</v>
@@ -24904,7 +24358,7 @@
         <v>3</v>
       </c>
       <c r="Y186" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z186">
         <v>17.8</v>
@@ -24992,8 +24446,8 @@
       <c r="O187">
         <v>13.1</v>
       </c>
-      <c r="P187" t="s">
-        <v>1164</v>
+      <c r="P187">
+        <v>1.46</v>
       </c>
       <c r="Q187">
         <v>2827113184696</v>
@@ -25016,11 +24470,11 @@
       <c r="W187">
         <v>7</v>
       </c>
-      <c r="X187" t="s">
-        <v>1292</v>
+      <c r="X187">
+        <v>10.13</v>
       </c>
       <c r="Y187" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z187">
         <v>14.8</v>
@@ -25108,8 +24562,8 @@
       <c r="O188">
         <v>33.9</v>
       </c>
-      <c r="P188" t="s">
-        <v>1088</v>
+      <c r="P188">
+        <v>0.71</v>
       </c>
       <c r="Q188">
         <v>21427700000000</v>
@@ -25124,7 +24578,7 @@
         <v>5.6</v>
       </c>
       <c r="U188" t="s">
-        <v>1213</v>
+        <v>1112</v>
       </c>
       <c r="V188">
         <v>78.5</v>
@@ -25132,8 +24586,8 @@
       <c r="W188">
         <v>19</v>
       </c>
-      <c r="X188" t="s">
-        <v>1293</v>
+      <c r="X188">
+        <v>7.25</v>
       </c>
       <c r="Z188">
         <v>11.1</v>
@@ -25221,8 +24675,8 @@
       <c r="O189">
         <v>10.7</v>
       </c>
-      <c r="P189" t="s">
-        <v>1165</v>
+      <c r="P189">
+        <v>1.5</v>
       </c>
       <c r="Q189">
         <v>56045912952</v>
@@ -25245,11 +24699,11 @@
       <c r="W189">
         <v>17</v>
       </c>
-      <c r="X189" t="s">
-        <v>1294</v>
+      <c r="X189">
+        <v>1.66</v>
       </c>
       <c r="Y189" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z189">
         <v>16.2</v>
@@ -25331,8 +24785,8 @@
       <c r="O190">
         <v>7.5</v>
       </c>
-      <c r="P190" t="s">
-        <v>1095</v>
+      <c r="P190">
+        <v>1.03</v>
       </c>
       <c r="Q190">
         <v>57921286440</v>
@@ -25355,11 +24809,11 @@
       <c r="W190">
         <v>29</v>
       </c>
-      <c r="X190" t="s">
-        <v>1154</v>
+      <c r="X190">
+        <v>0.24</v>
       </c>
       <c r="Y190" t="s">
-        <v>1369</v>
+        <v>1187</v>
       </c>
       <c r="Z190">
         <v>42.7</v>
@@ -25444,8 +24898,8 @@
       <c r="O191">
         <v>36.1</v>
       </c>
-      <c r="P191" t="s">
-        <v>1166</v>
+      <c r="P191">
+        <v>1.31</v>
       </c>
       <c r="Q191">
         <v>917058851</v>
@@ -25468,11 +24922,11 @@
       <c r="W191">
         <v>72</v>
       </c>
-      <c r="X191" t="s">
-        <v>1295</v>
+      <c r="X191">
+        <v>1.56</v>
       </c>
       <c r="Y191" t="s">
-        <v>1308</v>
+        <v>1126</v>
       </c>
       <c r="Z191">
         <v>8.9</v>
@@ -25560,8 +25014,8 @@
       <c r="O192">
         <v>52.7</v>
       </c>
-      <c r="P192" t="s">
-        <v>1167</v>
+      <c r="P192">
+        <v>0</v>
       </c>
       <c r="Q192">
         <v>482359318768</v>
@@ -25584,11 +25038,11 @@
       <c r="W192">
         <v>125</v>
       </c>
-      <c r="X192" t="s">
-        <v>1290</v>
+      <c r="X192">
+        <v>0.01</v>
       </c>
       <c r="Y192" t="s">
-        <v>1302</v>
+        <v>1120</v>
       </c>
       <c r="Z192">
         <v>45.8</v>
@@ -25673,8 +25127,8 @@
       <c r="O193">
         <v>48.1</v>
       </c>
-      <c r="P193" t="s">
-        <v>1133</v>
+      <c r="P193">
+        <v>0.8</v>
       </c>
       <c r="Q193">
         <v>261921244843</v>
@@ -25689,7 +25143,7 @@
         <v>16.5</v>
       </c>
       <c r="U193" t="s">
-        <v>1214</v>
+        <v>1113</v>
       </c>
       <c r="V193">
         <v>75.3</v>
@@ -25697,11 +25151,11 @@
       <c r="W193">
         <v>43</v>
       </c>
-      <c r="X193" t="s">
-        <v>1141</v>
+      <c r="X193">
+        <v>0.73</v>
       </c>
       <c r="Y193" t="s">
-        <v>1370</v>
+        <v>1188</v>
       </c>
       <c r="Z193">
         <v>43.5</v>
@@ -25789,8 +25243,8 @@
       <c r="O194">
         <v>1</v>
       </c>
-      <c r="P194" t="s">
-        <v>1079</v>
+      <c r="P194">
+        <v>0.92</v>
       </c>
       <c r="Q194">
         <v>26914402224</v>
@@ -25814,7 +25268,7 @@
         <v>164</v>
       </c>
       <c r="Y194" t="s">
-        <v>1298</v>
+        <v>1116</v>
       </c>
       <c r="Z194">
         <v>81</v>
@@ -25899,8 +25353,8 @@
       <c r="O195">
         <v>65.2</v>
       </c>
-      <c r="P195" t="s">
-        <v>1102</v>
+      <c r="P195">
+        <v>1.4</v>
       </c>
       <c r="Q195">
         <v>23064722446</v>
@@ -25923,11 +25377,11 @@
       <c r="W195">
         <v>213</v>
       </c>
-      <c r="X195" t="s">
-        <v>1154</v>
+      <c r="X195">
+        <v>0.24</v>
       </c>
       <c r="Y195" t="s">
-        <v>1301</v>
+        <v>1119</v>
       </c>
       <c r="Z195">
         <v>27.5</v>
@@ -26012,8 +25466,8 @@
       <c r="O196">
         <v>35.5</v>
       </c>
-      <c r="P196" t="s">
-        <v>1168</v>
+      <c r="P196">
+        <v>1.34</v>
       </c>
       <c r="Q196">
         <v>21440758800</v>
@@ -26037,7 +25491,7 @@
         <v>458</v>
       </c>
       <c r="Y196" t="s">
-        <v>1371</v>
+        <v>1189</v>
       </c>
       <c r="Z196">
         <v>25.8</v>

--- a/world-data-2023.xlsx
+++ b/world-data-2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1276">
   <si>
     <t>Country</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Unemployment rate</t>
   </si>
   <si>
-    <t>Urban_population</t>
+    <t>Urban population</t>
   </si>
   <si>
     <t>Latitude</t>
@@ -2823,6 +2823,264 @@
   </si>
   <si>
     <t>Harare</t>
+  </si>
+  <si>
+    <t>2.30%</t>
+  </si>
+  <si>
+    <t>1.40%</t>
+  </si>
+  <si>
+    <t>2.00%</t>
+  </si>
+  <si>
+    <t>17.10%</t>
+  </si>
+  <si>
+    <t>1.20%</t>
+  </si>
+  <si>
+    <t>53.50%</t>
+  </si>
+  <si>
+    <t>1.60%</t>
+  </si>
+  <si>
+    <t>1.50%</t>
+  </si>
+  <si>
+    <t>2.60%</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>2.10%</t>
+  </si>
+  <si>
+    <t>5.60%</t>
+  </si>
+  <si>
+    <t>4.10%</t>
+  </si>
+  <si>
+    <t>-0.90%</t>
+  </si>
+  <si>
+    <t>2.70%</t>
+  </si>
+  <si>
+    <t>1.80%</t>
+  </si>
+  <si>
+    <t>0.60%</t>
+  </si>
+  <si>
+    <t>2.80%</t>
+  </si>
+  <si>
+    <t>3.70%</t>
+  </si>
+  <si>
+    <t>-0.40%</t>
+  </si>
+  <si>
+    <t>3.10%</t>
+  </si>
+  <si>
+    <t>-3.20%</t>
+  </si>
+  <si>
+    <t>-0.70%</t>
+  </si>
+  <si>
+    <t>1.10%</t>
+  </si>
+  <si>
+    <t>1.90%</t>
+  </si>
+  <si>
+    <t>37.10%</t>
+  </si>
+  <si>
+    <t>-1.00%</t>
+  </si>
+  <si>
+    <t>2.90%</t>
+  </si>
+  <si>
+    <t>3.50%</t>
+  </si>
+  <si>
+    <t>-4.30%</t>
+  </si>
+  <si>
+    <t>2.20%</t>
+  </si>
+  <si>
+    <t>0.80%</t>
+  </si>
+  <si>
+    <t>0.30%</t>
+  </si>
+  <si>
+    <t>3.30%</t>
+  </si>
+  <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>9.20%</t>
+  </si>
+  <si>
+    <t>0.10%</t>
+  </si>
+  <si>
+    <t>15.80%</t>
+  </si>
+  <si>
+    <t>7.10%</t>
+  </si>
+  <si>
+    <t>4.90%</t>
+  </si>
+  <si>
+    <t>7.20%</t>
+  </si>
+  <si>
+    <t>0.20%</t>
+  </si>
+  <si>
+    <t>9.50%</t>
+  </si>
+  <si>
+    <t>12.50%</t>
+  </si>
+  <si>
+    <t>4.40%</t>
+  </si>
+  <si>
+    <t>3.00%</t>
+  </si>
+  <si>
+    <t>7.70%</t>
+  </si>
+  <si>
+    <t>39.90%</t>
+  </si>
+  <si>
+    <t>0.40%</t>
+  </si>
+  <si>
+    <t>0.90%</t>
+  </si>
+  <si>
+    <t>3.90%</t>
+  </si>
+  <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>5.20%</t>
+  </si>
+  <si>
+    <t>4.70%</t>
+  </si>
+  <si>
+    <t>23.60%</t>
+  </si>
+  <si>
+    <t>1.70%</t>
+  </si>
+  <si>
+    <t>9.40%</t>
+  </si>
+  <si>
+    <t>0.70%</t>
+  </si>
+  <si>
+    <t>-1.70%</t>
+  </si>
+  <si>
+    <t>3.60%</t>
+  </si>
+  <si>
+    <t>4.80%</t>
+  </si>
+  <si>
+    <t>7.30%</t>
+  </si>
+  <si>
+    <t>8.80%</t>
+  </si>
+  <si>
+    <t>5.40%</t>
+  </si>
+  <si>
+    <t>-2.50%</t>
+  </si>
+  <si>
+    <t>11.40%</t>
+  </si>
+  <si>
+    <t>10.60%</t>
+  </si>
+  <si>
+    <t>1.30%</t>
+  </si>
+  <si>
+    <t>3.80%</t>
+  </si>
+  <si>
+    <t>4.50%</t>
+  </si>
+  <si>
+    <t>3.40%</t>
+  </si>
+  <si>
+    <t>-1.20%</t>
+  </si>
+  <si>
+    <t>14.80%</t>
+  </si>
+  <si>
+    <t>187.90%</t>
+  </si>
+  <si>
+    <t>51.00%</t>
+  </si>
+  <si>
+    <t>22.00%</t>
+  </si>
+  <si>
+    <t>36.70%</t>
+  </si>
+  <si>
+    <t>6.00%</t>
+  </si>
+  <si>
+    <t>7.40%</t>
+  </si>
+  <si>
+    <t>6.70%</t>
+  </si>
+  <si>
+    <t>15.20%</t>
+  </si>
+  <si>
+    <t>7.90%</t>
+  </si>
+  <si>
+    <t>-1.90%</t>
+  </si>
+  <si>
+    <t>7.50%</t>
+  </si>
+  <si>
+    <t>254.90%</t>
+  </si>
+  <si>
+    <t>8.10%</t>
   </si>
   <si>
     <t>AFN</t>
@@ -4098,11 +4356,11 @@
       <c r="K2">
         <v>149.9</v>
       </c>
-      <c r="L2">
-        <v>2.3</v>
+      <c r="L2" t="s">
+        <v>936</v>
       </c>
       <c r="M2" t="s">
-        <v>936</v>
+        <v>1022</v>
       </c>
       <c r="N2">
         <v>4.47</v>
@@ -4138,7 +4396,7 @@
         <v>0.43</v>
       </c>
       <c r="Y2" t="s">
-        <v>1114</v>
+        <v>1200</v>
       </c>
       <c r="Z2">
         <v>78.40000000000001</v>
@@ -4214,11 +4472,11 @@
       <c r="K3">
         <v>119.05</v>
       </c>
-      <c r="L3">
-        <v>1.4</v>
+      <c r="L3" t="s">
+        <v>937</v>
       </c>
       <c r="M3" t="s">
-        <v>937</v>
+        <v>1023</v>
       </c>
       <c r="N3">
         <v>1.62</v>
@@ -4254,7 +4512,7 @@
         <v>1.12</v>
       </c>
       <c r="Y3" t="s">
-        <v>1115</v>
+        <v>1201</v>
       </c>
       <c r="Z3">
         <v>56.9</v>
@@ -4330,11 +4588,11 @@
       <c r="K4">
         <v>151.36</v>
       </c>
-      <c r="L4">
-        <v>2</v>
+      <c r="L4" t="s">
+        <v>938</v>
       </c>
       <c r="M4" t="s">
-        <v>938</v>
+        <v>1024</v>
       </c>
       <c r="N4">
         <v>3.02</v>
@@ -4370,7 +4628,7 @@
         <v>0.95</v>
       </c>
       <c r="Y4" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z4">
         <v>28.1</v>
@@ -4441,7 +4699,7 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N5">
         <v>1.27</v>
@@ -4468,7 +4726,7 @@
         <v>6.63</v>
       </c>
       <c r="Y5" t="s">
-        <v>1117</v>
+        <v>1203</v>
       </c>
       <c r="Z5">
         <v>36.4</v>
@@ -4532,11 +4790,11 @@
       <c r="K6">
         <v>261.73</v>
       </c>
-      <c r="L6">
-        <v>17.1</v>
+      <c r="L6" t="s">
+        <v>939</v>
       </c>
       <c r="M6" t="s">
-        <v>940</v>
+        <v>1026</v>
       </c>
       <c r="N6">
         <v>5.52</v>
@@ -4572,7 +4830,7 @@
         <v>0.71</v>
       </c>
       <c r="Y6" t="s">
-        <v>1118</v>
+        <v>1204</v>
       </c>
       <c r="Z6">
         <v>33.4</v>
@@ -4648,11 +4906,11 @@
       <c r="K7">
         <v>113.81</v>
       </c>
-      <c r="L7">
-        <v>1.2</v>
+      <c r="L7" t="s">
+        <v>940</v>
       </c>
       <c r="M7" t="s">
-        <v>941</v>
+        <v>1027</v>
       </c>
       <c r="N7">
         <v>1.99</v>
@@ -4688,7 +4946,7 @@
         <v>3.04</v>
       </c>
       <c r="Y7" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z7">
         <v>24.3</v>
@@ -4758,11 +5016,11 @@
       <c r="K8">
         <v>232.75</v>
       </c>
-      <c r="L8">
-        <v>53.5</v>
+      <c r="L8" t="s">
+        <v>941</v>
       </c>
       <c r="M8" t="s">
-        <v>942</v>
+        <v>1028</v>
       </c>
       <c r="N8">
         <v>2.26</v>
@@ -4798,7 +5056,7 @@
         <v>3.35</v>
       </c>
       <c r="Y8" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z8">
         <v>17.6</v>
@@ -4874,11 +5132,11 @@
       <c r="K9">
         <v>129.18</v>
       </c>
-      <c r="L9">
-        <v>1.4</v>
+      <c r="L9" t="s">
+        <v>937</v>
       </c>
       <c r="M9" t="s">
-        <v>943</v>
+        <v>1029</v>
       </c>
       <c r="N9">
         <v>1.76</v>
@@ -4914,7 +5172,7 @@
         <v>0.66</v>
       </c>
       <c r="Y9" t="s">
-        <v>1121</v>
+        <v>1207</v>
       </c>
       <c r="Z9">
         <v>81.59999999999999</v>
@@ -4990,11 +5248,11 @@
       <c r="K10">
         <v>119.8</v>
       </c>
-      <c r="L10">
-        <v>1.6</v>
+      <c r="L10" t="s">
+        <v>942</v>
       </c>
       <c r="M10" t="s">
-        <v>944</v>
+        <v>1030</v>
       </c>
       <c r="N10">
         <v>1.74</v>
@@ -5018,7 +5276,7 @@
         <v>3.1</v>
       </c>
       <c r="U10" t="s">
-        <v>1068</v>
+        <v>1154</v>
       </c>
       <c r="V10">
         <v>82.7</v>
@@ -5103,11 +5361,11 @@
       <c r="K11">
         <v>118.06</v>
       </c>
-      <c r="L11">
-        <v>1.5</v>
+      <c r="L11" t="s">
+        <v>943</v>
       </c>
       <c r="M11" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N11">
         <v>1.47</v>
@@ -5140,7 +5398,7 @@
         <v>5</v>
       </c>
       <c r="Y11" t="s">
-        <v>1122</v>
+        <v>1208</v>
       </c>
       <c r="Z11">
         <v>17.9</v>
@@ -5216,11 +5474,11 @@
       <c r="K12">
         <v>156.32</v>
       </c>
-      <c r="L12">
-        <v>2.6</v>
+      <c r="L12" t="s">
+        <v>944</v>
       </c>
       <c r="M12" t="s">
-        <v>945</v>
+        <v>1031</v>
       </c>
       <c r="N12">
         <v>1.73</v>
@@ -5256,7 +5514,7 @@
         <v>0.47</v>
       </c>
       <c r="Y12" t="s">
-        <v>1123</v>
+        <v>1209</v>
       </c>
       <c r="Z12">
         <v>78.59999999999999</v>
@@ -5332,8 +5590,8 @@
       <c r="K13">
         <v>116.22</v>
       </c>
-      <c r="L13">
-        <v>2.5</v>
+      <c r="L13" t="s">
+        <v>945</v>
       </c>
       <c r="N13">
         <v>1.75</v>
@@ -5369,7 +5627,7 @@
         <v>5.25</v>
       </c>
       <c r="Y13" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z13">
         <v>27.8</v>
@@ -5445,11 +5703,11 @@
       <c r="K14">
         <v>117.59</v>
       </c>
-      <c r="L14">
-        <v>2.1</v>
+      <c r="L14" t="s">
+        <v>946</v>
       </c>
       <c r="M14" t="s">
-        <v>946</v>
+        <v>1032</v>
       </c>
       <c r="N14">
         <v>1.99</v>
@@ -5473,7 +5731,7 @@
         <v>6.1</v>
       </c>
       <c r="U14" t="s">
-        <v>1069</v>
+        <v>1155</v>
       </c>
       <c r="V14">
         <v>77.2</v>
@@ -5482,7 +5740,7 @@
         <v>14</v>
       </c>
       <c r="Y14" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z14">
         <v>25.1</v>
@@ -5558,11 +5816,11 @@
       <c r="K15">
         <v>179.68</v>
       </c>
-      <c r="L15">
-        <v>5.6</v>
+      <c r="L15" t="s">
+        <v>947</v>
       </c>
       <c r="M15" t="s">
-        <v>947</v>
+        <v>1033</v>
       </c>
       <c r="N15">
         <v>2.04</v>
@@ -5598,7 +5856,7 @@
         <v>0.51</v>
       </c>
       <c r="Y15" t="s">
-        <v>1124</v>
+        <v>1210</v>
       </c>
       <c r="Z15">
         <v>71.8</v>
@@ -5674,11 +5932,11 @@
       <c r="K16">
         <v>134.09</v>
       </c>
-      <c r="L16">
-        <v>4.1</v>
+      <c r="L16" t="s">
+        <v>948</v>
       </c>
       <c r="M16" t="s">
-        <v>948</v>
+        <v>1034</v>
       </c>
       <c r="N16">
         <v>1.62</v>
@@ -5714,7 +5972,7 @@
         <v>3.13</v>
       </c>
       <c r="Y16" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z16">
         <v>45.2</v>
@@ -5787,11 +6045,11 @@
       <c r="J17">
         <v>58280</v>
       </c>
-      <c r="L17">
-        <v>5.6</v>
+      <c r="L17" t="s">
+        <v>947</v>
       </c>
       <c r="M17" t="s">
-        <v>949</v>
+        <v>1035</v>
       </c>
       <c r="N17">
         <v>1.45</v>
@@ -5827,7 +6085,7 @@
         <v>1.49</v>
       </c>
       <c r="Y17" t="s">
-        <v>1125</v>
+        <v>1211</v>
       </c>
       <c r="Z17">
         <v>34.5</v>
@@ -5903,11 +6161,11 @@
       <c r="K18">
         <v>117.11</v>
       </c>
-      <c r="L18">
-        <v>1.4</v>
+      <c r="L18" t="s">
+        <v>937</v>
       </c>
       <c r="M18" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N18">
         <v>1.62</v>
@@ -5931,7 +6189,7 @@
         <v>2.9</v>
       </c>
       <c r="U18" t="s">
-        <v>1070</v>
+        <v>1156</v>
       </c>
       <c r="V18">
         <v>81.59999999999999</v>
@@ -5943,7 +6201,7 @@
         <v>10.31</v>
       </c>
       <c r="Y18" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z18">
         <v>17.6</v>
@@ -6019,11 +6277,11 @@
       <c r="K19">
         <v>105.68</v>
       </c>
-      <c r="L19">
-        <v>-0.9</v>
+      <c r="L19" t="s">
+        <v>949</v>
       </c>
       <c r="M19" t="s">
-        <v>950</v>
+        <v>1036</v>
       </c>
       <c r="N19">
         <v>2.31</v>
@@ -6047,7 +6305,7 @@
         <v>11.2</v>
       </c>
       <c r="U19" t="s">
-        <v>1071</v>
+        <v>1157</v>
       </c>
       <c r="V19">
         <v>74.5</v>
@@ -6059,7 +6317,7 @@
         <v>1.65</v>
       </c>
       <c r="Y19" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z19">
         <v>22.7</v>
@@ -6135,11 +6393,11 @@
       <c r="K20">
         <v>110.71</v>
       </c>
-      <c r="L20">
-        <v>-0.9</v>
+      <c r="L20" t="s">
+        <v>949</v>
       </c>
       <c r="M20" t="s">
-        <v>951</v>
+        <v>1037</v>
       </c>
       <c r="N20">
         <v>4.84</v>
@@ -6163,7 +6421,7 @@
         <v>60.5</v>
       </c>
       <c r="U20" t="s">
-        <v>1072</v>
+        <v>1158</v>
       </c>
       <c r="V20">
         <v>61.5</v>
@@ -6175,7 +6433,7 @@
         <v>0.39</v>
       </c>
       <c r="Y20" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z20">
         <v>40.5</v>
@@ -6251,8 +6509,8 @@
       <c r="K21">
         <v>167.18</v>
       </c>
-      <c r="L21">
-        <v>2.7</v>
+      <c r="L21" t="s">
+        <v>950</v>
       </c>
       <c r="N21">
         <v>1.98</v>
@@ -6288,7 +6546,7 @@
         <v>0.32</v>
       </c>
       <c r="Y21" t="s">
-        <v>1127</v>
+        <v>1213</v>
       </c>
       <c r="Z21">
         <v>19.8</v>
@@ -6364,11 +6622,11 @@
       <c r="K22">
         <v>148.32</v>
       </c>
-      <c r="L22">
-        <v>1.8</v>
+      <c r="L22" t="s">
+        <v>951</v>
       </c>
       <c r="M22" t="s">
-        <v>952</v>
+        <v>1038</v>
       </c>
       <c r="N22">
         <v>2.73</v>
@@ -6389,7 +6647,7 @@
         <v>21.8</v>
       </c>
       <c r="U22" t="s">
-        <v>1073</v>
+        <v>1159</v>
       </c>
       <c r="V22">
         <v>71.2</v>
@@ -6401,7 +6659,7 @@
         <v>1.36</v>
       </c>
       <c r="Y22" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z22">
         <v>25.9</v>
@@ -6477,11 +6735,11 @@
       <c r="K23">
         <v>104.9</v>
       </c>
-      <c r="L23">
-        <v>0.6</v>
+      <c r="L23" t="s">
+        <v>952</v>
       </c>
       <c r="M23" t="s">
-        <v>953</v>
+        <v>1039</v>
       </c>
       <c r="N23">
         <v>1.27</v>
@@ -6502,7 +6760,7 @@
         <v>5</v>
       </c>
       <c r="U23" t="s">
-        <v>1074</v>
+        <v>1160</v>
       </c>
       <c r="V23">
         <v>77.3</v>
@@ -6514,7 +6772,7 @@
         <v>1.04</v>
       </c>
       <c r="Y23" t="s">
-        <v>1128</v>
+        <v>1214</v>
       </c>
       <c r="Z23">
         <v>28.6</v>
@@ -6590,11 +6848,11 @@
       <c r="K24">
         <v>149.75</v>
       </c>
-      <c r="L24">
-        <v>2.8</v>
+      <c r="L24" t="s">
+        <v>953</v>
       </c>
       <c r="M24" t="s">
-        <v>954</v>
+        <v>1040</v>
       </c>
       <c r="N24">
         <v>2.87</v>
@@ -6630,7 +6888,7 @@
         <v>0.29</v>
       </c>
       <c r="Y24" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z24">
         <v>5.3</v>
@@ -6706,11 +6964,11 @@
       <c r="K25">
         <v>167.4</v>
       </c>
-      <c r="L25">
-        <v>3.7</v>
+      <c r="L25" t="s">
+        <v>954</v>
       </c>
       <c r="M25" t="s">
-        <v>955</v>
+        <v>1041</v>
       </c>
       <c r="N25">
         <v>1.73</v>
@@ -6734,7 +6992,7 @@
         <v>12.8</v>
       </c>
       <c r="U25" t="s">
-        <v>1075</v>
+        <v>1161</v>
       </c>
       <c r="V25">
         <v>75.7</v>
@@ -6746,7 +7004,7 @@
         <v>1.53</v>
       </c>
       <c r="Y25" t="s">
-        <v>1118</v>
+        <v>1204</v>
       </c>
       <c r="Z25">
         <v>28.3</v>
@@ -6822,11 +7080,11 @@
       <c r="K26">
         <v>99.03</v>
       </c>
-      <c r="L26">
-        <v>-0.4</v>
+      <c r="L26" t="s">
+        <v>955</v>
       </c>
       <c r="M26" t="s">
-        <v>956</v>
+        <v>1042</v>
       </c>
       <c r="N26">
         <v>1.85</v>
@@ -6856,7 +7114,7 @@
         <v>31</v>
       </c>
       <c r="Y26" t="s">
-        <v>1129</v>
+        <v>1215</v>
       </c>
       <c r="Z26">
         <v>6</v>
@@ -6929,11 +7187,11 @@
       <c r="K27">
         <v>114.42</v>
       </c>
-      <c r="L27">
-        <v>3.1</v>
+      <c r="L27" t="s">
+        <v>956</v>
       </c>
       <c r="M27" t="s">
-        <v>957</v>
+        <v>1043</v>
       </c>
       <c r="N27">
         <v>1.56</v>
@@ -6969,7 +7227,7 @@
         <v>1.57</v>
       </c>
       <c r="Y27" t="s">
-        <v>1130</v>
+        <v>1216</v>
       </c>
       <c r="Z27">
         <v>47.7</v>
@@ -7045,11 +7303,11 @@
       <c r="K28">
         <v>106.58</v>
       </c>
-      <c r="L28">
-        <v>-3.2</v>
+      <c r="L28" t="s">
+        <v>957</v>
       </c>
       <c r="M28" t="s">
-        <v>951</v>
+        <v>1037</v>
       </c>
       <c r="N28">
         <v>5.19</v>
@@ -7085,7 +7343,7 @@
         <v>0.34</v>
       </c>
       <c r="Y28" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z28">
         <v>36.1</v>
@@ -7161,11 +7419,11 @@
       <c r="K29">
         <v>182.11</v>
       </c>
-      <c r="L29">
-        <v>-0.7</v>
+      <c r="L29" t="s">
+        <v>958</v>
       </c>
       <c r="M29" t="s">
-        <v>958</v>
+        <v>1044</v>
       </c>
       <c r="N29">
         <v>5.41</v>
@@ -7198,7 +7456,7 @@
         <v>548</v>
       </c>
       <c r="Y29" t="s">
-        <v>1131</v>
+        <v>1217</v>
       </c>
       <c r="Z29">
         <v>19.1</v>
@@ -7274,11 +7532,11 @@
       <c r="K30">
         <v>111.61</v>
       </c>
-      <c r="L30">
-        <v>-0.9</v>
+      <c r="L30" t="s">
+        <v>949</v>
       </c>
       <c r="M30" t="s">
-        <v>951</v>
+        <v>1037</v>
       </c>
       <c r="N30">
         <v>4.65</v>
@@ -7302,7 +7560,7 @@
         <v>59.4</v>
       </c>
       <c r="U30" t="s">
-        <v>1076</v>
+        <v>1162</v>
       </c>
       <c r="V30">
         <v>57.4</v>
@@ -7314,7 +7572,7 @@
         <v>0.36</v>
       </c>
       <c r="Y30" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z30">
         <v>36</v>
@@ -7390,11 +7648,11 @@
       <c r="K31">
         <v>110.5</v>
       </c>
-      <c r="L31">
-        <v>1.1</v>
+      <c r="L31" t="s">
+        <v>959</v>
       </c>
       <c r="M31" t="s">
-        <v>959</v>
+        <v>1045</v>
       </c>
       <c r="N31">
         <v>2.27</v>
@@ -7430,7 +7688,7 @@
         <v>0.68</v>
       </c>
       <c r="Y31" t="s">
-        <v>1118</v>
+        <v>1204</v>
       </c>
       <c r="Z31">
         <v>23.2</v>
@@ -7506,8 +7764,8 @@
       <c r="K32">
         <v>127.63</v>
       </c>
-      <c r="L32">
-        <v>2.5</v>
+      <c r="L32" t="s">
+        <v>945</v>
       </c>
       <c r="N32">
         <v>2.5</v>
@@ -7540,7 +7798,7 @@
         <v>160</v>
       </c>
       <c r="Y32" t="s">
-        <v>1132</v>
+        <v>1218</v>
       </c>
       <c r="Z32">
         <v>59.4</v>
@@ -7616,11 +7874,11 @@
       <c r="K33">
         <v>118.65</v>
       </c>
-      <c r="L33">
-        <v>2.5</v>
+      <c r="L33" t="s">
+        <v>945</v>
       </c>
       <c r="M33" t="s">
-        <v>960</v>
+        <v>1046</v>
       </c>
       <c r="N33">
         <v>4.57</v>
@@ -7644,7 +7902,7 @@
         <v>50.6</v>
       </c>
       <c r="U33" t="s">
-        <v>1077</v>
+        <v>1163</v>
       </c>
       <c r="V33">
         <v>58.9</v>
@@ -7656,7 +7914,7 @@
         <v>0.35</v>
       </c>
       <c r="Y33" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z33">
         <v>69.7</v>
@@ -7732,11 +7990,11 @@
       <c r="K34">
         <v>116.76</v>
       </c>
-      <c r="L34">
-        <v>1.9</v>
+      <c r="L34" t="s">
+        <v>960</v>
       </c>
       <c r="M34" t="s">
-        <v>961</v>
+        <v>1047</v>
       </c>
       <c r="N34">
         <v>1.5</v>
@@ -7760,7 +8018,7 @@
         <v>4.3</v>
       </c>
       <c r="U34" t="s">
-        <v>1078</v>
+        <v>1164</v>
       </c>
       <c r="V34">
         <v>81.90000000000001</v>
@@ -7772,7 +8030,7 @@
         <v>9.51</v>
       </c>
       <c r="Y34" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z34">
         <v>14.6</v>
@@ -7848,8 +8106,8 @@
       <c r="K35">
         <v>186.86</v>
       </c>
-      <c r="L35">
-        <v>37.1</v>
+      <c r="L35" t="s">
+        <v>961</v>
       </c>
       <c r="N35">
         <v>4.72</v>
@@ -7885,7 +8143,7 @@
         <v>0.37</v>
       </c>
       <c r="Y35" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z35">
         <v>39.6</v>
@@ -7961,11 +8219,11 @@
       <c r="K36">
         <v>117.7</v>
       </c>
-      <c r="L36">
-        <v>-1</v>
+      <c r="L36" t="s">
+        <v>962</v>
       </c>
       <c r="M36" t="s">
-        <v>960</v>
+        <v>1046</v>
       </c>
       <c r="N36">
         <v>5.75</v>
@@ -8001,7 +8259,7 @@
         <v>0.6</v>
       </c>
       <c r="Y36" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z36">
         <v>56.4</v>
@@ -8074,11 +8332,11 @@
       <c r="K37">
         <v>131.91</v>
       </c>
-      <c r="L37">
-        <v>2.6</v>
+      <c r="L37" t="s">
+        <v>944</v>
       </c>
       <c r="M37" t="s">
-        <v>962</v>
+        <v>1048</v>
       </c>
       <c r="N37">
         <v>1.65</v>
@@ -8114,7 +8372,7 @@
         <v>2</v>
       </c>
       <c r="Y37" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z37">
         <v>32.2</v>
@@ -8190,11 +8448,11 @@
       <c r="K38">
         <v>125.08</v>
       </c>
-      <c r="L38">
-        <v>2.9</v>
+      <c r="L38" t="s">
+        <v>963</v>
       </c>
       <c r="M38" t="s">
-        <v>963</v>
+        <v>1049</v>
       </c>
       <c r="N38">
         <v>1.69</v>
@@ -8218,7 +8476,7 @@
         <v>7.4</v>
       </c>
       <c r="U38" t="s">
-        <v>1079</v>
+        <v>1165</v>
       </c>
       <c r="V38">
         <v>77</v>
@@ -8230,7 +8488,7 @@
         <v>0.87</v>
       </c>
       <c r="Y38" t="s">
-        <v>1133</v>
+        <v>1219</v>
       </c>
       <c r="Z38">
         <v>32.4</v>
@@ -8306,11 +8564,11 @@
       <c r="K39">
         <v>140.95</v>
       </c>
-      <c r="L39">
-        <v>3.5</v>
+      <c r="L39" t="s">
+        <v>964</v>
       </c>
       <c r="M39" t="s">
-        <v>964</v>
+        <v>1050</v>
       </c>
       <c r="N39">
         <v>1.81</v>
@@ -8346,7 +8604,7 @@
         <v>1.23</v>
       </c>
       <c r="Y39" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z39">
         <v>18.3</v>
@@ -8419,11 +8677,11 @@
       <c r="K40">
         <v>103.62</v>
       </c>
-      <c r="L40">
-        <v>-4.3</v>
+      <c r="L40" t="s">
+        <v>965</v>
       </c>
       <c r="M40" t="s">
-        <v>965</v>
+        <v>1051</v>
       </c>
       <c r="N40">
         <v>4.21</v>
@@ -8456,7 +8714,7 @@
         <v>0.71</v>
       </c>
       <c r="Y40" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z40">
         <v>74.8</v>
@@ -8526,11 +8784,11 @@
       <c r="K41">
         <v>124.74</v>
       </c>
-      <c r="L41">
-        <v>2.2</v>
+      <c r="L41" t="s">
+        <v>966</v>
       </c>
       <c r="M41" t="s">
-        <v>960</v>
+        <v>1046</v>
       </c>
       <c r="N41">
         <v>4.43</v>
@@ -8566,7 +8824,7 @@
         <v>0.88</v>
       </c>
       <c r="Y41" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z41">
         <v>43.8</v>
@@ -8642,11 +8900,11 @@
       <c r="K42">
         <v>128.85</v>
       </c>
-      <c r="L42">
-        <v>2.1</v>
+      <c r="L42" t="s">
+        <v>946</v>
       </c>
       <c r="M42" t="s">
-        <v>966</v>
+        <v>1052</v>
       </c>
       <c r="N42">
         <v>1.75</v>
@@ -8682,7 +8940,7 @@
         <v>1.84</v>
       </c>
       <c r="Y42" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z42">
         <v>21.5</v>
@@ -8758,11 +9016,11 @@
       <c r="K43">
         <v>109.82</v>
       </c>
-      <c r="L43">
-        <v>0.8</v>
+      <c r="L43" t="s">
+        <v>967</v>
       </c>
       <c r="M43" t="s">
-        <v>967</v>
+        <v>1053</v>
       </c>
       <c r="N43">
         <v>1.47</v>
@@ -8798,7 +9056,7 @@
         <v>2.92</v>
       </c>
       <c r="Y43" t="s">
-        <v>1134</v>
+        <v>1220</v>
       </c>
       <c r="Z43">
         <v>15.2</v>
@@ -8872,7 +9130,7 @@
         <v>28284</v>
       </c>
       <c r="M44" t="s">
-        <v>968</v>
+        <v>1054</v>
       </c>
       <c r="N44">
         <v>1.62</v>
@@ -8908,7 +9166,7 @@
         <v>0.05</v>
       </c>
       <c r="Y44" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="AA44">
         <v>8.42</v>
@@ -8975,11 +9233,11 @@
       <c r="K45">
         <v>102.51</v>
       </c>
-      <c r="L45">
-        <v>0.3</v>
+      <c r="L45" t="s">
+        <v>968</v>
       </c>
       <c r="M45" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N45">
         <v>1.33</v>
@@ -9003,7 +9261,7 @@
         <v>1.9</v>
       </c>
       <c r="U45" t="s">
-        <v>1080</v>
+        <v>1166</v>
       </c>
       <c r="V45">
         <v>80.8</v>
@@ -9012,7 +9270,7 @@
         <v>6</v>
       </c>
       <c r="Y45" t="s">
-        <v>1135</v>
+        <v>1221</v>
       </c>
       <c r="Z45">
         <v>43.9</v>
@@ -9088,11 +9346,11 @@
       <c r="K46">
         <v>116.48</v>
       </c>
-      <c r="L46">
-        <v>2.8</v>
+      <c r="L46" t="s">
+        <v>953</v>
       </c>
       <c r="M46" t="s">
-        <v>969</v>
+        <v>1055</v>
       </c>
       <c r="N46">
         <v>1.69</v>
@@ -9128,7 +9386,7 @@
         <v>3</v>
       </c>
       <c r="Y46" t="s">
-        <v>1136</v>
+        <v>1222</v>
       </c>
       <c r="Z46">
         <v>14.8</v>
@@ -9204,11 +9462,11 @@
       <c r="K47">
         <v>133.85</v>
       </c>
-      <c r="L47">
-        <v>2.9</v>
+      <c r="L47" t="s">
+        <v>963</v>
       </c>
       <c r="M47" t="s">
-        <v>970</v>
+        <v>1056</v>
       </c>
       <c r="N47">
         <v>5.92</v>
@@ -9244,7 +9502,7 @@
         <v>0.18</v>
       </c>
       <c r="Y47" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z47">
         <v>37.4</v>
@@ -9320,11 +9578,11 @@
       <c r="K48">
         <v>110.35</v>
       </c>
-      <c r="L48">
-        <v>0.8</v>
+      <c r="L48" t="s">
+        <v>967</v>
       </c>
       <c r="M48" t="s">
-        <v>971</v>
+        <v>1057</v>
       </c>
       <c r="N48">
         <v>1.73</v>
@@ -9357,7 +9615,7 @@
         <v>4</v>
       </c>
       <c r="Y48" t="s">
-        <v>1137</v>
+        <v>1223</v>
       </c>
       <c r="Z48">
         <v>13.7</v>
@@ -9433,11 +9691,11 @@
       <c r="K49">
         <v>120.25</v>
       </c>
-      <c r="L49">
-        <v>3.3</v>
+      <c r="L49" t="s">
+        <v>969</v>
       </c>
       <c r="M49" t="s">
-        <v>972</v>
+        <v>1058</v>
       </c>
       <c r="N49">
         <v>2.73</v>
@@ -9470,7 +9728,7 @@
         <v>248</v>
       </c>
       <c r="Y49" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z49">
         <v>20.4</v>
@@ -9540,11 +9798,11 @@
       <c r="K50">
         <v>103.87</v>
       </c>
-      <c r="L50">
-        <v>1</v>
+      <c r="L50" t="s">
+        <v>970</v>
       </c>
       <c r="M50" t="s">
-        <v>941</v>
+        <v>1027</v>
       </c>
       <c r="N50">
         <v>1.9</v>
@@ -9574,7 +9832,7 @@
         <v>1.48</v>
       </c>
       <c r="Y50" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z50">
         <v>28.4</v>
@@ -9644,11 +9902,11 @@
       <c r="K51">
         <v>135.5</v>
       </c>
-      <c r="L51">
-        <v>1.8</v>
+      <c r="L51" t="s">
+        <v>951</v>
       </c>
       <c r="M51" t="s">
-        <v>973</v>
+        <v>1059</v>
       </c>
       <c r="N51">
         <v>2.35</v>
@@ -9684,7 +9942,7 @@
         <v>0.4</v>
       </c>
       <c r="Y51" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z51">
         <v>43.7</v>
@@ -9760,11 +10018,11 @@
       <c r="K52">
         <v>124.14</v>
       </c>
-      <c r="L52">
-        <v>0.3</v>
+      <c r="L52" t="s">
+        <v>968</v>
       </c>
       <c r="M52" t="s">
-        <v>974</v>
+        <v>1060</v>
       </c>
       <c r="N52">
         <v>2.43</v>
@@ -9800,7 +10058,7 @@
         <v>2.46</v>
       </c>
       <c r="Y52" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z52">
         <v>43.7</v>
@@ -9873,11 +10131,11 @@
       <c r="K53">
         <v>288.57</v>
       </c>
-      <c r="L53">
-        <v>9.199999999999999</v>
+      <c r="L53" t="s">
+        <v>971</v>
       </c>
       <c r="M53" t="s">
-        <v>975</v>
+        <v>1061</v>
       </c>
       <c r="N53">
         <v>3.33</v>
@@ -9910,7 +10168,7 @@
         <v>37</v>
       </c>
       <c r="Y53" t="s">
-        <v>1138</v>
+        <v>1224</v>
       </c>
       <c r="Z53">
         <v>62</v>
@@ -9986,8 +10244,8 @@
       <c r="K54">
         <v>111.23</v>
       </c>
-      <c r="L54">
-        <v>0.1</v>
+      <c r="L54" t="s">
+        <v>972</v>
       </c>
       <c r="N54">
         <v>2.04</v>
@@ -10023,7 +10281,7 @@
         <v>0.5</v>
       </c>
       <c r="Y54" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z54">
         <v>27.9</v>
@@ -10099,11 +10357,11 @@
       <c r="K55">
         <v>124.35</v>
       </c>
-      <c r="L55">
-        <v>1.2</v>
+      <c r="L55" t="s">
+        <v>940</v>
       </c>
       <c r="M55" t="s">
-        <v>960</v>
+        <v>1046</v>
       </c>
       <c r="N55">
         <v>4.51</v>
@@ -10136,7 +10394,7 @@
         <v>1.05</v>
       </c>
       <c r="Y55" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z55">
         <v>72</v>
@@ -10210,7 +10468,7 @@
         <v>711</v>
       </c>
       <c r="M56" t="s">
-        <v>976</v>
+        <v>1062</v>
       </c>
       <c r="N56">
         <v>4.06</v>
@@ -10243,7 +10501,7 @@
         <v>480</v>
       </c>
       <c r="Y56" t="s">
-        <v>1139</v>
+        <v>1225</v>
       </c>
       <c r="Z56">
         <v>52.4</v>
@@ -10316,11 +10574,11 @@
       <c r="K57">
         <v>122.14</v>
       </c>
-      <c r="L57">
-        <v>2.3</v>
+      <c r="L57" t="s">
+        <v>936</v>
       </c>
       <c r="M57" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N57">
         <v>1.59</v>
@@ -10356,7 +10614,7 @@
         <v>3.14</v>
       </c>
       <c r="Y57" t="s">
-        <v>1140</v>
+        <v>1226</v>
       </c>
       <c r="Z57">
         <v>22.8</v>
@@ -10421,7 +10679,7 @@
         <v>802</v>
       </c>
       <c r="Y58" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z58">
         <v>11.3</v>
@@ -10479,11 +10737,11 @@
       <c r="K59">
         <v>143.86</v>
       </c>
-      <c r="L59">
-        <v>15.8</v>
+      <c r="L59" t="s">
+        <v>973</v>
       </c>
       <c r="M59" t="s">
-        <v>977</v>
+        <v>1063</v>
       </c>
       <c r="N59">
         <v>4.25</v>
@@ -10516,7 +10774,7 @@
         <v>401</v>
       </c>
       <c r="Y59" t="s">
-        <v>1141</v>
+        <v>1227</v>
       </c>
       <c r="Z59">
         <v>37.8</v>
@@ -10592,11 +10850,11 @@
       <c r="K60">
         <v>132.3</v>
       </c>
-      <c r="L60">
-        <v>1.8</v>
+      <c r="L60" t="s">
+        <v>951</v>
       </c>
       <c r="M60" t="s">
-        <v>978</v>
+        <v>1064</v>
       </c>
       <c r="N60">
         <v>2.77</v>
@@ -10632,7 +10890,7 @@
         <v>1.28</v>
       </c>
       <c r="Y60" t="s">
-        <v>1142</v>
+        <v>1228</v>
       </c>
       <c r="Z60">
         <v>21.4</v>
@@ -10708,11 +10966,11 @@
       <c r="K61">
         <v>112.33</v>
       </c>
-      <c r="L61">
-        <v>1</v>
+      <c r="L61" t="s">
+        <v>970</v>
       </c>
       <c r="M61" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N61">
         <v>1.41</v>
@@ -10745,7 +11003,7 @@
         <v>3</v>
       </c>
       <c r="Y61" t="s">
-        <v>1143</v>
+        <v>1229</v>
       </c>
       <c r="Z61">
         <v>19.9</v>
@@ -10821,11 +11079,11 @@
       <c r="K62">
         <v>110.05</v>
       </c>
-      <c r="L62">
-        <v>1.1</v>
+      <c r="L62" t="s">
+        <v>959</v>
       </c>
       <c r="M62" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N62">
         <v>1.88</v>
@@ -10861,7 +11119,7 @@
         <v>11.16</v>
       </c>
       <c r="Y62" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z62">
         <v>6.8</v>
@@ -10937,11 +11195,11 @@
       <c r="K63">
         <v>122.19</v>
       </c>
-      <c r="L63">
-        <v>2.1</v>
+      <c r="L63" t="s">
+        <v>946</v>
       </c>
       <c r="M63" t="s">
-        <v>960</v>
+        <v>1046</v>
       </c>
       <c r="N63">
         <v>3.97</v>
@@ -10977,7 +11235,7 @@
         <v>1.46</v>
       </c>
       <c r="Y63" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z63">
         <v>25.9</v>
@@ -11053,11 +11311,11 @@
       <c r="K64">
         <v>172.73</v>
       </c>
-      <c r="L64">
-        <v>7.1</v>
+      <c r="L64" t="s">
+        <v>974</v>
       </c>
       <c r="M64" t="s">
-        <v>979</v>
+        <v>1065</v>
       </c>
       <c r="N64">
         <v>5.22</v>
@@ -11081,7 +11339,7 @@
         <v>39</v>
       </c>
       <c r="U64" t="s">
-        <v>1081</v>
+        <v>1167</v>
       </c>
       <c r="V64">
         <v>61.7</v>
@@ -11093,7 +11351,7 @@
         <v>0.13</v>
       </c>
       <c r="Y64" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z64">
         <v>20.3</v>
@@ -11169,11 +11427,11 @@
       <c r="K65">
         <v>133.61</v>
       </c>
-      <c r="L65">
-        <v>4.9</v>
+      <c r="L65" t="s">
+        <v>975</v>
       </c>
       <c r="M65" t="s">
-        <v>980</v>
+        <v>1066</v>
       </c>
       <c r="N65">
         <v>2.06</v>
@@ -11209,7 +11467,7 @@
         <v>0.05</v>
       </c>
       <c r="Y65" t="s">
-        <v>1144</v>
+        <v>1230</v>
       </c>
       <c r="Z65">
         <v>57.3</v>
@@ -11285,11 +11543,11 @@
       <c r="K66">
         <v>112.85</v>
       </c>
-      <c r="L66">
-        <v>1.4</v>
+      <c r="L66" t="s">
+        <v>937</v>
       </c>
       <c r="M66" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N66">
         <v>1.56</v>
@@ -11325,7 +11583,7 @@
         <v>9.99</v>
       </c>
       <c r="Y66" t="s">
-        <v>1122</v>
+        <v>1208</v>
       </c>
       <c r="Z66">
         <v>12.5</v>
@@ -11401,11 +11659,11 @@
       <c r="K67">
         <v>268.36</v>
       </c>
-      <c r="L67">
-        <v>7.2</v>
+      <c r="L67" t="s">
+        <v>976</v>
       </c>
       <c r="M67" t="s">
-        <v>981</v>
+        <v>1067</v>
       </c>
       <c r="N67">
         <v>3.87</v>
@@ -11441,7 +11699,7 @@
         <v>0.27</v>
       </c>
       <c r="Y67" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z67">
         <v>36.1</v>
@@ -11517,11 +11775,11 @@
       <c r="K68">
         <v>101.87</v>
       </c>
-      <c r="L68">
-        <v>0.2</v>
+      <c r="L68" t="s">
+        <v>977</v>
       </c>
       <c r="M68" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N68">
         <v>1.35</v>
@@ -11545,7 +11803,7 @@
         <v>3.6</v>
       </c>
       <c r="U68" t="s">
-        <v>1082</v>
+        <v>1168</v>
       </c>
       <c r="V68">
         <v>81.3</v>
@@ -11557,7 +11815,7 @@
         <v>4.46</v>
       </c>
       <c r="Y68" t="s">
-        <v>1135</v>
+        <v>1221</v>
       </c>
       <c r="Z68">
         <v>35.5</v>
@@ -11630,11 +11888,11 @@
       <c r="K69">
         <v>107.43</v>
       </c>
-      <c r="L69">
-        <v>0.8</v>
+      <c r="L69" t="s">
+        <v>967</v>
       </c>
       <c r="M69" t="s">
-        <v>941</v>
+        <v>1027</v>
       </c>
       <c r="N69">
         <v>2.06</v>
@@ -11667,7 +11925,7 @@
         <v>25</v>
       </c>
       <c r="Y69" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z69">
         <v>57</v>
@@ -11737,11 +11995,11 @@
       <c r="K70">
         <v>142.92</v>
       </c>
-      <c r="L70">
-        <v>3.7</v>
+      <c r="L70" t="s">
+        <v>954</v>
       </c>
       <c r="M70" t="s">
-        <v>982</v>
+        <v>1068</v>
       </c>
       <c r="N70">
         <v>2.87</v>
@@ -11777,7 +12035,7 @@
         <v>1.6</v>
       </c>
       <c r="Y70" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z70">
         <v>55.8</v>
@@ -11853,11 +12111,11 @@
       <c r="K71">
         <v>262.95</v>
       </c>
-      <c r="L71">
-        <v>9.5</v>
+      <c r="L71" t="s">
+        <v>978</v>
       </c>
       <c r="M71" t="s">
-        <v>983</v>
+        <v>1069</v>
       </c>
       <c r="N71">
         <v>4.7</v>
@@ -11881,7 +12139,7 @@
         <v>64.90000000000001</v>
       </c>
       <c r="U71" t="s">
-        <v>1083</v>
+        <v>1169</v>
       </c>
       <c r="V71">
         <v>61.2</v>
@@ -11890,7 +12148,7 @@
         <v>576</v>
       </c>
       <c r="Y71" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z71">
         <v>54.5</v>
@@ -11966,11 +12224,11 @@
       <c r="K72">
         <v>111.65</v>
       </c>
-      <c r="L72">
-        <v>1.4</v>
+      <c r="L72" t="s">
+        <v>937</v>
       </c>
       <c r="M72" t="s">
-        <v>951</v>
+        <v>1037</v>
       </c>
       <c r="N72">
         <v>4.48</v>
@@ -12003,7 +12261,7 @@
         <v>0.16</v>
       </c>
       <c r="Y72" t="s">
-        <v>1118</v>
+        <v>1204</v>
       </c>
       <c r="Z72">
         <v>37.2</v>
@@ -12079,11 +12337,11 @@
       <c r="K73">
         <v>116.19</v>
       </c>
-      <c r="L73">
-        <v>2.1</v>
+      <c r="L73" t="s">
+        <v>946</v>
       </c>
       <c r="M73" t="s">
-        <v>984</v>
+        <v>1070</v>
       </c>
       <c r="N73">
         <v>2.46</v>
@@ -12119,7 +12377,7 @@
         <v>0.98</v>
       </c>
       <c r="Y73" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z73">
         <v>40.5</v>
@@ -12192,11 +12450,11 @@
       <c r="K74">
         <v>179.29</v>
       </c>
-      <c r="L74">
-        <v>12.5</v>
+      <c r="L74" t="s">
+        <v>979</v>
       </c>
       <c r="M74" t="s">
-        <v>985</v>
+        <v>1071</v>
       </c>
       <c r="N74">
         <v>2.94</v>
@@ -12232,7 +12490,7 @@
         <v>0.25</v>
       </c>
       <c r="Y74" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z74">
         <v>36.3</v>
@@ -12288,10 +12546,10 @@
         <v>111</v>
       </c>
       <c r="M75" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="Y75" t="s">
-        <v>1145</v>
+        <v>1231</v>
       </c>
       <c r="AB75">
         <v>836</v>
@@ -12340,11 +12598,11 @@
       <c r="K76">
         <v>150.34</v>
       </c>
-      <c r="L76">
-        <v>4.4</v>
+      <c r="L76" t="s">
+        <v>980</v>
       </c>
       <c r="M76" t="s">
-        <v>986</v>
+        <v>1072</v>
       </c>
       <c r="N76">
         <v>2.46</v>
@@ -12380,7 +12638,7 @@
         <v>1.01</v>
       </c>
       <c r="Y76" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z76">
         <v>49.1</v>
@@ -12456,11 +12714,11 @@
       <c r="K77">
         <v>121.64</v>
       </c>
-      <c r="L77">
-        <v>3.3</v>
+      <c r="L77" t="s">
+        <v>969</v>
       </c>
       <c r="M77" t="s">
-        <v>987</v>
+        <v>1073</v>
       </c>
       <c r="N77">
         <v>1.54</v>
@@ -12496,7 +12754,7 @@
         <v>2.62</v>
       </c>
       <c r="Y77" t="s">
-        <v>1146</v>
+        <v>1232</v>
       </c>
       <c r="Z77">
         <v>29</v>
@@ -12572,11 +12830,11 @@
       <c r="K78">
         <v>129</v>
       </c>
-      <c r="L78">
-        <v>3</v>
+      <c r="L78" t="s">
+        <v>981</v>
       </c>
       <c r="M78" t="s">
-        <v>988</v>
+        <v>1074</v>
       </c>
       <c r="N78">
         <v>1.71</v>
@@ -12609,7 +12867,7 @@
         <v>4</v>
       </c>
       <c r="Y78" t="s">
-        <v>1147</v>
+        <v>1233</v>
       </c>
       <c r="Z78">
         <v>17</v>
@@ -12685,11 +12943,11 @@
       <c r="K79">
         <v>180.44</v>
       </c>
-      <c r="L79">
-        <v>7.7</v>
+      <c r="L79" t="s">
+        <v>982</v>
       </c>
       <c r="M79" t="s">
-        <v>989</v>
+        <v>1075</v>
       </c>
       <c r="N79">
         <v>2.22</v>
@@ -12713,7 +12971,7 @@
         <v>29.9</v>
       </c>
       <c r="U79" t="s">
-        <v>1084</v>
+        <v>1170</v>
       </c>
       <c r="V79">
         <v>69.40000000000001</v>
@@ -12725,7 +12983,7 @@
         <v>0.3</v>
       </c>
       <c r="Y79" t="s">
-        <v>1148</v>
+        <v>1234</v>
       </c>
       <c r="Z79">
         <v>65.09999999999999</v>
@@ -12801,11 +13059,11 @@
       <c r="K80">
         <v>151.18</v>
       </c>
-      <c r="L80">
-        <v>3</v>
+      <c r="L80" t="s">
+        <v>981</v>
       </c>
       <c r="M80" t="s">
-        <v>990</v>
+        <v>1076</v>
       </c>
       <c r="N80">
         <v>2.31</v>
@@ -12829,7 +13087,7 @@
         <v>21.1</v>
       </c>
       <c r="U80" t="s">
-        <v>1085</v>
+        <v>1171</v>
       </c>
       <c r="V80">
         <v>71.5</v>
@@ -12841,7 +13099,7 @@
         <v>0.48</v>
       </c>
       <c r="Y80" t="s">
-        <v>1149</v>
+        <v>1235</v>
       </c>
       <c r="Z80">
         <v>48.3</v>
@@ -12917,11 +13175,11 @@
       <c r="K81">
         <v>550.9299999999999</v>
       </c>
-      <c r="L81">
-        <v>39.9</v>
+      <c r="L81" t="s">
+        <v>983</v>
       </c>
       <c r="M81" t="s">
-        <v>991</v>
+        <v>1077</v>
       </c>
       <c r="N81">
         <v>2.14</v>
@@ -12957,7 +13215,7 @@
         <v>1.58</v>
       </c>
       <c r="Y81" t="s">
-        <v>1150</v>
+        <v>1236</v>
       </c>
       <c r="Z81">
         <v>39.7</v>
@@ -13033,11 +13291,11 @@
       <c r="K82">
         <v>119.86</v>
       </c>
-      <c r="L82">
-        <v>0.4</v>
+      <c r="L82" t="s">
+        <v>984</v>
       </c>
       <c r="M82" t="s">
-        <v>992</v>
+        <v>1078</v>
       </c>
       <c r="N82">
         <v>3.67</v>
@@ -13073,7 +13331,7 @@
         <v>1.24</v>
       </c>
       <c r="Y82" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z82">
         <v>76.5</v>
@@ -13146,11 +13404,11 @@
       <c r="K83">
         <v>106.58</v>
       </c>
-      <c r="L83">
-        <v>0.9</v>
+      <c r="L83" t="s">
+        <v>985</v>
       </c>
       <c r="M83" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N83">
         <v>1.75</v>
@@ -13174,7 +13432,7 @@
         <v>3.1</v>
       </c>
       <c r="U83" t="s">
-        <v>1086</v>
+        <v>1172</v>
       </c>
       <c r="V83">
         <v>82.3</v>
@@ -13186,7 +13444,7 @@
         <v>10.79</v>
       </c>
       <c r="Y83" t="s">
-        <v>1151</v>
+        <v>1237</v>
       </c>
       <c r="Z83">
         <v>15.2</v>
@@ -13262,11 +13520,11 @@
       <c r="K84">
         <v>108.15</v>
       </c>
-      <c r="L84">
-        <v>0.8</v>
+      <c r="L84" t="s">
+        <v>967</v>
       </c>
       <c r="M84" t="s">
-        <v>993</v>
+        <v>1079</v>
       </c>
       <c r="N84">
         <v>3.09</v>
@@ -13302,7 +13560,7 @@
         <v>7.58</v>
       </c>
       <c r="Y84" t="s">
-        <v>1152</v>
+        <v>1238</v>
       </c>
       <c r="Z84">
         <v>24.4</v>
@@ -13378,11 +13636,11 @@
       <c r="K85">
         <v>110.62</v>
       </c>
-      <c r="L85">
-        <v>0.6</v>
+      <c r="L85" t="s">
+        <v>952</v>
       </c>
       <c r="M85" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N85">
         <v>1.29</v>
@@ -13415,7 +13673,7 @@
         <v>2</v>
       </c>
       <c r="Y85" t="s">
-        <v>1145</v>
+        <v>1231</v>
       </c>
       <c r="Z85">
         <v>22.8</v>
@@ -13491,11 +13749,11 @@
       <c r="K86">
         <v>162.47</v>
       </c>
-      <c r="L86">
-        <v>3.9</v>
+      <c r="L86" t="s">
+        <v>986</v>
       </c>
       <c r="M86" t="s">
-        <v>994</v>
+        <v>1080</v>
       </c>
       <c r="N86">
         <v>1.98</v>
@@ -13531,7 +13789,7 @@
         <v>1.33</v>
       </c>
       <c r="Y86" t="s">
-        <v>1153</v>
+        <v>1239</v>
       </c>
       <c r="Z86">
         <v>23.7</v>
@@ -13607,8 +13865,8 @@
       <c r="K87">
         <v>105.48</v>
       </c>
-      <c r="L87">
-        <v>0.5</v>
+      <c r="L87" t="s">
+        <v>987</v>
       </c>
       <c r="N87">
         <v>1.42</v>
@@ -13717,11 +13975,11 @@
       <c r="K88">
         <v>125.6</v>
       </c>
-      <c r="L88">
-        <v>0.8</v>
+      <c r="L88" t="s">
+        <v>967</v>
       </c>
       <c r="M88" t="s">
-        <v>995</v>
+        <v>1081</v>
       </c>
       <c r="N88">
         <v>2.76</v>
@@ -13757,7 +14015,7 @@
         <v>1.49</v>
       </c>
       <c r="Y88" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z88">
         <v>25.1</v>
@@ -13833,11 +14091,11 @@
       <c r="K89">
         <v>182.75</v>
       </c>
-      <c r="L89">
-        <v>5.2</v>
+      <c r="L89" t="s">
+        <v>988</v>
       </c>
       <c r="M89" t="s">
-        <v>996</v>
+        <v>1082</v>
       </c>
       <c r="N89">
         <v>2.84</v>
@@ -13861,7 +14119,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="U89" t="s">
-        <v>1087</v>
+        <v>1173</v>
       </c>
       <c r="V89">
         <v>73.2</v>
@@ -13873,7 +14131,7 @@
         <v>0.41</v>
       </c>
       <c r="Y89" t="s">
-        <v>1125</v>
+        <v>1211</v>
       </c>
       <c r="Z89">
         <v>38.8</v>
@@ -13949,11 +14207,11 @@
       <c r="K90">
         <v>180.51</v>
       </c>
-      <c r="L90">
-        <v>4.7</v>
+      <c r="L90" t="s">
+        <v>989</v>
       </c>
       <c r="M90" t="s">
-        <v>997</v>
+        <v>1083</v>
       </c>
       <c r="N90">
         <v>3.49</v>
@@ -13989,7 +14247,7 @@
         <v>0.25</v>
       </c>
       <c r="Y90" t="s">
-        <v>1154</v>
+        <v>1240</v>
       </c>
       <c r="Z90">
         <v>33.4</v>
@@ -14062,11 +14320,11 @@
       <c r="K91">
         <v>99.55</v>
       </c>
-      <c r="L91">
-        <v>0.6</v>
+      <c r="L91" t="s">
+        <v>952</v>
       </c>
       <c r="M91" t="s">
-        <v>944</v>
+        <v>1030</v>
       </c>
       <c r="N91">
         <v>3.57</v>
@@ -14093,7 +14351,7 @@
         <v>92</v>
       </c>
       <c r="Y91" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z91">
         <v>0.2</v>
@@ -14163,11 +14421,11 @@
       <c r="K92">
         <v>126.6</v>
       </c>
-      <c r="L92">
-        <v>1.1</v>
+      <c r="L92" t="s">
+        <v>959</v>
       </c>
       <c r="M92" t="s">
-        <v>998</v>
+        <v>1084</v>
       </c>
       <c r="N92">
         <v>2.08</v>
@@ -14203,7 +14461,7 @@
         <v>0.95</v>
       </c>
       <c r="Y92" t="s">
-        <v>1138</v>
+        <v>1224</v>
       </c>
       <c r="Z92">
         <v>14.4</v>
@@ -14279,11 +14537,11 @@
       <c r="K93">
         <v>155.68</v>
       </c>
-      <c r="L93">
-        <v>1.1</v>
+      <c r="L93" t="s">
+        <v>959</v>
       </c>
       <c r="M93" t="s">
-        <v>999</v>
+        <v>1085</v>
       </c>
       <c r="N93">
         <v>3.3</v>
@@ -14319,7 +14577,7 @@
         <v>0.09</v>
       </c>
       <c r="Y93" t="s">
-        <v>1125</v>
+        <v>1211</v>
       </c>
       <c r="Z93">
         <v>48.2</v>
@@ -14395,11 +14653,11 @@
       <c r="K94">
         <v>135.87</v>
       </c>
-      <c r="L94">
-        <v>3.3</v>
+      <c r="L94" t="s">
+        <v>969</v>
       </c>
       <c r="M94" t="s">
-        <v>1000</v>
+        <v>1086</v>
       </c>
       <c r="N94">
         <v>2.67</v>
@@ -14435,7 +14693,7 @@
         <v>0.83</v>
       </c>
       <c r="Y94" t="s">
-        <v>1155</v>
+        <v>1241</v>
       </c>
       <c r="Z94">
         <v>45.4</v>
@@ -14511,11 +14769,11 @@
       <c r="K95">
         <v>116.86</v>
       </c>
-      <c r="L95">
-        <v>2.8</v>
+      <c r="L95" t="s">
+        <v>953</v>
       </c>
       <c r="M95" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N95">
         <v>1.6</v>
@@ -14551,7 +14809,7 @@
         <v>2.8</v>
       </c>
       <c r="Y95" t="s">
-        <v>1156</v>
+        <v>1242</v>
       </c>
       <c r="Z95">
         <v>41.6</v>
@@ -14627,11 +14885,11 @@
       <c r="K96">
         <v>130.02</v>
       </c>
-      <c r="L96">
-        <v>3</v>
+      <c r="L96" t="s">
+        <v>981</v>
       </c>
       <c r="M96" t="s">
-        <v>1001</v>
+        <v>1087</v>
       </c>
       <c r="N96">
         <v>2.09</v>
@@ -14655,7 +14913,7 @@
         <v>6.4</v>
       </c>
       <c r="U96" t="s">
-        <v>1088</v>
+        <v>1174</v>
       </c>
       <c r="V96">
         <v>78.90000000000001</v>
@@ -14667,7 +14925,7 @@
         <v>2.15</v>
       </c>
       <c r="Y96" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z96">
         <v>32.1</v>
@@ -14743,8 +15001,8 @@
       <c r="K97">
         <v>155.86</v>
       </c>
-      <c r="L97">
-        <v>5.2</v>
+      <c r="L97" t="s">
+        <v>988</v>
       </c>
       <c r="N97">
         <v>3.14</v>
@@ -14780,7 +15038,7 @@
         <v>0.41</v>
       </c>
       <c r="Y97" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z97">
         <v>16.9</v>
@@ -14856,8 +15114,8 @@
       <c r="K98">
         <v>223.13</v>
       </c>
-      <c r="L98">
-        <v>23.6</v>
+      <c r="L98" t="s">
+        <v>990</v>
       </c>
       <c r="N98">
         <v>4.32</v>
@@ -14893,7 +15151,7 @@
         <v>0.17</v>
       </c>
       <c r="Y98" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z98">
         <v>19.6</v>
@@ -14966,11 +15224,11 @@
       <c r="K99">
         <v>125.71</v>
       </c>
-      <c r="L99">
-        <v>2.6</v>
+      <c r="L99" t="s">
+        <v>944</v>
       </c>
       <c r="M99" t="s">
-        <v>1002</v>
+        <v>1088</v>
       </c>
       <c r="N99">
         <v>2.24</v>
@@ -15003,7 +15261,7 @@
         <v>1.88</v>
       </c>
       <c r="Y99" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z99">
         <v>36.7</v>
@@ -15071,7 +15329,7 @@
         <v>51</v>
       </c>
       <c r="M100" t="s">
-        <v>1003</v>
+        <v>1089</v>
       </c>
       <c r="N100">
         <v>1.44</v>
@@ -15092,13 +15350,13 @@
         <v>35.6</v>
       </c>
       <c r="U100" t="s">
-        <v>1089</v>
+        <v>1175</v>
       </c>
       <c r="V100">
         <v>83</v>
       </c>
       <c r="Y100" t="s">
-        <v>1122</v>
+        <v>1208</v>
       </c>
       <c r="AB100">
         <v>38019</v>
@@ -15159,11 +15417,11 @@
       <c r="K101">
         <v>118.38</v>
       </c>
-      <c r="L101">
-        <v>2.3</v>
+      <c r="L101" t="s">
+        <v>936</v>
       </c>
       <c r="M101" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N101">
         <v>1.63</v>
@@ -15199,7 +15457,7 @@
         <v>2.41</v>
       </c>
       <c r="Y101" t="s">
-        <v>1157</v>
+        <v>1243</v>
       </c>
       <c r="Z101">
         <v>32.1</v>
@@ -15275,11 +15533,11 @@
       <c r="K102">
         <v>115.09</v>
       </c>
-      <c r="L102">
-        <v>1.7</v>
+      <c r="L102" t="s">
+        <v>991</v>
       </c>
       <c r="M102" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N102">
         <v>1.37</v>
@@ -15315,7 +15573,7 @@
         <v>13.05</v>
       </c>
       <c r="Y102" t="s">
-        <v>1158</v>
+        <v>1244</v>
       </c>
       <c r="Z102">
         <v>10.6</v>
@@ -15391,11 +15649,11 @@
       <c r="K103">
         <v>184.33</v>
       </c>
-      <c r="L103">
-        <v>5.6</v>
+      <c r="L103" t="s">
+        <v>947</v>
       </c>
       <c r="M103" t="s">
-        <v>1004</v>
+        <v>1090</v>
       </c>
       <c r="N103">
         <v>4.08</v>
@@ -15431,7 +15689,7 @@
         <v>0.21</v>
       </c>
       <c r="Y103" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z103">
         <v>21.7</v>
@@ -15507,11 +15765,11 @@
       <c r="K104">
         <v>418.34</v>
       </c>
-      <c r="L104">
-        <v>9.4</v>
+      <c r="L104" t="s">
+        <v>992</v>
       </c>
       <c r="M104" t="s">
-        <v>1005</v>
+        <v>1091</v>
       </c>
       <c r="N104">
         <v>4.21</v>
@@ -15547,7 +15805,7 @@
         <v>0.12</v>
       </c>
       <c r="Y104" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z104">
         <v>11</v>
@@ -15623,11 +15881,11 @@
       <c r="K105">
         <v>121.46</v>
       </c>
-      <c r="L105">
-        <v>0.7</v>
+      <c r="L105" t="s">
+        <v>993</v>
       </c>
       <c r="M105" t="s">
-        <v>1006</v>
+        <v>1092</v>
       </c>
       <c r="N105">
         <v>2</v>
@@ -15651,7 +15909,7 @@
         <v>6.7</v>
       </c>
       <c r="U105" t="s">
-        <v>1090</v>
+        <v>1176</v>
       </c>
       <c r="V105">
         <v>76</v>
@@ -15663,7 +15921,7 @@
         <v>0.93</v>
       </c>
       <c r="Y105" t="s">
-        <v>1159</v>
+        <v>1245</v>
       </c>
       <c r="Z105">
         <v>36.7</v>
@@ -15739,8 +15997,8 @@
       <c r="K106">
         <v>99.7</v>
       </c>
-      <c r="L106">
-        <v>0.2</v>
+      <c r="L106" t="s">
+        <v>977</v>
       </c>
       <c r="N106">
         <v>1.87</v>
@@ -15773,7 +16031,7 @@
         <v>53</v>
       </c>
       <c r="Y106" t="s">
-        <v>1160</v>
+        <v>1246</v>
       </c>
       <c r="Z106">
         <v>16.4</v>
@@ -15849,11 +16107,11 @@
       <c r="K107">
         <v>108.73</v>
       </c>
-      <c r="L107">
-        <v>-1.7</v>
+      <c r="L107" t="s">
+        <v>994</v>
       </c>
       <c r="M107" t="s">
-        <v>951</v>
+        <v>1037</v>
       </c>
       <c r="N107">
         <v>5.88</v>
@@ -15889,7 +16147,7 @@
         <v>0.23</v>
       </c>
       <c r="Y107" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z107">
         <v>46.3</v>
@@ -15965,11 +16223,11 @@
       <c r="K108">
         <v>113.45</v>
       </c>
-      <c r="L108">
-        <v>1.6</v>
+      <c r="L108" t="s">
+        <v>942</v>
       </c>
       <c r="M108" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N108">
         <v>1.23</v>
@@ -15993,7 +16251,7 @@
         <v>6.1</v>
       </c>
       <c r="U108" t="s">
-        <v>1091</v>
+        <v>1177</v>
       </c>
       <c r="V108">
         <v>82.3</v>
@@ -16005,7 +16263,7 @@
         <v>5.07</v>
       </c>
       <c r="Y108" t="s">
-        <v>1161</v>
+        <v>1247</v>
       </c>
       <c r="Z108">
         <v>37.1</v>
@@ -16076,7 +16334,7 @@
         <v>143</v>
       </c>
       <c r="M109" t="s">
-        <v>974</v>
+        <v>1060</v>
       </c>
       <c r="N109">
         <v>4.05</v>
@@ -16109,7 +16367,7 @@
         <v>2</v>
       </c>
       <c r="Y109" t="s">
-        <v>1162</v>
+        <v>1248</v>
       </c>
       <c r="Z109">
         <v>10</v>
@@ -16179,11 +16437,11 @@
       <c r="K110">
         <v>135.02</v>
       </c>
-      <c r="L110">
-        <v>2.3</v>
+      <c r="L110" t="s">
+        <v>936</v>
       </c>
       <c r="M110" t="s">
-        <v>1007</v>
+        <v>1093</v>
       </c>
       <c r="N110">
         <v>4.56</v>
@@ -16219,7 +16477,7 @@
         <v>0.53</v>
       </c>
       <c r="Y110" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z110">
         <v>48.2</v>
@@ -16292,11 +16550,11 @@
       <c r="K111">
         <v>129.91</v>
       </c>
-      <c r="L111">
-        <v>0.4</v>
+      <c r="L111" t="s">
+        <v>984</v>
       </c>
       <c r="M111" t="s">
-        <v>1008</v>
+        <v>1094</v>
       </c>
       <c r="N111">
         <v>1.41</v>
@@ -16332,7 +16590,7 @@
         <v>0.38</v>
       </c>
       <c r="Y111" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z111">
         <v>50.7</v>
@@ -16408,11 +16666,11 @@
       <c r="K112">
         <v>141.54</v>
       </c>
-      <c r="L112">
-        <v>3.6</v>
+      <c r="L112" t="s">
+        <v>995</v>
       </c>
       <c r="M112" t="s">
-        <v>1009</v>
+        <v>1095</v>
       </c>
       <c r="N112">
         <v>2.13</v>
@@ -16518,11 +16776,11 @@
       <c r="K113">
         <v>112.1</v>
       </c>
-      <c r="L113">
-        <v>0.5</v>
+      <c r="L113" t="s">
+        <v>987</v>
       </c>
       <c r="M113" t="s">
-        <v>974</v>
+        <v>1060</v>
       </c>
       <c r="N113">
         <v>3.05</v>
@@ -16552,7 +16810,7 @@
         <v>88</v>
       </c>
       <c r="Y113" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z113">
         <v>2.5</v>
@@ -16622,11 +16880,11 @@
       <c r="K114">
         <v>166.2</v>
       </c>
-      <c r="L114">
-        <v>4.8</v>
+      <c r="L114" t="s">
+        <v>996</v>
       </c>
       <c r="M114" t="s">
-        <v>1010</v>
+        <v>1096</v>
       </c>
       <c r="N114">
         <v>1.26</v>
@@ -16662,7 +16920,7 @@
         <v>0.31</v>
       </c>
       <c r="Y114" t="s">
-        <v>1163</v>
+        <v>1249</v>
       </c>
       <c r="Z114">
         <v>46.2</v>
@@ -16727,7 +16985,7 @@
         <v>857</v>
       </c>
       <c r="M115" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="P115">
         <v>2</v>
@@ -16745,7 +17003,7 @@
         <v>11.72</v>
       </c>
       <c r="Y115" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z115">
         <v>6.1</v>
@@ -16806,11 +17064,11 @@
       <c r="K116">
         <v>195.76</v>
       </c>
-      <c r="L116">
-        <v>7.3</v>
+      <c r="L116" t="s">
+        <v>997</v>
       </c>
       <c r="M116" t="s">
-        <v>1011</v>
+        <v>1097</v>
       </c>
       <c r="N116">
         <v>2.9</v>
@@ -16846,7 +17104,7 @@
         <v>0.65</v>
       </c>
       <c r="Y116" t="s">
-        <v>1164</v>
+        <v>1250</v>
       </c>
       <c r="Z116">
         <v>39.3</v>
@@ -16922,11 +17180,11 @@
       <c r="K117">
         <v>116.32</v>
       </c>
-      <c r="L117">
-        <v>2.6</v>
+      <c r="L117" t="s">
+        <v>944</v>
       </c>
       <c r="M117" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N117">
         <v>1.75</v>
@@ -16962,7 +17220,7 @@
         <v>1.23</v>
       </c>
       <c r="Y117" t="s">
-        <v>1165</v>
+        <v>1251</v>
       </c>
       <c r="Z117">
         <v>31.8</v>
@@ -17035,11 +17293,11 @@
       <c r="K118">
         <v>111.07</v>
       </c>
-      <c r="L118">
-        <v>0.2</v>
+      <c r="L118" t="s">
+        <v>977</v>
       </c>
       <c r="M118" t="s">
-        <v>1012</v>
+        <v>1098</v>
       </c>
       <c r="N118">
         <v>2.42</v>
@@ -17063,7 +17321,7 @@
         <v>19.2</v>
       </c>
       <c r="U118" t="s">
-        <v>1092</v>
+        <v>1178</v>
       </c>
       <c r="V118">
         <v>76.5</v>
@@ -17075,7 +17333,7 @@
         <v>1.6</v>
       </c>
       <c r="Y118" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z118">
         <v>53.1</v>
@@ -17151,11 +17409,11 @@
       <c r="K119">
         <v>182.31</v>
       </c>
-      <c r="L119">
-        <v>2.8</v>
+      <c r="L119" t="s">
+        <v>953</v>
       </c>
       <c r="M119" t="s">
-        <v>1013</v>
+        <v>1099</v>
       </c>
       <c r="N119">
         <v>4.85</v>
@@ -17191,7 +17449,7 @@
         <v>0.27</v>
       </c>
       <c r="Y119" t="s">
-        <v>1118</v>
+        <v>1204</v>
       </c>
       <c r="Z119">
         <v>6.8</v>
@@ -17267,11 +17525,11 @@
       <c r="K120">
         <v>168.18</v>
       </c>
-      <c r="L120">
-        <v>8.800000000000001</v>
+      <c r="L120" t="s">
+        <v>998</v>
       </c>
       <c r="M120" t="s">
-        <v>1014</v>
+        <v>1100</v>
       </c>
       <c r="N120">
         <v>2.15</v>
@@ -17295,7 +17553,7 @@
         <v>36.8</v>
       </c>
       <c r="U120" t="s">
-        <v>1093</v>
+        <v>1179</v>
       </c>
       <c r="V120">
         <v>66.90000000000001</v>
@@ -17307,7 +17565,7 @@
         <v>0.39</v>
       </c>
       <c r="Y120" t="s">
-        <v>1166</v>
+        <v>1252</v>
       </c>
       <c r="Z120">
         <v>73.90000000000001</v>
@@ -17380,8 +17638,8 @@
       <c r="K121">
         <v>157.97</v>
       </c>
-      <c r="L121">
-        <v>3.7</v>
+      <c r="L121" t="s">
+        <v>954</v>
       </c>
       <c r="N121">
         <v>3.4</v>
@@ -17414,7 +17672,7 @@
         <v>195</v>
       </c>
       <c r="Y121" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z121">
         <v>8.300000000000001</v>
@@ -17476,13 +17734,13 @@
         <v>864</v>
       </c>
       <c r="M122" t="s">
-        <v>944</v>
+        <v>1030</v>
       </c>
       <c r="Q122">
         <v>133000000</v>
       </c>
       <c r="Y122" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="AB122">
         <v>10084</v>
@@ -17534,11 +17792,11 @@
       <c r="K123">
         <v>188.73</v>
       </c>
-      <c r="L123">
-        <v>5.6</v>
+      <c r="L123" t="s">
+        <v>947</v>
       </c>
       <c r="M123" t="s">
-        <v>1015</v>
+        <v>1101</v>
       </c>
       <c r="N123">
         <v>1.92</v>
@@ -17574,7 +17832,7 @@
         <v>0.36</v>
       </c>
       <c r="Y123" t="s">
-        <v>1167</v>
+        <v>1253</v>
       </c>
       <c r="Z123">
         <v>60.4</v>
@@ -17650,8 +17908,8 @@
       <c r="K124">
         <v>115.91</v>
       </c>
-      <c r="L124">
-        <v>2.6</v>
+      <c r="L124" t="s">
+        <v>944</v>
       </c>
       <c r="N124">
         <v>1.59</v>
@@ -17687,7 +17945,7 @@
         <v>10.29</v>
       </c>
       <c r="Y124" t="s">
-        <v>1168</v>
+        <v>1254</v>
       </c>
       <c r="Z124">
         <v>12.3</v>
@@ -17763,11 +18021,11 @@
       <c r="K125">
         <v>114.24</v>
       </c>
-      <c r="L125">
-        <v>1.6</v>
+      <c r="L125" t="s">
+        <v>942</v>
       </c>
       <c r="M125" t="s">
-        <v>1016</v>
+        <v>1102</v>
       </c>
       <c r="N125">
         <v>1.71</v>
@@ -17791,7 +18049,7 @@
         <v>4.7</v>
       </c>
       <c r="U125" t="s">
-        <v>1094</v>
+        <v>1180</v>
       </c>
       <c r="V125">
         <v>81.90000000000001</v>
@@ -17803,7 +18061,7 @@
         <v>11.49</v>
       </c>
       <c r="Y125" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z125">
         <v>12.6</v>
@@ -17879,11 +18137,11 @@
       <c r="K126">
         <v>162.74</v>
       </c>
-      <c r="L126">
-        <v>5.4</v>
+      <c r="L126" t="s">
+        <v>999</v>
       </c>
       <c r="M126" t="s">
-        <v>1017</v>
+        <v>1103</v>
       </c>
       <c r="N126">
         <v>2.4</v>
@@ -17919,7 +18177,7 @@
         <v>0.54</v>
       </c>
       <c r="Y126" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z126">
         <v>36</v>
@@ -17995,11 +18253,11 @@
       <c r="K127">
         <v>109.32</v>
       </c>
-      <c r="L127">
-        <v>-2.5</v>
+      <c r="L127" t="s">
+        <v>1000</v>
       </c>
       <c r="M127" t="s">
-        <v>951</v>
+        <v>1037</v>
       </c>
       <c r="N127">
         <v>6.91</v>
@@ -18035,7 +18293,7 @@
         <v>0.29</v>
       </c>
       <c r="Y127" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z127">
         <v>52.3</v>
@@ -18111,11 +18369,11 @@
       <c r="K128">
         <v>267.51</v>
       </c>
-      <c r="L128">
-        <v>11.4</v>
+      <c r="L128" t="s">
+        <v>1001</v>
       </c>
       <c r="M128" t="s">
-        <v>1018</v>
+        <v>1104</v>
       </c>
       <c r="N128">
         <v>5.39</v>
@@ -18139,7 +18397,7 @@
         <v>75.7</v>
       </c>
       <c r="U128" t="s">
-        <v>1095</v>
+        <v>1181</v>
       </c>
       <c r="V128">
         <v>54.3</v>
@@ -18151,7 +18409,7 @@
         <v>0.54</v>
       </c>
       <c r="Y128" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z128">
         <v>72.2</v>
@@ -18225,7 +18483,7 @@
         <v>28284</v>
       </c>
       <c r="M129" t="s">
-        <v>1019</v>
+        <v>1105</v>
       </c>
       <c r="N129">
         <v>1.9</v>
@@ -18258,7 +18516,7 @@
         <v>89</v>
       </c>
       <c r="Y129" t="s">
-        <v>1169</v>
+        <v>1255</v>
       </c>
       <c r="AA129">
         <v>3.67</v>
@@ -18308,7 +18566,7 @@
         <v>872</v>
       </c>
       <c r="M130" t="s">
-        <v>1020</v>
+        <v>1106</v>
       </c>
       <c r="Q130">
         <v>10220781069</v>
@@ -18317,7 +18575,7 @@
         <v>872</v>
       </c>
       <c r="Y130" t="s">
-        <v>1170</v>
+        <v>1256</v>
       </c>
       <c r="Z130">
         <v>35.6</v>
@@ -18372,11 +18630,11 @@
       <c r="K131">
         <v>120.27</v>
       </c>
-      <c r="L131">
-        <v>2.2</v>
+      <c r="L131" t="s">
+        <v>966</v>
       </c>
       <c r="M131" t="s">
-        <v>1021</v>
+        <v>1107</v>
       </c>
       <c r="N131">
         <v>1.56</v>
@@ -18409,7 +18667,7 @@
         <v>2</v>
       </c>
       <c r="Y131" t="s">
-        <v>1171</v>
+        <v>1257</v>
       </c>
       <c r="Z131">
         <v>14.3</v>
@@ -18485,11 +18743,11 @@
       <c r="K132">
         <v>113.53</v>
       </c>
-      <c r="L132">
-        <v>0.1</v>
+      <c r="L132" t="s">
+        <v>972</v>
       </c>
       <c r="M132" t="s">
-        <v>1022</v>
+        <v>1108</v>
       </c>
       <c r="N132">
         <v>2.89</v>
@@ -18513,7 +18771,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="U132" t="s">
-        <v>1096</v>
+        <v>1182</v>
       </c>
       <c r="V132">
         <v>77.59999999999999</v>
@@ -18525,7 +18783,7 @@
         <v>4.33</v>
       </c>
       <c r="Y132" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z132">
         <v>6.4</v>
@@ -18601,11 +18859,11 @@
       <c r="K133">
         <v>182.32</v>
       </c>
-      <c r="L133">
-        <v>10.6</v>
+      <c r="L133" t="s">
+        <v>1002</v>
       </c>
       <c r="M133" t="s">
-        <v>1023</v>
+        <v>1109</v>
       </c>
       <c r="N133">
         <v>3.51</v>
@@ -18629,7 +18887,7 @@
         <v>57.2</v>
       </c>
       <c r="U133" t="s">
-        <v>1097</v>
+        <v>1183</v>
       </c>
       <c r="V133">
         <v>67.09999999999999</v>
@@ -18641,7 +18899,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Y133" t="s">
-        <v>1172</v>
+        <v>1258</v>
       </c>
       <c r="Z133">
         <v>66.5</v>
@@ -18714,11 +18972,11 @@
       <c r="K134">
         <v>118.17</v>
       </c>
-      <c r="L134">
-        <v>1.3</v>
+      <c r="L134" t="s">
+        <v>1003</v>
       </c>
       <c r="M134" t="s">
-        <v>974</v>
+        <v>1060</v>
       </c>
       <c r="N134">
         <v>2.21</v>
@@ -18739,7 +18997,7 @@
         <v>16.6</v>
       </c>
       <c r="U134" t="s">
-        <v>1098</v>
+        <v>1184</v>
       </c>
       <c r="V134">
         <v>69.09999999999999</v>
@@ -18748,7 +19006,7 @@
         <v>3</v>
       </c>
       <c r="Y134" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z134">
         <v>21.8</v>
@@ -18792,7 +19050,7 @@
         <v>338</v>
       </c>
       <c r="Y135" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="AH135">
         <v>31.952162</v>
@@ -18838,8 +19096,8 @@
       <c r="K136">
         <v>122.07</v>
       </c>
-      <c r="L136">
-        <v>-0.4</v>
+      <c r="L136" t="s">
+        <v>955</v>
       </c>
       <c r="N136">
         <v>2.46</v>
@@ -18875,7 +19133,7 @@
         <v>1.53</v>
       </c>
       <c r="Y136" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z136">
         <v>30.5</v>
@@ -18948,11 +19206,11 @@
       <c r="K137">
         <v>155.99</v>
       </c>
-      <c r="L137">
-        <v>3.6</v>
+      <c r="L137" t="s">
+        <v>995</v>
       </c>
       <c r="M137" t="s">
-        <v>1024</v>
+        <v>1110</v>
       </c>
       <c r="N137">
         <v>3.56</v>
@@ -18988,7 +19246,7 @@
         <v>1.16</v>
       </c>
       <c r="Y137" t="s">
-        <v>1173</v>
+        <v>1259</v>
       </c>
       <c r="Z137">
         <v>5.8</v>
@@ -19064,11 +19322,11 @@
       <c r="K138">
         <v>143.82</v>
       </c>
-      <c r="L138">
-        <v>2.8</v>
+      <c r="L138" t="s">
+        <v>953</v>
       </c>
       <c r="M138" t="s">
-        <v>1025</v>
+        <v>1111</v>
       </c>
       <c r="N138">
         <v>2.43</v>
@@ -19092,7 +19350,7 @@
         <v>17.2</v>
       </c>
       <c r="U138" t="s">
-        <v>1099</v>
+        <v>1185</v>
       </c>
       <c r="V138">
         <v>74.09999999999999</v>
@@ -19104,7 +19362,7 @@
         <v>1.55</v>
       </c>
       <c r="Y138" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z138">
         <v>36.5</v>
@@ -19180,11 +19438,11 @@
       <c r="K139">
         <v>129.78</v>
       </c>
-      <c r="L139">
-        <v>2.1</v>
+      <c r="L139" t="s">
+        <v>946</v>
       </c>
       <c r="M139" t="s">
-        <v>1026</v>
+        <v>1112</v>
       </c>
       <c r="N139">
         <v>2.25</v>
@@ -19220,7 +19478,7 @@
         <v>1.28</v>
       </c>
       <c r="Y139" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z139">
         <v>30.9</v>
@@ -19296,11 +19554,11 @@
       <c r="K140">
         <v>129.61</v>
       </c>
-      <c r="L140">
-        <v>2.5</v>
+      <c r="L140" t="s">
+        <v>945</v>
       </c>
       <c r="M140" t="s">
-        <v>1027</v>
+        <v>1113</v>
       </c>
       <c r="N140">
         <v>2.58</v>
@@ -19336,7 +19594,7 @@
         <v>1.12</v>
       </c>
       <c r="Y140" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z140">
         <v>53.5</v>
@@ -19412,11 +19670,11 @@
       <c r="K141">
         <v>114.11</v>
       </c>
-      <c r="L141">
-        <v>2.2</v>
+      <c r="L141" t="s">
+        <v>966</v>
       </c>
       <c r="M141" t="s">
-        <v>1028</v>
+        <v>1114</v>
       </c>
       <c r="N141">
         <v>1.46</v>
@@ -19452,7 +19710,7 @@
         <v>2.93</v>
       </c>
       <c r="Y141" t="s">
-        <v>1174</v>
+        <v>1260</v>
       </c>
       <c r="Z141">
         <v>23.2</v>
@@ -19528,11 +19786,11 @@
       <c r="K142">
         <v>110.62</v>
       </c>
-      <c r="L142">
-        <v>0.3</v>
+      <c r="L142" t="s">
+        <v>968</v>
       </c>
       <c r="M142" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N142">
         <v>1.38</v>
@@ -19568,7 +19826,7 @@
         <v>3.78</v>
       </c>
       <c r="Y142" t="s">
-        <v>1118</v>
+        <v>1204</v>
       </c>
       <c r="Z142">
         <v>27.7</v>
@@ -19644,11 +19902,11 @@
       <c r="K143">
         <v>115.38</v>
       </c>
-      <c r="L143">
-        <v>-0.7</v>
+      <c r="L143" t="s">
+        <v>958</v>
       </c>
       <c r="M143" t="s">
-        <v>1029</v>
+        <v>1115</v>
       </c>
       <c r="N143">
         <v>1.87</v>
@@ -19681,7 +19939,7 @@
         <v>9</v>
       </c>
       <c r="Y143" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z143">
         <v>6.2</v>
@@ -19757,11 +20015,11 @@
       <c r="K144">
         <v>123.78</v>
       </c>
-      <c r="L144">
-        <v>3.8</v>
+      <c r="L144" t="s">
+        <v>1004</v>
       </c>
       <c r="M144" t="s">
-        <v>1030</v>
+        <v>1116</v>
       </c>
       <c r="N144">
         <v>1.71</v>
@@ -19797,7 +20055,7 @@
         <v>2.25</v>
       </c>
       <c r="Y144" t="s">
-        <v>1163</v>
+        <v>1249</v>
       </c>
       <c r="Z144">
         <v>21.3</v>
@@ -19873,11 +20131,11 @@
       <c r="K145">
         <v>180.75</v>
       </c>
-      <c r="L145">
-        <v>4.5</v>
+      <c r="L145" t="s">
+        <v>1005</v>
       </c>
       <c r="M145" t="s">
-        <v>1031</v>
+        <v>1117</v>
       </c>
       <c r="N145">
         <v>1.57</v>
@@ -19913,7 +20171,7 @@
         <v>0.53</v>
       </c>
       <c r="Y145" t="s">
-        <v>1125</v>
+        <v>1211</v>
       </c>
       <c r="Z145">
         <v>36.4</v>
@@ -19989,11 +20247,11 @@
       <c r="K146">
         <v>151.09</v>
       </c>
-      <c r="L146">
-        <v>3.4</v>
+      <c r="L146" t="s">
+        <v>1006</v>
       </c>
       <c r="M146" t="s">
-        <v>1032</v>
+        <v>1118</v>
       </c>
       <c r="N146">
         <v>4.04</v>
@@ -20026,7 +20284,7 @@
         <v>248</v>
       </c>
       <c r="Y146" t="s">
-        <v>1154</v>
+        <v>1240</v>
       </c>
       <c r="Z146">
         <v>26</v>
@@ -20099,11 +20357,11 @@
       <c r="K147">
         <v>104.57</v>
       </c>
-      <c r="L147">
-        <v>-1</v>
+      <c r="L147" t="s">
+        <v>962</v>
       </c>
       <c r="M147" t="s">
-        <v>941</v>
+        <v>1027</v>
       </c>
       <c r="N147">
         <v>2.11</v>
@@ -20133,7 +20391,7 @@
         <v>3.33</v>
       </c>
       <c r="Y147" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z147">
         <v>56.6</v>
@@ -20200,11 +20458,11 @@
       <c r="K148">
         <v>110.13</v>
       </c>
-      <c r="L148">
-        <v>1.9</v>
+      <c r="L148" t="s">
+        <v>960</v>
       </c>
       <c r="M148" t="s">
-        <v>941</v>
+        <v>1027</v>
       </c>
       <c r="N148">
         <v>1.44</v>
@@ -20237,7 +20495,7 @@
         <v>117</v>
       </c>
       <c r="Y148" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z148">
         <v>48.4</v>
@@ -20310,11 +20568,11 @@
       <c r="K149">
         <v>109.67</v>
       </c>
-      <c r="L149">
-        <v>2.3</v>
+      <c r="L149" t="s">
+        <v>936</v>
       </c>
       <c r="M149" t="s">
-        <v>941</v>
+        <v>1027</v>
       </c>
       <c r="N149">
         <v>1.89</v>
@@ -20335,7 +20593,7 @@
         <v>14.8</v>
       </c>
       <c r="U149" t="s">
-        <v>1100</v>
+        <v>1186</v>
       </c>
       <c r="V149">
         <v>72.40000000000001</v>
@@ -20347,7 +20605,7 @@
         <v>1.16</v>
       </c>
       <c r="Y149" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z149">
         <v>21.4</v>
@@ -20420,11 +20678,11 @@
       <c r="K150">
         <v>117.56</v>
       </c>
-      <c r="L150">
-        <v>1</v>
+      <c r="L150" t="s">
+        <v>970</v>
       </c>
       <c r="M150" t="s">
-        <v>1033</v>
+        <v>1119</v>
       </c>
       <c r="N150">
         <v>3.88</v>
@@ -20460,7 +20718,7 @@
         <v>0.78</v>
       </c>
       <c r="Y150" t="s">
-        <v>1175</v>
+        <v>1261</v>
       </c>
       <c r="Z150">
         <v>11.5</v>
@@ -20530,11 +20788,11 @@
       <c r="K151">
         <v>110.63</v>
       </c>
-      <c r="L151">
-        <v>1</v>
+      <c r="L151" t="s">
+        <v>970</v>
       </c>
       <c r="M151" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N151">
         <v>1.26</v>
@@ -20561,7 +20819,7 @@
         <v>85.40000000000001</v>
       </c>
       <c r="Y151" t="s">
-        <v>1145</v>
+        <v>1231</v>
       </c>
       <c r="Z151">
         <v>18.3</v>
@@ -20628,11 +20886,11 @@
       <c r="K153">
         <v>118.4</v>
       </c>
-      <c r="L153">
-        <v>-1.2</v>
+      <c r="L153" t="s">
+        <v>1007</v>
       </c>
       <c r="M153" t="s">
-        <v>1034</v>
+        <v>1120</v>
       </c>
       <c r="N153">
         <v>2.32</v>
@@ -20668,7 +20926,7 @@
         <v>3.85</v>
       </c>
       <c r="Y153" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z153">
         <v>15</v>
@@ -20744,11 +21002,11 @@
       <c r="K154">
         <v>109.25</v>
       </c>
-      <c r="L154">
-        <v>1.8</v>
+      <c r="L154" t="s">
+        <v>951</v>
       </c>
       <c r="M154" t="s">
-        <v>951</v>
+        <v>1037</v>
       </c>
       <c r="N154">
         <v>4.63</v>
@@ -20772,7 +21030,7 @@
         <v>31.8</v>
       </c>
       <c r="U154" t="s">
-        <v>1101</v>
+        <v>1187</v>
       </c>
       <c r="V154">
         <v>67.7</v>
@@ -20784,7 +21042,7 @@
         <v>0.31</v>
       </c>
       <c r="Y154" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z154">
         <v>44.2</v>
@@ -20860,11 +21118,11 @@
       <c r="K155">
         <v>144</v>
       </c>
-      <c r="L155">
-        <v>1.8</v>
+      <c r="L155" t="s">
+        <v>951</v>
       </c>
       <c r="M155" t="s">
-        <v>1035</v>
+        <v>1121</v>
       </c>
       <c r="N155">
         <v>1.49</v>
@@ -20900,7 +21158,7 @@
         <v>1.57</v>
       </c>
       <c r="Y155" t="s">
-        <v>1176</v>
+        <v>1262</v>
       </c>
       <c r="Z155">
         <v>40.6</v>
@@ -20976,11 +21234,11 @@
       <c r="K156">
         <v>129.96</v>
       </c>
-      <c r="L156">
-        <v>1.8</v>
+      <c r="L156" t="s">
+        <v>951</v>
       </c>
       <c r="M156" t="s">
-        <v>1036</v>
+        <v>1122</v>
       </c>
       <c r="N156">
         <v>2.41</v>
@@ -21013,7 +21271,7 @@
         <v>2</v>
       </c>
       <c r="Y156" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z156">
         <v>2.5</v>
@@ -21083,11 +21341,11 @@
       <c r="K157">
         <v>234.16</v>
       </c>
-      <c r="L157">
-        <v>14.8</v>
+      <c r="L157" t="s">
+        <v>1008</v>
       </c>
       <c r="M157" t="s">
-        <v>1037</v>
+        <v>1123</v>
       </c>
       <c r="N157">
         <v>4.26</v>
@@ -21123,7 +21381,7 @@
         <v>0.57</v>
       </c>
       <c r="Y157" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z157">
         <v>38.2</v>
@@ -21196,11 +21454,11 @@
       <c r="K158">
         <v>114.41</v>
       </c>
-      <c r="L158">
-        <v>0.6</v>
+      <c r="L158" t="s">
+        <v>952</v>
       </c>
       <c r="M158" t="s">
-        <v>1038</v>
+        <v>1124</v>
       </c>
       <c r="N158">
         <v>1.14</v>
@@ -21230,7 +21488,7 @@
         <v>8</v>
       </c>
       <c r="Y158" t="s">
-        <v>1129</v>
+        <v>1215</v>
       </c>
       <c r="Z158">
         <v>36.7</v>
@@ -21306,11 +21564,11 @@
       <c r="K159">
         <v>115.34</v>
       </c>
-      <c r="L159">
-        <v>2.7</v>
+      <c r="L159" t="s">
+        <v>950</v>
       </c>
       <c r="M159" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N159">
         <v>1.52</v>
@@ -21346,7 +21604,7 @@
         <v>3.11</v>
       </c>
       <c r="Y159" t="s">
-        <v>1177</v>
+        <v>1263</v>
       </c>
       <c r="Z159">
         <v>18.4</v>
@@ -21422,11 +21680,11 @@
       <c r="K160">
         <v>111.05</v>
       </c>
-      <c r="L160">
-        <v>1.6</v>
+      <c r="L160" t="s">
+        <v>942</v>
       </c>
       <c r="M160" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N160">
         <v>1.6</v>
@@ -21462,7 +21720,7 @@
         <v>5.25</v>
       </c>
       <c r="Y160" t="s">
-        <v>1178</v>
+        <v>1264</v>
       </c>
       <c r="Z160">
         <v>12.5</v>
@@ -21535,11 +21793,11 @@
       <c r="K161">
         <v>133.06</v>
       </c>
-      <c r="L161">
-        <v>1.6</v>
+      <c r="L161" t="s">
+        <v>942</v>
       </c>
       <c r="M161" t="s">
-        <v>1039</v>
+        <v>1125</v>
       </c>
       <c r="N161">
         <v>4.4</v>
@@ -21569,7 +21827,7 @@
         <v>0.4</v>
       </c>
       <c r="Y161" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z161">
         <v>3.3</v>
@@ -21643,7 +21901,7 @@
         <v>645</v>
       </c>
       <c r="M162" t="s">
-        <v>1040</v>
+        <v>1126</v>
       </c>
       <c r="N162">
         <v>6.07</v>
@@ -21667,7 +21925,7 @@
         <v>76.59999999999999</v>
       </c>
       <c r="U162" t="s">
-        <v>1102</v>
+        <v>1188</v>
       </c>
       <c r="V162">
         <v>57.1</v>
@@ -21676,7 +21934,7 @@
         <v>829</v>
       </c>
       <c r="Y162" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="AA162">
         <v>0.02</v>
@@ -21746,11 +22004,11 @@
       <c r="K163">
         <v>158.93</v>
       </c>
-      <c r="L163">
-        <v>4.1</v>
+      <c r="L163" t="s">
+        <v>948</v>
       </c>
       <c r="M163" t="s">
-        <v>1041</v>
+        <v>1127</v>
       </c>
       <c r="N163">
         <v>2.41</v>
@@ -21774,7 +22032,7 @@
         <v>28.5</v>
       </c>
       <c r="U163" t="s">
-        <v>1103</v>
+        <v>1189</v>
       </c>
       <c r="V163">
         <v>63.9</v>
@@ -21783,7 +22041,7 @@
         <v>119</v>
       </c>
       <c r="Y163" t="s">
-        <v>1179</v>
+        <v>1265</v>
       </c>
       <c r="Z163">
         <v>7.7</v>
@@ -21859,11 +22117,11 @@
       <c r="K164">
         <v>115.16</v>
       </c>
-      <c r="L164">
-        <v>0.4</v>
+      <c r="L164" t="s">
+        <v>984</v>
       </c>
       <c r="M164" t="s">
-        <v>1042</v>
+        <v>1128</v>
       </c>
       <c r="N164">
         <v>0.98</v>
@@ -21899,7 +22157,7 @@
         <v>6.49</v>
       </c>
       <c r="Y164" t="s">
-        <v>1169</v>
+        <v>1255</v>
       </c>
       <c r="Z164">
         <v>36.8</v>
@@ -21972,11 +22230,11 @@
       <c r="K165">
         <v>4583.71</v>
       </c>
-      <c r="L165">
-        <v>187.9</v>
+      <c r="L165" t="s">
+        <v>1009</v>
       </c>
       <c r="M165" t="s">
-        <v>1043</v>
+        <v>1129</v>
       </c>
       <c r="N165">
         <v>4.7</v>
@@ -22003,7 +22261,7 @@
         <v>1150</v>
       </c>
       <c r="Y165" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z165">
         <v>61.3</v>
@@ -22073,11 +22331,11 @@
       <c r="K166">
         <v>110.96</v>
       </c>
-      <c r="L166">
-        <v>0.7</v>
+      <c r="L166" t="s">
+        <v>993</v>
       </c>
       <c r="M166" t="s">
-        <v>939</v>
+        <v>1025</v>
       </c>
       <c r="N166">
         <v>1.26</v>
@@ -22113,7 +22371,7 @@
         <v>5.6</v>
       </c>
       <c r="Y166" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z166">
         <v>24.2</v>
@@ -22189,11 +22447,11 @@
       <c r="K167">
         <v>155.53</v>
       </c>
-      <c r="L167">
-        <v>3.5</v>
+      <c r="L167" t="s">
+        <v>964</v>
       </c>
       <c r="M167" t="s">
-        <v>1044</v>
+        <v>1130</v>
       </c>
       <c r="N167">
         <v>2.2</v>
@@ -22229,7 +22487,7 @@
         <v>0.35</v>
       </c>
       <c r="Y167" t="s">
-        <v>1180</v>
+        <v>1266</v>
       </c>
       <c r="Z167">
         <v>38.4</v>
@@ -22305,11 +22563,11 @@
       <c r="K168">
         <v>1344.19</v>
       </c>
-      <c r="L168">
-        <v>51</v>
+      <c r="L168" t="s">
+        <v>1010</v>
       </c>
       <c r="M168" t="s">
-        <v>1045</v>
+        <v>1131</v>
       </c>
       <c r="N168">
         <v>4.41</v>
@@ -22333,7 +22591,7 @@
         <v>42.1</v>
       </c>
       <c r="U168" t="s">
-        <v>1104</v>
+        <v>1190</v>
       </c>
       <c r="V168">
         <v>65.09999999999999</v>
@@ -22345,7 +22603,7 @@
         <v>0.41</v>
       </c>
       <c r="Y168" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z168">
         <v>63.2</v>
@@ -22421,11 +22679,11 @@
       <c r="K169">
         <v>294.66</v>
       </c>
-      <c r="L169">
-        <v>22</v>
+      <c r="L169" t="s">
+        <v>1011</v>
       </c>
       <c r="M169" t="s">
-        <v>1046</v>
+        <v>1132</v>
       </c>
       <c r="N169">
         <v>2.42</v>
@@ -22458,7 +22716,7 @@
         <v>120</v>
       </c>
       <c r="Y169" t="s">
-        <v>1168</v>
+        <v>1254</v>
       </c>
       <c r="Z169">
         <v>10.1</v>
@@ -22534,11 +22792,11 @@
       <c r="K170">
         <v>110.51</v>
       </c>
-      <c r="L170">
-        <v>1.8</v>
+      <c r="L170" t="s">
+        <v>951</v>
       </c>
       <c r="M170" t="s">
-        <v>1047</v>
+        <v>1133</v>
       </c>
       <c r="N170">
         <v>1.76</v>
@@ -22562,7 +22820,7 @@
         <v>2.2</v>
       </c>
       <c r="U170" t="s">
-        <v>1105</v>
+        <v>1191</v>
       </c>
       <c r="V170">
         <v>82.5</v>
@@ -22571,7 +22829,7 @@
         <v>4</v>
       </c>
       <c r="Y170" t="s">
-        <v>1143</v>
+        <v>1229</v>
       </c>
       <c r="Z170">
         <v>15.2</v>
@@ -22647,11 +22905,11 @@
       <c r="K171">
         <v>99.55</v>
       </c>
-      <c r="L171">
-        <v>0.4</v>
+      <c r="L171" t="s">
+        <v>984</v>
       </c>
       <c r="M171" t="s">
-        <v>1003</v>
+        <v>1089</v>
       </c>
       <c r="N171">
         <v>1.52</v>
@@ -22675,7 +22933,7 @@
         <v>3.7</v>
       </c>
       <c r="U171" t="s">
-        <v>1106</v>
+        <v>1192</v>
       </c>
       <c r="V171">
         <v>83.59999999999999</v>
@@ -22684,7 +22942,7 @@
         <v>5</v>
       </c>
       <c r="Y171" t="s">
-        <v>1122</v>
+        <v>1208</v>
       </c>
       <c r="Z171">
         <v>28.3</v>
@@ -22760,11 +23018,11 @@
       <c r="K172">
         <v>143.2</v>
       </c>
-      <c r="L172">
-        <v>36.7</v>
+      <c r="L172" t="s">
+        <v>1012</v>
       </c>
       <c r="M172" t="s">
-        <v>1048</v>
+        <v>1134</v>
       </c>
       <c r="N172">
         <v>2.81</v>
@@ -22800,7 +23058,7 @@
         <v>1.02</v>
       </c>
       <c r="Y172" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z172">
         <v>53.7</v>
@@ -22876,11 +23134,11 @@
       <c r="K173">
         <v>148.57</v>
       </c>
-      <c r="L173">
-        <v>6</v>
+      <c r="L173" t="s">
+        <v>1013</v>
       </c>
       <c r="M173" t="s">
-        <v>1049</v>
+        <v>1135</v>
       </c>
       <c r="N173">
         <v>3.59</v>
@@ -22916,7 +23174,7 @@
         <v>0.23</v>
       </c>
       <c r="Y173" t="s">
-        <v>1150</v>
+        <v>1236</v>
       </c>
       <c r="Z173">
         <v>63.1</v>
@@ -22992,11 +23250,11 @@
       <c r="K174">
         <v>187.43</v>
       </c>
-      <c r="L174">
-        <v>3.5</v>
+      <c r="L174" t="s">
+        <v>964</v>
       </c>
       <c r="M174" t="s">
-        <v>1050</v>
+        <v>1136</v>
       </c>
       <c r="N174">
         <v>4.89</v>
@@ -23020,7 +23278,7 @@
         <v>37.6</v>
       </c>
       <c r="U174" t="s">
-        <v>1107</v>
+        <v>1193</v>
       </c>
       <c r="V174">
         <v>65</v>
@@ -23032,7 +23290,7 @@
         <v>0.09</v>
       </c>
       <c r="Y174" t="s">
-        <v>1154</v>
+        <v>1240</v>
       </c>
       <c r="Z174">
         <v>26.1</v>
@@ -23108,11 +23366,11 @@
       <c r="K175">
         <v>113.27</v>
       </c>
-      <c r="L175">
-        <v>0.7</v>
+      <c r="L175" t="s">
+        <v>993</v>
       </c>
       <c r="M175" t="s">
-        <v>1051</v>
+        <v>1137</v>
       </c>
       <c r="N175">
         <v>1.53</v>
@@ -23148,7 +23406,7 @@
         <v>1.06</v>
       </c>
       <c r="Y175" t="s">
-        <v>1181</v>
+        <v>1267</v>
       </c>
       <c r="Z175">
         <v>11.8</v>
@@ -23224,11 +23482,11 @@
       <c r="K176">
         <v>145.38</v>
       </c>
-      <c r="L176">
-        <v>2.6</v>
+      <c r="L176" t="s">
+        <v>944</v>
       </c>
       <c r="M176" t="s">
-        <v>974</v>
+        <v>1060</v>
       </c>
       <c r="N176">
         <v>4.02</v>
@@ -23264,7 +23522,7 @@
         <v>0.6</v>
       </c>
       <c r="Y176" t="s">
-        <v>1118</v>
+        <v>1204</v>
       </c>
       <c r="Z176">
         <v>10.2</v>
@@ -23340,11 +23598,11 @@
       <c r="K177">
         <v>113.3</v>
       </c>
-      <c r="L177">
-        <v>0.7</v>
+      <c r="L177" t="s">
+        <v>993</v>
       </c>
       <c r="M177" t="s">
-        <v>951</v>
+        <v>1037</v>
       </c>
       <c r="N177">
         <v>4.32</v>
@@ -23380,7 +23638,7 @@
         <v>0.34</v>
       </c>
       <c r="Y177" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z177">
         <v>51</v>
@@ -23453,11 +23711,11 @@
       <c r="K178">
         <v>121.09</v>
       </c>
-      <c r="L178">
-        <v>7.4</v>
+      <c r="L178" t="s">
+        <v>1014</v>
       </c>
       <c r="M178" t="s">
-        <v>1052</v>
+        <v>1138</v>
       </c>
       <c r="N178">
         <v>3.56</v>
@@ -23487,7 +23745,7 @@
         <v>52</v>
       </c>
       <c r="Y178" t="s">
-        <v>1182</v>
+        <v>1268</v>
       </c>
       <c r="Z178">
         <v>10.2</v>
@@ -23563,11 +23821,11 @@
       <c r="K179">
         <v>141.75</v>
       </c>
-      <c r="L179">
-        <v>1</v>
+      <c r="L179" t="s">
+        <v>970</v>
       </c>
       <c r="M179" t="s">
-        <v>1053</v>
+        <v>1139</v>
       </c>
       <c r="N179">
         <v>1.73</v>
@@ -23591,7 +23849,7 @@
         <v>16.4</v>
       </c>
       <c r="U179" t="s">
-        <v>1108</v>
+        <v>1194</v>
       </c>
       <c r="V179">
         <v>73.40000000000001</v>
@@ -23603,7 +23861,7 @@
         <v>2.25</v>
       </c>
       <c r="Y179" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z179">
         <v>37.3</v>
@@ -23679,11 +23937,11 @@
       <c r="K180">
         <v>155.33</v>
       </c>
-      <c r="L180">
-        <v>6.7</v>
+      <c r="L180" t="s">
+        <v>1015</v>
       </c>
       <c r="M180" t="s">
-        <v>1054</v>
+        <v>1140</v>
       </c>
       <c r="N180">
         <v>2.2</v>
@@ -23719,7 +23977,7 @@
         <v>0.47</v>
       </c>
       <c r="Y180" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z180">
         <v>39.8</v>
@@ -23795,11 +24053,11 @@
       <c r="K181">
         <v>234.44</v>
       </c>
-      <c r="L181">
-        <v>15.2</v>
+      <c r="L181" t="s">
+        <v>1016</v>
       </c>
       <c r="M181" t="s">
-        <v>1055</v>
+        <v>1141</v>
       </c>
       <c r="N181">
         <v>2.07</v>
@@ -23823,7 +24081,7 @@
         <v>9.1</v>
       </c>
       <c r="U181" t="s">
-        <v>1109</v>
+        <v>1195</v>
       </c>
       <c r="V181">
         <v>77.40000000000001</v>
@@ -23835,7 +24093,7 @@
         <v>3.45</v>
       </c>
       <c r="Y181" t="s">
-        <v>1183</v>
+        <v>1269</v>
       </c>
       <c r="Z181">
         <v>16.9</v>
@@ -23909,7 +24167,7 @@
         <v>70630</v>
       </c>
       <c r="M182" t="s">
-        <v>1056</v>
+        <v>1142</v>
       </c>
       <c r="N182">
         <v>2.79</v>
@@ -23945,7 +24203,7 @@
         <v>0.88</v>
       </c>
       <c r="Y182" t="s">
-        <v>1184</v>
+        <v>1270</v>
       </c>
       <c r="Z182">
         <v>71.09999999999999</v>
@@ -24007,7 +24265,7 @@
         <v>11</v>
       </c>
       <c r="M183" t="s">
-        <v>944</v>
+        <v>1030</v>
       </c>
       <c r="O183">
         <v>33.3</v>
@@ -24025,7 +24283,7 @@
         <v>193</v>
       </c>
       <c r="Y183" t="s">
-        <v>1185</v>
+        <v>1271</v>
       </c>
       <c r="Z183">
         <v>0.7</v>
@@ -24089,11 +24347,11 @@
       <c r="K184">
         <v>173.87</v>
       </c>
-      <c r="L184">
-        <v>2.9</v>
+      <c r="L184" t="s">
+        <v>963</v>
       </c>
       <c r="M184" t="s">
-        <v>1057</v>
+        <v>1143</v>
       </c>
       <c r="N184">
         <v>4.96</v>
@@ -24117,7 +24375,7 @@
         <v>33.8</v>
       </c>
       <c r="U184" t="s">
-        <v>1110</v>
+        <v>1196</v>
       </c>
       <c r="V184">
         <v>63</v>
@@ -24129,7 +24387,7 @@
         <v>0.01</v>
       </c>
       <c r="Y184" t="s">
-        <v>1154</v>
+        <v>1240</v>
       </c>
       <c r="Z184">
         <v>40.5</v>
@@ -24205,11 +24463,11 @@
       <c r="K185">
         <v>281.66</v>
       </c>
-      <c r="L185">
-        <v>7.9</v>
+      <c r="L185" t="s">
+        <v>1017</v>
       </c>
       <c r="M185" t="s">
-        <v>1058</v>
+        <v>1144</v>
       </c>
       <c r="N185">
         <v>1.3</v>
@@ -24245,7 +24503,7 @@
         <v>0.84</v>
       </c>
       <c r="Y185" t="s">
-        <v>1186</v>
+        <v>1272</v>
       </c>
       <c r="Z185">
         <v>47.8</v>
@@ -24321,11 +24579,11 @@
       <c r="K186">
         <v>114.52</v>
       </c>
-      <c r="L186">
-        <v>-1.9</v>
+      <c r="L186" t="s">
+        <v>1018</v>
       </c>
       <c r="M186" t="s">
-        <v>1059</v>
+        <v>1145</v>
       </c>
       <c r="N186">
         <v>1.41</v>
@@ -24349,7 +24607,7 @@
         <v>6.5</v>
       </c>
       <c r="U186" t="s">
-        <v>1111</v>
+        <v>1197</v>
       </c>
       <c r="V186">
         <v>77.8</v>
@@ -24358,7 +24616,7 @@
         <v>3</v>
       </c>
       <c r="Y186" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z186">
         <v>17.8</v>
@@ -24434,11 +24692,11 @@
       <c r="K187">
         <v>119.62</v>
       </c>
-      <c r="L187">
-        <v>1.7</v>
+      <c r="L187" t="s">
+        <v>991</v>
       </c>
       <c r="M187" t="s">
-        <v>1060</v>
+        <v>1146</v>
       </c>
       <c r="N187">
         <v>1.68</v>
@@ -24474,7 +24732,7 @@
         <v>10.13</v>
       </c>
       <c r="Y187" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z187">
         <v>14.8</v>
@@ -24550,11 +24808,11 @@
       <c r="K188">
         <v>117.24</v>
       </c>
-      <c r="L188">
-        <v>7.5</v>
+      <c r="L188" t="s">
+        <v>1019</v>
       </c>
       <c r="M188" t="s">
-        <v>974</v>
+        <v>1060</v>
       </c>
       <c r="N188">
         <v>1.73</v>
@@ -24578,7 +24836,7 @@
         <v>5.6</v>
       </c>
       <c r="U188" t="s">
-        <v>1112</v>
+        <v>1198</v>
       </c>
       <c r="V188">
         <v>78.5</v>
@@ -24663,11 +24921,11 @@
       <c r="K189">
         <v>202.92</v>
       </c>
-      <c r="L189">
-        <v>7.9</v>
+      <c r="L189" t="s">
+        <v>1017</v>
       </c>
       <c r="M189" t="s">
-        <v>1061</v>
+        <v>1147</v>
       </c>
       <c r="N189">
         <v>1.97</v>
@@ -24703,7 +24961,7 @@
         <v>1.66</v>
       </c>
       <c r="Y189" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z189">
         <v>16.2</v>
@@ -24777,7 +25035,7 @@
         <v>91811</v>
       </c>
       <c r="M190" t="s">
-        <v>1062</v>
+        <v>1148</v>
       </c>
       <c r="N190">
         <v>2.42</v>
@@ -24813,7 +25071,7 @@
         <v>0.24</v>
       </c>
       <c r="Y190" t="s">
-        <v>1187</v>
+        <v>1273</v>
       </c>
       <c r="Z190">
         <v>42.7</v>
@@ -24886,11 +25144,11 @@
       <c r="K191">
         <v>117.13</v>
       </c>
-      <c r="L191">
-        <v>2.8</v>
+      <c r="L191" t="s">
+        <v>953</v>
       </c>
       <c r="M191" t="s">
-        <v>1063</v>
+        <v>1149</v>
       </c>
       <c r="N191">
         <v>3.78</v>
@@ -24926,7 +25184,7 @@
         <v>1.56</v>
       </c>
       <c r="Y191" t="s">
-        <v>1126</v>
+        <v>1212</v>
       </c>
       <c r="Z191">
         <v>8.9</v>
@@ -25002,11 +25260,11 @@
       <c r="K192">
         <v>2740.27</v>
       </c>
-      <c r="L192">
-        <v>254.9</v>
+      <c r="L192" t="s">
+        <v>1020</v>
       </c>
       <c r="M192" t="s">
-        <v>1064</v>
+        <v>1150</v>
       </c>
       <c r="N192">
         <v>2.27</v>
@@ -25042,7 +25300,7 @@
         <v>0.01</v>
       </c>
       <c r="Y192" t="s">
-        <v>1120</v>
+        <v>1206</v>
       </c>
       <c r="Z192">
         <v>45.8</v>
@@ -25115,11 +25373,11 @@
       <c r="K193">
         <v>163.52</v>
       </c>
-      <c r="L193">
-        <v>2.8</v>
+      <c r="L193" t="s">
+        <v>953</v>
       </c>
       <c r="M193" t="s">
-        <v>1065</v>
+        <v>1151</v>
       </c>
       <c r="N193">
         <v>2.05</v>
@@ -25143,7 +25401,7 @@
         <v>16.5</v>
       </c>
       <c r="U193" t="s">
-        <v>1113</v>
+        <v>1199</v>
       </c>
       <c r="V193">
         <v>75.3</v>
@@ -25155,7 +25413,7 @@
         <v>0.73</v>
       </c>
       <c r="Y193" t="s">
-        <v>1188</v>
+        <v>1274</v>
       </c>
       <c r="Z193">
         <v>43.5</v>
@@ -25231,11 +25489,11 @@
       <c r="K194">
         <v>157.58</v>
       </c>
-      <c r="L194">
-        <v>8.1</v>
+      <c r="L194" t="s">
+        <v>1021</v>
       </c>
       <c r="M194" t="s">
-        <v>1066</v>
+        <v>1152</v>
       </c>
       <c r="N194">
         <v>3.79</v>
@@ -25268,7 +25526,7 @@
         <v>164</v>
       </c>
       <c r="Y194" t="s">
-        <v>1116</v>
+        <v>1202</v>
       </c>
       <c r="Z194">
         <v>81</v>
@@ -25341,11 +25599,11 @@
       <c r="K195">
         <v>212.31</v>
       </c>
-      <c r="L195">
-        <v>9.199999999999999</v>
+      <c r="L195" t="s">
+        <v>971</v>
       </c>
       <c r="M195" t="s">
-        <v>1067</v>
+        <v>1153</v>
       </c>
       <c r="N195">
         <v>4.63</v>
@@ -25381,7 +25639,7 @@
         <v>0.24</v>
       </c>
       <c r="Y195" t="s">
-        <v>1119</v>
+        <v>1205</v>
       </c>
       <c r="Z195">
         <v>27.5</v>
@@ -25457,8 +25715,8 @@
       <c r="K196">
         <v>105.51</v>
       </c>
-      <c r="L196">
-        <v>0.9</v>
+      <c r="L196" t="s">
+        <v>985</v>
       </c>
       <c r="N196">
         <v>3.62</v>
@@ -25491,7 +25749,7 @@
         <v>458</v>
       </c>
       <c r="Y196" t="s">
-        <v>1189</v>
+        <v>1275</v>
       </c>
       <c r="Z196">
         <v>25.8</v>
